--- a/data_import/template.xlsx
+++ b/data_import/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plindner/Development/NWC_backend/data_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDE9680-3151-724A-AD73-0F17CC938F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E76D3-6086-2D4A-B5BD-BBD52AFE6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54200" yWindow="2500" windowWidth="33800" windowHeight="17840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53940" yWindow="500" windowWidth="43620" windowHeight="21400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Data" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Data'!$A$1:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ed &amp; Career'!$A$1:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Electoral Politics'!$A$1:$A$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Leadership in Org'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Leadership in Org'!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Position on Planks'!$A$1:$AB$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Role at NWC'!$A$1:$AM$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Nancy Beck Young - Personal View" guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" mergeInterval="0" personalView="1" xWindow="1548" yWindow="-77" windowWidth="1673" windowHeight="850" activeSheetId="9"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1366" windowHeight="679" activeSheetId="5"/>
+    <customWorkbookView name="Claude Willan - Personal View" guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1920" windowHeight="865" tabRatio="716" activeSheetId="4"/>
+    <customWorkbookView name="Zarnow, Leandra R - Personal View" guid="{C3874448-A812-8040-8431-8F21B0489AFC}" mergeInterval="0" personalView="1" windowWidth="1302" windowHeight="554" activeSheetId="1"/>
+    <customWorkbookView name="Dan Clason - Personal View" guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Nancy Young - Personal View" guid="{7132840B-F908-9041-87B8-CDBD763689F5}" mergeInterval="0" personalView="1" xWindow="1472" yWindow="-25" windowWidth="1865" windowHeight="990" activeSheetId="1"/>
-    <customWorkbookView name="Dan Clason - Personal View" guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Zarnow, Leandra R - Personal View" guid="{C3874448-A812-8040-8431-8F21B0489AFC}" mergeInterval="0" personalView="1" windowWidth="1302" windowHeight="554" activeSheetId="1"/>
-    <customWorkbookView name="Claude Willan - Personal View" guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1920" windowHeight="865" tabRatio="716" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1366" windowHeight="679" activeSheetId="5"/>
-    <customWorkbookView name="Nancy Beck Young - Personal View" guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" mergeInterval="0" personalView="1" xWindow="1548" yWindow="-77" windowWidth="1673" windowHeight="850" activeSheetId="9"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="829">
   <si>
     <t>Name</t>
   </si>
@@ -373,9 +373,6 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>council member, City of Houston</t>
-  </si>
-  <si>
     <t>Category of Employment</t>
   </si>
   <si>
@@ -523,12 +520,6 @@
     <t>Spouse/partner's Political offices (if more than one, list all but create new column for each)</t>
   </si>
   <si>
-    <t>Start Year for Spouse/Partner’s Political Office</t>
-  </si>
-  <si>
-    <t>End Year for Spouse/Partner’s Political Office (if office is still held leave this column blank)</t>
-  </si>
-  <si>
     <t>$6K-12K</t>
   </si>
   <si>
@@ -565,1918 +556,2002 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Arab</t>
+  </si>
+  <si>
+    <t>Israeli</t>
+  </si>
+  <si>
+    <t>Cambodian</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>Native Hawaiian</t>
+  </si>
+  <si>
+    <t>Pacific Islander</t>
+  </si>
+  <si>
+    <t>Pakistani</t>
+  </si>
+  <si>
+    <t>Polynesian</t>
+  </si>
+  <si>
+    <t>South Asian</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>Afro-Caribbean</t>
+  </si>
+  <si>
+    <t>Afro-Latina/Latino</t>
+  </si>
+  <si>
+    <t>Chicana/Chicano</t>
+  </si>
+  <si>
+    <t>Cuban</t>
+  </si>
+  <si>
+    <t>Latina/Latino</t>
+  </si>
+  <si>
+    <t>Latinx</t>
+  </si>
+  <si>
+    <t>Mexican</t>
+  </si>
+  <si>
+    <t>Mexican American</t>
+  </si>
+  <si>
+    <t>Other Hispanic</t>
+  </si>
+  <si>
+    <t>Puerto Rican</t>
+  </si>
+  <si>
+    <t>Spanish/Hispanic</t>
+  </si>
+  <si>
+    <t>Alaska Native</t>
+  </si>
+  <si>
+    <t>First Nations</t>
+  </si>
+  <si>
+    <t>Indigenous</t>
+  </si>
+  <si>
+    <t>Albanian</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Jewish</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Portugese</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Ruthenian</t>
+  </si>
+  <si>
+    <t>Scotch</t>
+  </si>
+  <si>
+    <t>Slavic</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Ukranian</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>4-H</t>
+  </si>
+  <si>
+    <t>Ad Hoc Coalition of Community and Feminist Organizations (Austin, TX)</t>
+  </si>
+  <si>
+    <t>All Saints Parish (Wichita Falls, TX), Vestry</t>
+  </si>
+  <si>
+    <t>All Saints Parish (Wichita Falls, TX)</t>
+  </si>
+  <si>
+    <t>Alpha Kappa Alpha</t>
+  </si>
+  <si>
+    <t>American Association of University Women, Abilene (TX) Chapter</t>
+  </si>
+  <si>
+    <t>American Association of University Women, Lubbock (TX) Chapter</t>
+  </si>
+  <si>
+    <t>American Association of University Women, Tarrant County (TX) Chapter</t>
+  </si>
+  <si>
+    <t>American Association University Women (AAUW)</t>
+  </si>
+  <si>
+    <t>American Association University Women (AAUW), Texas Chapter</t>
+  </si>
+  <si>
+    <t>American Bar Association (ABA)</t>
+  </si>
+  <si>
+    <t>American Beauty Charm Club</t>
+  </si>
+  <si>
+    <t>American Business Club Auxiliary</t>
+  </si>
+  <si>
+    <t>American Cancer Crusade</t>
+  </si>
+  <si>
+    <t>American Civil Liberties Union (ACLU)</t>
+  </si>
+  <si>
+    <t>American Civil Liberties Union (ACLU), Amarillo (TX) Chapter</t>
+  </si>
+  <si>
+    <t>American Economics Association</t>
+  </si>
+  <si>
+    <t>American Economics Association, Committee on the Status of Women in the Economics Profession</t>
+  </si>
+  <si>
+    <t>American Federation of Labor-Congress of Industrial Organizations (AFL-CIO)</t>
+  </si>
+  <si>
+    <t>American Geological Institute</t>
+  </si>
+  <si>
+    <t>American Geological Institute, Women in Geoscience Committee</t>
+  </si>
+  <si>
+    <t>American Harp Society</t>
+  </si>
+  <si>
+    <t>American Harp Society, Lubbock (TX) Chapter</t>
+  </si>
+  <si>
+    <t>American Heart Association</t>
+  </si>
+  <si>
+    <t>American Institute of Discussion</t>
+  </si>
+  <si>
+    <t>American Legion Auxiliary (ALA)</t>
+  </si>
+  <si>
+    <t>American Legion Auxiliary (ALA), Unit 208</t>
+  </si>
+  <si>
+    <t>American Library Association</t>
+  </si>
+  <si>
+    <t>American Red Cross</t>
+  </si>
+  <si>
+    <t>Anthony Stanton, Inc.</t>
+  </si>
+  <si>
+    <t>Archdiocesan Council of Catholic Women</t>
+  </si>
+  <si>
+    <t>Archdiocesan Council of Catholic Women, Archdiocese of San Antonio (TX)</t>
+  </si>
+  <si>
+    <t>Archdiocesan Council of Catholic Women, Community Affairs Commission, Archdiocese of San Antonio (TX)</t>
+  </si>
+  <si>
+    <t>Archdiocesan Council of Catholic Women, Family Affairs Commission, Archdiocese of San Antonio (TX)</t>
+  </si>
+  <si>
+    <t>Arizona Youth Innocence Project</t>
+  </si>
+  <si>
+    <t>Arlington (TX) Housing Advisory Board</t>
+  </si>
+  <si>
+    <t>Aspen Institute</t>
+  </si>
+  <si>
+    <t>Association of Brownsville (TX) Educators</t>
+  </si>
+  <si>
+    <t>Association of Social Workers Concerned with Lesbian and Gay Issues</t>
+  </si>
+  <si>
+    <t>Association of Women in Social Work</t>
+  </si>
+  <si>
+    <t>Association on American Indian Affairs</t>
+  </si>
+  <si>
+    <t>Audubon Society</t>
+  </si>
+  <si>
+    <t>Austin (TX) Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Austin (TX) Community Services Council</t>
+  </si>
+  <si>
+    <t>Austin (TX) Convention and Visitors Bureau</t>
+  </si>
+  <si>
+    <t>Austin (TX) Human Relations Commission</t>
+  </si>
+  <si>
+    <t>Austin (TX) Lesbian Organization</t>
+  </si>
+  <si>
+    <t>Austin (TX) Networker</t>
+  </si>
+  <si>
+    <t>Austin (TX) Public Library Foundation</t>
+  </si>
+  <si>
+    <t>Austin (TX) Women's Center</t>
+  </si>
+  <si>
+    <t>Austin (TX) Women's Coalition</t>
+  </si>
+  <si>
+    <t>Bethune Day Nursery</t>
+  </si>
+  <si>
+    <t>Big Brothers/Big Sisters of Nueces County (TX)</t>
+  </si>
+  <si>
+    <t>Black Dallas (TX) Remembered, Inc.</t>
+  </si>
+  <si>
+    <t>Black Luncheon Group</t>
+  </si>
+  <si>
+    <t>Black Psychological Association of Texas and North Central</t>
+  </si>
+  <si>
+    <t>Black Women Lawyers Association</t>
+  </si>
+  <si>
+    <t>Black Women's Conference of Texas</t>
+  </si>
+  <si>
+    <t>Blacks United in Life Development (BUILD)</t>
+  </si>
+  <si>
+    <t>Boy Scouts of America</t>
+  </si>
+  <si>
+    <t>Boy Scouts of America, Executive Committee</t>
+  </si>
+  <si>
+    <t>Brownsville (TX) Democratic Women</t>
+  </si>
+  <si>
+    <t>Brownsville (TX) Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Brykerwoods-Rosedale Community School Advisory Council (Austin, TX)</t>
+  </si>
+  <si>
+    <t>Business &amp; Professional Women's Club of Dallas, (TX) Inc.</t>
+  </si>
+  <si>
+    <t>California Coastal Protection Network</t>
+  </si>
+  <si>
+    <t>Camp Fire Council of Lubbock (TX)</t>
+  </si>
+  <si>
+    <t>Camp Fire Girls</t>
+  </si>
+  <si>
+    <t>Camp Fire Girls, Alamo Council (San Antonio, TX)</t>
+  </si>
+  <si>
+    <t>Caprock Council of Girl Scouts (Lubbock, TX)</t>
+  </si>
+  <si>
+    <t>Catholic Daughters of America (CDA)</t>
+  </si>
+  <si>
+    <t>Cedar Crest Civil Club</t>
+  </si>
+  <si>
+    <t>Center for Battered Women (Austin, TX)</t>
+  </si>
+  <si>
+    <t>Center for Rehabilitating Alcoholics</t>
+  </si>
+  <si>
+    <t>Centro Chicano Senior Citizens Group</t>
+  </si>
+  <si>
+    <t>Charro, Inc.</t>
+  </si>
+  <si>
+    <t>Chi Omega</t>
+  </si>
+  <si>
+    <t>Chicana Association for Reform and Advocacy</t>
+  </si>
+  <si>
+    <t>Chicana Research and Learning Center</t>
+  </si>
+  <si>
+    <t>Chicana Rights Project</t>
+  </si>
+  <si>
+    <t>Chicano Law Students Association</t>
+  </si>
+  <si>
+    <t>Child Care, Inc.</t>
+  </si>
+  <si>
+    <t>Choctaw-Chickasaw Alliance</t>
+  </si>
+  <si>
+    <t>Church Women United (CWU)</t>
+  </si>
+  <si>
+    <t>Citizen-Police Advisory Council</t>
+  </si>
+  <si>
+    <t>Citizens for a United Austin (TX)</t>
+  </si>
+  <si>
+    <t>Citizens for Good Schools</t>
+  </si>
+  <si>
+    <t>City Council Parent Teacher Association (PTA), Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Coalition for Abused Women (Houston, TX)</t>
+  </si>
+  <si>
+    <t>Coalition for Barrier Free Living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia Scholastic Press Association </t>
+  </si>
+  <si>
+    <t>Common Cause (CC)</t>
+  </si>
+  <si>
+    <t>Communication Workers of America (CWA)</t>
+  </si>
+  <si>
+    <t>Concerned Voters' Council, Inc.</t>
+  </si>
+  <si>
+    <t>Conference of Minority Public Administrators</t>
+  </si>
+  <si>
+    <t>Conference of Minority Public Administrators, Region 8 Executive Board</t>
+  </si>
+  <si>
+    <t>Confraternity of Christian Doctrine</t>
+  </si>
+  <si>
+    <t>Corpus Christi (TX) Area Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Council of Catholic Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Council of Government, Regional Drug Abuse Council </t>
+  </si>
+  <si>
+    <t>Cub Scouts</t>
+  </si>
+  <si>
+    <t>Dallas (TX) Alliance</t>
+  </si>
+  <si>
+    <t>Dallas (TX) Arboretum</t>
+  </si>
+  <si>
+    <t>Dallas (TX) Black Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>Dallas (TX) Economists Club</t>
+  </si>
+  <si>
+    <t>Dallas (TX) Theater Center, Women's Committee</t>
+  </si>
+  <si>
+    <t>Dallas (TX) Women's Center</t>
+  </si>
+  <si>
+    <t>Dallas (TX) Women's Forum</t>
+  </si>
+  <si>
+    <t>Dallas County (TX) Democratic Progressive Voters League</t>
+  </si>
+  <si>
+    <t>Dallas County (TX) Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Daughters of the American Revolution (DAR)</t>
+  </si>
+  <si>
+    <t>Day Care and Child Development Council of America (DCCDCA)</t>
+  </si>
+  <si>
+    <t>Deanery Council of Catholic Women, Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Deanery Council of Catholic Women, Floresville (TX)</t>
+  </si>
+  <si>
+    <t>Deanery Council of Catholic Women, Waco (TX)</t>
+  </si>
+  <si>
+    <t>Delta Kappa Gamma</t>
+  </si>
+  <si>
+    <t>Delta Sigma Theta</t>
+  </si>
+  <si>
+    <t>Democratic Women of Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Democratic Women of Grand Prairie (TX)</t>
+  </si>
+  <si>
+    <t>Diocesan Council of Catholic Women, Austin (TX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District Council of Catholic Women, Waco (TX)  </t>
+  </si>
+  <si>
+    <t>District University Interscholastic League</t>
+  </si>
+  <si>
+    <t>East First Human Development Center</t>
+  </si>
+  <si>
+    <t>Education Goals for Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Education Goals for Dallas (TX), Task Force</t>
+  </si>
+  <si>
+    <t>Education Task Force</t>
+  </si>
+  <si>
+    <t>El Comite (Political Action Committee in Valley in Texas)</t>
+  </si>
+  <si>
+    <t>El Paso (TX) Public Library Association</t>
+  </si>
+  <si>
+    <t>El Paso (TX) Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Episcopal Diocese of Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Episcopal Diocese of Dallas (TX), CAC Executive Committee</t>
+  </si>
+  <si>
+    <t>Episcopal Diocese of Dallas (TX), Planning and Development Committee</t>
+  </si>
+  <si>
+    <t>Epsilon Sigma Alpha</t>
+  </si>
+  <si>
+    <t>ERA Coalition (Texas)</t>
+  </si>
+  <si>
+    <t>Executive Women in Texas Government</t>
+  </si>
+  <si>
+    <t>Explorers (Boy Scouts of America)</t>
+  </si>
+  <si>
+    <t>Family Counseling Services, Corpus Christi and Kingsville (TX)</t>
+  </si>
+  <si>
+    <t>Family Institute of Texas</t>
+  </si>
+  <si>
+    <t>Federal Region VI Child Development Task Force</t>
+  </si>
+  <si>
+    <t>Federal Women's Program</t>
+  </si>
+  <si>
+    <t>Federal Women's Program Coordinator's Council, Dallas-Fort Worth (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Federally Employed Women (FEW)</t>
+  </si>
+  <si>
+    <t>Federally Employed Women, Inc., Fort Worth (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Federation of Catholic Parent-Teacher Clubs</t>
+  </si>
+  <si>
+    <t>Federation of Health Organizations</t>
+  </si>
+  <si>
+    <t>First Church Administrative Board (Dallas, TX)</t>
+  </si>
+  <si>
+    <t>First Presbyterian Church, Fort Worth (TX), April Evening Circle</t>
+  </si>
+  <si>
+    <t>Fort Worth (TX) Junior Women's Club</t>
+  </si>
+  <si>
+    <t>Foundation for Women's Resources</t>
+  </si>
+  <si>
+    <t>Friends of Fair Park (Dallas, TX)</t>
+  </si>
+  <si>
+    <t>Friends of the Library (Lubbock, TX)</t>
+  </si>
+  <si>
+    <t>Friends of the Weslaco (TX) Public Library</t>
+  </si>
+  <si>
+    <t>Future Homemakers of America (FHA)</t>
+  </si>
+  <si>
+    <t>Gay Political Caucus (Houston, TX)</t>
+  </si>
+  <si>
+    <t>Gethsemane Presbyterian Church (Fort Worth, TX), Outreach Committee</t>
+  </si>
+  <si>
+    <t>Goals for Black Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Goals for Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Goals for Dallas (TX) Community Council</t>
+  </si>
+  <si>
+    <t>"Goodbye to All That" Collective</t>
+  </si>
+  <si>
+    <t>Governor's Committee on Aging, Local Committee (Waco, TX)</t>
+  </si>
+  <si>
+    <t>Greater Council of Governments, Dallas County (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Greater San Antonio (TX) Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>Greater San Antonio (TX) Chamber of Commerce, Small Business Council</t>
+  </si>
+  <si>
+    <t>Harlingen (TX) Business &amp; Professional Women's Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris County (TX) Democrats </t>
+  </si>
+  <si>
+    <t>Harris County (TX) Republican Women's Task Force</t>
+  </si>
+  <si>
+    <t>Harris County (TX) Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Health, Science and Industry Museum, Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Hidalgo (TX) Coin Club</t>
+  </si>
+  <si>
+    <t>Hidalgo County (TX) Home Extension, Family Living Committee</t>
+  </si>
+  <si>
+    <t>Hidalgo County (TX) Republican Women</t>
+  </si>
+  <si>
+    <t>Hispanic Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>Hispanic Chamber of Commerce, Yakima (WA) Chapter</t>
+  </si>
+  <si>
+    <t>Hispanic International Board</t>
+  </si>
+  <si>
+    <t>Hispanic Women Lawyers Association</t>
+  </si>
+  <si>
+    <t>Hispanic Women's Network of Texas</t>
+  </si>
+  <si>
+    <t>Holy Cross Parish Hall (Dallas, TX)</t>
+  </si>
+  <si>
+    <t>Home Economics Cooperative Education</t>
+  </si>
+  <si>
+    <t>Homemaking Teachers Advisory Council, Area 10 (TX)</t>
+  </si>
+  <si>
+    <t>Hondo (TX) Garden Club</t>
+  </si>
+  <si>
+    <t>Houston (TX) Area Women's Center</t>
+  </si>
+  <si>
+    <t>Houston (TX) Bar Association</t>
+  </si>
+  <si>
+    <t>Houston (TX) Council for Human Relations</t>
+  </si>
+  <si>
+    <t>Houston (TX) Legal Foundation</t>
+  </si>
+  <si>
+    <t>Houston (TX) Operation Big Vote</t>
+  </si>
+  <si>
+    <t>Houston (TX) Rape Crisis Coalition</t>
+  </si>
+  <si>
+    <t>Houston (TX) Residents' Citizen Participation Commission</t>
+  </si>
+  <si>
+    <t>Human Relations Commission (Lubbock, TX)</t>
+  </si>
+  <si>
+    <t>Human Relations Commission, Housing Subcommittee, Austin (TX)</t>
+  </si>
+  <si>
+    <t>Human Resources Academy</t>
+  </si>
+  <si>
+    <t>Humane Society</t>
+  </si>
+  <si>
+    <t>Huntsville (TX) Community Theatre</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>IMAGE, Women's Task Force for State and Women's Caucus to State Executive Board</t>
+  </si>
+  <si>
+    <t>Intergovernmental Training Council</t>
+  </si>
+  <si>
+    <t>Intergovernmental Training Council, Standing Committee on Training Materials Clearinghouse</t>
+  </si>
+  <si>
+    <t>International Good Neighbor Council</t>
+  </si>
+  <si>
+    <t>International Women's Forum</t>
+  </si>
+  <si>
+    <t>International Women's Forum, Texas Chapter</t>
+  </si>
+  <si>
+    <t>International Year of the Child</t>
+  </si>
+  <si>
+    <t>Jack and Jill of America, Inc.</t>
+  </si>
+  <si>
+    <t>Jacyee-ettes, Lubbock (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Jim Wells County (TX) Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Justice Department Committee on Enforcement and the Law, National Minority Advisory Council on Criminal Justice to the Law Enforcement Assistance Administration</t>
+  </si>
+  <si>
+    <t>Kappa Alpha Theta Sorority</t>
+  </si>
+  <si>
+    <t>Karnes City (TX) Band Boosters</t>
+  </si>
+  <si>
+    <t>Karnes County (TX) 4-H</t>
+  </si>
+  <si>
+    <t>Kleberg County (TX) Bar Association</t>
+  </si>
+  <si>
+    <t>Leadership Corpus Christi (TX) Alumni Association</t>
+  </si>
+  <si>
+    <t>League of United Latin American Citizens (LULAC)</t>
+  </si>
+  <si>
+    <t>League of Women Voters (LWV)</t>
+  </si>
+  <si>
+    <t>League of Women Voters (LWV), Juvenile Problems Committee (Lubbock, TX)</t>
+  </si>
+  <si>
+    <t>League of Women Voters (LWV), Lubbock (TX) Chapter</t>
+  </si>
+  <si>
+    <t>League of Women Voters (LWV), Texas Chapter</t>
+  </si>
+  <si>
+    <t>League of Women Voters (LWV), Voting Rights Committee (TX)</t>
+  </si>
+  <si>
+    <t>Lesbian Feminist Organization, Austin (TX)</t>
+  </si>
+  <si>
+    <t>Lesbian/Gay Political Caucus, Austin (TX)</t>
+  </si>
+  <si>
+    <t>Lesbians Over Age Fifty (LOAF)</t>
+  </si>
+  <si>
+    <t>Library Club, Austin (TX)</t>
+  </si>
+  <si>
+    <t>Lower Rio Grande Valley (TX) Development Council</t>
+  </si>
+  <si>
+    <t>Lubbock (TX) Chamber of Commerce Women's Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lubbock (TX) Goals for the Seventies </t>
+  </si>
+  <si>
+    <t>Lubbock (TX) Rape Crisis Center</t>
+  </si>
+  <si>
+    <t>Lubbock County (TX) Heart Association</t>
+  </si>
+  <si>
+    <t>Lubbock, Crosby, Garza County (TX) Medical Society Auxiliary</t>
+  </si>
+  <si>
+    <t>McAllen (TX) International Orchid Society</t>
+  </si>
+  <si>
+    <t>Meals-on-Wheels</t>
+  </si>
+  <si>
+    <t>Mental Health Association</t>
+  </si>
+  <si>
+    <t>Methodist Hospital Auxiliary, Lubbock (TX)</t>
+  </si>
+  <si>
+    <t>Mexican American Bar Association</t>
+  </si>
+  <si>
+    <t>Mexican American Business and Professional Women of Austin (TX)</t>
+  </si>
+  <si>
+    <t>Mexican American Chamber of Commerce of Travis County (TX)</t>
+  </si>
+  <si>
+    <t>Mexican American Democrats</t>
+  </si>
+  <si>
+    <t>Mexican American Democrats (El Paso, TX)</t>
+  </si>
+  <si>
+    <t>Mexican American Leadership Organization</t>
+  </si>
+  <si>
+    <t>Mexican American Legal Defense Fund (MALDEF)</t>
+  </si>
+  <si>
+    <t>Mexican American Political Association</t>
+  </si>
+  <si>
+    <t>Mexican American Youth Organization (MAYO)</t>
+  </si>
+  <si>
+    <t>Mexico Catholic Daughters</t>
+  </si>
+  <si>
+    <t>Migrant Health Clinic (Mercedes, TX)</t>
+  </si>
+  <si>
+    <t>Minorities Cultural Center Committee at University of Texas-Arlington</t>
+  </si>
+  <si>
+    <t>Montrose Center (Houston, TX)</t>
+  </si>
+  <si>
+    <t>Montrose Democrats (Houston, TX)</t>
+  </si>
+  <si>
+    <t>Montrose-Fourth Ward Advisory Board on Senior Citizens (Houston, TX)</t>
+  </si>
+  <si>
+    <t>Mortar Board</t>
+  </si>
+  <si>
+    <t>Mortar Board, Fort Worth (TX) Alumni Club</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Mujeres Por La Raza Unida (Women of the Raza Unida)</t>
+  </si>
+  <si>
+    <t>Mujeres Unidas (University of Houston Women's Group)</t>
+  </si>
+  <si>
+    <t>National Abortion Rights Action League (NARAL)</t>
+  </si>
+  <si>
+    <t>National Alliance of Business</t>
+  </si>
+  <si>
+    <t>National Association for Education of Young Children</t>
+  </si>
+  <si>
+    <t>National Association for Female Executives</t>
+  </si>
+  <si>
+    <t>National Association for the Advancement of Colored People (NAACP)</t>
+  </si>
+  <si>
+    <t>National Association for the Advancement of Colored People (NAACP), Austin (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Association for the Advancement of Colored People (NAACP), Corpus Christi (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Association for Women Deans, Administrators and Counselors</t>
+  </si>
+  <si>
+    <t>National Association of Home Delivered and Congregate Meals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Association of Social Workers (NASW) </t>
+  </si>
+  <si>
+    <t>National Association of Social Workers (NASW), Houston (TX) Unit, Task Force on Women</t>
+  </si>
+  <si>
+    <t>National Center on Social Welfare Policy and Law</t>
+  </si>
+  <si>
+    <t>National Chicana Foundation</t>
+  </si>
+  <si>
+    <t>National Conference of Christians and Jews</t>
+  </si>
+  <si>
+    <t>National Conference of Christians and Jews, Dallas (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Conference of Christians and Jews, San Antonio (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Council of Catholic Women (NCCW)</t>
+  </si>
+  <si>
+    <t>National Council of Negro Women (NCNW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Council of Teachers of English </t>
+  </si>
+  <si>
+    <t>National Education Association (NEA)</t>
+  </si>
+  <si>
+    <t>National Federation of Business &amp; Professional Women's Clubs, Inc. (NFBPW)</t>
+  </si>
+  <si>
+    <t>National Federation of Business &amp; Professional Women's Clubs, Inc. (NFBPW), San Antonio (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Federation of Republican Women</t>
+  </si>
+  <si>
+    <t>National Foundation for the March of Dimes</t>
+  </si>
+  <si>
+    <t>National Gay Task Force</t>
+  </si>
+  <si>
+    <t>National Hispanic Conference on Families (sponsored by National Coalition of Hispanic Mental Health and Human Services Organizations)</t>
+  </si>
+  <si>
+    <t>National Hispanic Conference on Families, Houston (TX) Conference</t>
+  </si>
+  <si>
+    <t>National Hispanic Women's Conference</t>
+  </si>
+  <si>
+    <t>National Lawyers Guild</t>
+  </si>
+  <si>
+    <t>National Lawyers Guild, Houston (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Lawyers Guild, Houston (TX) Chapter, Thurgood Marshall Division</t>
+  </si>
+  <si>
+    <t>National Mental Health Study on Women</t>
+  </si>
+  <si>
+    <t>National Migrant Information Clearing House</t>
+  </si>
+  <si>
+    <t>National Order of Women Legislators</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW)</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Austin (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Austin (TX) Education Task Force</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), By-Laws Conference</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Finance Committee</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Fort Worth (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Houston (TX) Area Chapter</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Houston (TX) Area Chapter, Task Force on Household Violence</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Houston (TX) Inner City Chapter</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Resolutions Committee, National Conferences</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Tarrant County (TX) Chapter</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Task Force on Women and Mental Health</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Texas Chapter</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Texas Chapter, Area IV</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), Texas State Council</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), University of Texas-El Paso Chapter</t>
+  </si>
+  <si>
+    <t>National Organization for Women (NOW), University of Texas-El Paso Chapter, Daycare Committee</t>
+  </si>
+  <si>
+    <t>National Peace Academy on Conflict Resolution</t>
+  </si>
+  <si>
+    <t>National Republican Women's Task Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Scholastic Press Association </t>
+  </si>
+  <si>
+    <t>National Society of Hellenas</t>
+  </si>
+  <si>
+    <t>National Women of Achievement</t>
+  </si>
+  <si>
+    <t>National Women's Education Fund</t>
+  </si>
+  <si>
+    <t>National Women's Museum Local Advisory Committee</t>
+  </si>
+  <si>
+    <t>National Women's Political Caucus (NWPC)</t>
+  </si>
+  <si>
+    <t>National Women's Political Caucus (NWPC), Welfare Task Force</t>
+  </si>
+  <si>
+    <t>Neighborhood Day Care Center Association</t>
+  </si>
+  <si>
+    <t>North Central Texas Personnel and Guidance Association</t>
+  </si>
+  <si>
+    <t>North Dallas (TX) Democratic Women's Club</t>
+  </si>
+  <si>
+    <t>North Texas Conference of the United Methodist Church General Commission on the Status and Role of Women</t>
+  </si>
+  <si>
+    <t>Northwest District Council of Catholic Women, Archdiocese of San Antonio (TX)</t>
+  </si>
+  <si>
+    <t>Northwest Texas Conference of the United Methodist Church, Commission on the Role and Status of Women</t>
+  </si>
+  <si>
+    <t>Nueces County (TX) Bar Association</t>
+  </si>
+  <si>
+    <t>Oak Cliff (TX) Chamber of Commerce</t>
+  </si>
+  <si>
+    <t>One America--Female Ex-offender Program</t>
+  </si>
+  <si>
+    <t>Operation Big Vote</t>
+  </si>
+  <si>
+    <t>Order of Women Legislators</t>
+  </si>
+  <si>
+    <t>Organizaciones Unidas</t>
+  </si>
+  <si>
+    <t>Panhandle Regional Government (TX), Criminal Justice Committee</t>
+  </si>
+  <si>
+    <t>Panhandle-South Plains Fair, Bicentennial Program Subcommittee, (TX)</t>
+  </si>
+  <si>
+    <t>Parent Teacher Association (PTA)</t>
+  </si>
+  <si>
+    <t>Parent Teacher Association (PTA), San Antonio (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Parent Teacher Association (PTA), Texas Chapter</t>
+  </si>
+  <si>
+    <t>Parent Teachers Club</t>
+  </si>
+  <si>
+    <t>PEOPLE FIRST</t>
+  </si>
+  <si>
+    <t>Peres Center for Peace</t>
+  </si>
+  <si>
+    <t>Phi Alpha Delta Legal Society</t>
+  </si>
+  <si>
+    <t>Phi Beta Kappa</t>
+  </si>
+  <si>
+    <t>Phi Delta Kappa Education Fraternity</t>
+  </si>
+  <si>
+    <t>Phi Eta Sigma</t>
+  </si>
+  <si>
+    <t>Plains Hospital Foundation Board (TX)</t>
+  </si>
+  <si>
+    <t>Planned Parenthood (PP)</t>
+  </si>
+  <si>
+    <t>Political Association of Spanish Speaking Organizations (PASSO)</t>
+  </si>
+  <si>
+    <t>Pre-Law Society</t>
+  </si>
+  <si>
+    <t>Progressive Democrats of El Paso County (TX)</t>
+  </si>
+  <si>
+    <t>Progressive Democrats of El Paso County (TX), Publicity Committee</t>
+  </si>
+  <si>
+    <t>Project on Equal Education Rights (PEER)</t>
+  </si>
+  <si>
+    <t>Project on Equal Education Rights (PEER), Advisory Council</t>
+  </si>
+  <si>
+    <t>Rape Crisis Coalition</t>
+  </si>
+  <si>
+    <t>Regionwide Federal Women's Program and Hispanic Employment Program</t>
+  </si>
+  <si>
+    <t>Regis Retirement Home Advisory Board (Waco, TX)</t>
+  </si>
+  <si>
+    <t>Rice Center</t>
+  </si>
+  <si>
+    <t>River Canoeing</t>
+  </si>
+  <si>
+    <t>Rotary International</t>
+  </si>
+  <si>
+    <t>Running Strong for American Indian Youth</t>
+  </si>
+  <si>
+    <t>San Antonio (TX) Council of Presidents</t>
+  </si>
+  <si>
+    <t>San Antonio (TX) Federation of Catholic Parent-Teacher Clubs, Citizens for Decency Committee</t>
+  </si>
+  <si>
+    <t>San Jacinto Girl Scouts Area Council (TX)</t>
+  </si>
+  <si>
+    <t>Save the Children</t>
+  </si>
+  <si>
+    <t>Sexual Assault and Abuse Free Environment Women's Shelter (SAAFE House)</t>
+  </si>
+  <si>
+    <t>Sexual Assault and Abuse Free Environment Women's Shelter (SAAFE House) (Huntsville, TX)</t>
+  </si>
+  <si>
+    <t>Sierra Club</t>
+  </si>
+  <si>
+    <t>Sigma Theta Tau</t>
+  </si>
+  <si>
+    <t>Society for the Prevention of Educational Discrimination Against the Handicapped</t>
+  </si>
+  <si>
+    <t>Soroptimist International</t>
+  </si>
+  <si>
+    <t>South Plains (TX) AIDS Resource Center</t>
+  </si>
+  <si>
+    <t>South Plains (TX) Food Bank</t>
+  </si>
+  <si>
+    <t>South Texas Planned Parenthood (PP) Association</t>
+  </si>
+  <si>
+    <t>Southern Poverty Law Center</t>
+  </si>
+  <si>
+    <t>Southwest Association of Chicanos in Higher Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southwest Scholastic Press Association </t>
+  </si>
+  <si>
+    <t>Southwest Texas Pharmaceutical Association</t>
+  </si>
+  <si>
+    <t>Southwestern Library Association</t>
+  </si>
+  <si>
+    <t>Southwestern Social Science Association</t>
+  </si>
+  <si>
+    <t>Speakers Bureau for Lyndon B. Johnson’s 1964 Campaign</t>
+  </si>
+  <si>
+    <t>St. Anthony Oblate Club (San Antonio, TX)</t>
+  </si>
+  <si>
+    <t>St. Henry's Church Confraternity of Christian Doctrine</t>
+  </si>
+  <si>
+    <t>St. John's United Methodist Church (Lubbock, TX)</t>
+  </si>
+  <si>
+    <t>St. Paul's Church (San Antonio, TX), Spanish Choir</t>
+  </si>
+  <si>
+    <t>St. Paul's Church, Christian Mother's Guild (San Antonio, TX)</t>
+  </si>
+  <si>
+    <t>St. Paul's Parish Council of Catholic Women (San Antonio, TX)</t>
+  </si>
+  <si>
+    <t>St. Paul's Parish Pro-Life Committee (San Antonio, TX)</t>
+  </si>
+  <si>
+    <t>St. Peter's and St. Joseph's Children's Home Ladies Auxiliary (San Antonio, TX)</t>
+  </si>
+  <si>
+    <t>State Advisory Committee on Child Care Licensing (TX)</t>
+  </si>
+  <si>
+    <t>State Agency Libraries of Texas</t>
+  </si>
+  <si>
+    <t>State Bar Administrative Committee on Legislation (TX)</t>
+  </si>
+  <si>
+    <t>State Bar Association (TX), Committee for a More Effective State Bar</t>
+  </si>
+  <si>
+    <t>State Bar Association (TX), Committee on Effective Participation of Women in the Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Bar Association (TX), Committee on Legal Services to the Indigent in Civil Matters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Bar Association (TX), Committee on Legislation in the Public Interest  </t>
+  </si>
+  <si>
+    <t>State Nursing Home Consultant Association (TX)</t>
+  </si>
+  <si>
+    <t>Stephenville (TX) Historical House Museum</t>
+  </si>
+  <si>
+    <t>Stephenville (TX) Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Student Judicial Board at University of Texas-Arlington</t>
+  </si>
+  <si>
+    <t>Syrian/Lebanese Club of Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Tejano Political Action Committee</t>
+  </si>
+  <si>
+    <t>Tejanos de Houston (TX)</t>
+  </si>
+  <si>
+    <t>Texans for Educational Advancement for Mexican Americans (TEAMS)</t>
+  </si>
+  <si>
+    <t>Texans for ERA</t>
+  </si>
+  <si>
+    <t>Texas Agricultural Extension Service, Family Living Subcommittee</t>
+  </si>
+  <si>
+    <t>Texas American Federation of Labor-Congress of Industrial Organizations (AFL-CIO), District 10</t>
+  </si>
+  <si>
+    <t>Texas Association Concerned with Teenage Parents</t>
+  </si>
+  <si>
+    <t>Texas Association for Bilingual Education</t>
+  </si>
+  <si>
+    <t>Texas Association for Bilingual Education, McAllen (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Texas Association for Bilingual Education, Valley Chapter</t>
+  </si>
+  <si>
+    <t>Texas Association for Supervision and Curriculum Development</t>
+  </si>
+  <si>
+    <t>Texas CAN Academy</t>
+  </si>
+  <si>
+    <t>Texas Catholic Conference</t>
+  </si>
+  <si>
+    <t>Texas Child Care '76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Classroom Teachers Association </t>
+  </si>
+  <si>
+    <t>Texas Corrections Association</t>
+  </si>
+  <si>
+    <t>Texas Equal Rights Amendment</t>
+  </si>
+  <si>
+    <t>Texas ERA Coalition</t>
+  </si>
+  <si>
+    <t>Texas Farmworkers Union</t>
+  </si>
+  <si>
+    <t>Texas Federation of Business &amp; Professional Women's Clubs</t>
+  </si>
+  <si>
+    <t>Texas Federation of Republican Women</t>
+  </si>
+  <si>
+    <t>Texas Gay Task Force</t>
+  </si>
+  <si>
+    <t>Texas Girl Scouts Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas High School Press Association </t>
+  </si>
+  <si>
+    <t>Texas Institute for Educational Development</t>
+  </si>
+  <si>
+    <t>Texas Law School Alumni Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Library Association </t>
+  </si>
+  <si>
+    <t>Texas Parent Teacher Association, State Board of Managers</t>
+  </si>
+  <si>
+    <t>Texas Political Women's Black Caucus</t>
+  </si>
+  <si>
+    <t>Texas Public Employees Association (TPEA)</t>
+  </si>
+  <si>
+    <t>Texas Public Health Association</t>
+  </si>
+  <si>
+    <t>Texas Rape Prevention and Control Project (Austin, TX)</t>
+  </si>
+  <si>
+    <t>Texas Rape Prevention Center</t>
+  </si>
+  <si>
+    <t>Texas Republican County Chairman's Association</t>
+  </si>
+  <si>
+    <t>Texas Rural Legal Aid Society</t>
+  </si>
+  <si>
+    <t>Texas State Bar Association</t>
+  </si>
+  <si>
+    <t>Texas State Library Staff Association</t>
+  </si>
+  <si>
+    <t>Texas State Pharmaceutical Association</t>
+  </si>
+  <si>
+    <t>Texas State Pharmaceutical Association, Nursing Home and Small Hospital Liaison Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas State Teachers Association </t>
+  </si>
+  <si>
+    <t>Texas State Teachers Association, Alice (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Texas State Teachers Association, District VI Political Education Committee</t>
+  </si>
+  <si>
+    <t>Texas Tech Experimental College and Free University</t>
+  </si>
+  <si>
+    <t>Texas Tech Faculty Women's Club</t>
+  </si>
+  <si>
+    <t>Texas United Community Services</t>
+  </si>
+  <si>
+    <t>Texas Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>Texas Women's Political Caucus, Policy Council</t>
+  </si>
+  <si>
+    <t>Thelma Boston Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theresians, San Antonio (TX) Chapter </t>
+  </si>
+  <si>
+    <t>Toastmistress International, Matamoros, Mexico</t>
+  </si>
+  <si>
+    <t>Town and Gown</t>
+  </si>
+  <si>
+    <t>Trabajadores de la Raza</t>
+  </si>
+  <si>
+    <t>Travis County (TX) Services for the Deaf</t>
+  </si>
+  <si>
+    <t>Tri-Ethnic Committee of Dallas</t>
+  </si>
+  <si>
+    <t>Turtle Creek (Dallas, TX) Manor</t>
+  </si>
+  <si>
+    <t>Union for Youth</t>
+  </si>
+  <si>
+    <t>United Farmworkers (UF)</t>
+  </si>
+  <si>
+    <t>United Farmworkers Committee, Austin (TX) Chapter</t>
+  </si>
+  <si>
+    <t>United Federation of Postal Clerks, Women's Auxiliary</t>
+  </si>
+  <si>
+    <t>United Fund</t>
+  </si>
+  <si>
+    <t>United Methodist Church Women's Political Caucus</t>
+  </si>
+  <si>
+    <t>United Methodist Church, Annual Conference</t>
+  </si>
+  <si>
+    <t>United Methodist Church, Church and Society</t>
+  </si>
+  <si>
+    <t>United Methodist Church, General Conference</t>
+  </si>
+  <si>
+    <t>United Negro College Fund (UNCF)</t>
+  </si>
+  <si>
+    <t>United Negro College Fund, Corpus Christi (TX) Chapter</t>
+  </si>
+  <si>
+    <t>United Negro College Fund, Houston (TX) Chapter</t>
+  </si>
+  <si>
+    <t>United Way</t>
+  </si>
+  <si>
+    <t>United Way Board, Lubbock (TX) Area Chapter</t>
+  </si>
+  <si>
+    <t>United Way for Austin-Travis County (TX)</t>
+  </si>
+  <si>
+    <t>United Way, Lubbock (TX) Area Chapter</t>
+  </si>
+  <si>
+    <t>University (of Texas) Council on the Status of Women and Minorities</t>
+  </si>
+  <si>
+    <t>University of Houston (TX) Women's Rights Coordinating Council</t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington Athletic Council</t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington Board of Directors for Child Care</t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington Law Society</t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington President's Student Advisory Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Texas-Arlington Scholastic Standards Committee </t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington Student Activities Board</t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington Student Center Advisory Committee</t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington Teaching Effectiveness Committee</t>
+  </si>
+  <si>
+    <t>University of Texas-Arlington Undergraduate Assembly</t>
+  </si>
+  <si>
+    <t>Urban League (UL)</t>
+  </si>
+  <si>
+    <t>Urban League (UL) Guild</t>
+  </si>
+  <si>
+    <t>Urban League (UL), Dallas (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Urban League Guild, Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Urban League, Austin (TX) Area</t>
+  </si>
+  <si>
+    <t>Urban Renewal Agency (Lubbock, TX)</t>
+  </si>
+  <si>
+    <t>USO Council and Interfaith Forum</t>
+  </si>
+  <si>
+    <t>Valley Association for the Education of Young Children (TX)</t>
+  </si>
+  <si>
+    <t>Valley Health Association (TX)</t>
+  </si>
+  <si>
+    <t>Valley Health Consumer Association</t>
+  </si>
+  <si>
+    <t>Valley Women's Political Caucus (TX)</t>
+  </si>
+  <si>
+    <t>Veterans of Foreign Wars Auxiliary</t>
+  </si>
+  <si>
+    <t>Vocational Homemaking Teachers Association</t>
+  </si>
+  <si>
+    <t>Waco (TX) Diocese</t>
+  </si>
+  <si>
+    <t>Waco (TX) Right-to-Life Committee</t>
+  </si>
+  <si>
+    <t>Washington Association of Minority Entrepreneurs</t>
+  </si>
+  <si>
+    <t>West Texas District Teachers Association</t>
+  </si>
+  <si>
+    <t>Wichita Falls (TX) Ballet Theatre</t>
+  </si>
+  <si>
+    <t>Wichita Falls (TX) Democratic Women</t>
+  </si>
+  <si>
+    <t>Wichita Falls (TX) Symphony</t>
+  </si>
+  <si>
+    <t>Women and Alcohol</t>
+  </si>
+  <si>
+    <t>Women for Change</t>
+  </si>
+  <si>
+    <t>Women for Change, Dallas (TX)</t>
+  </si>
+  <si>
+    <t>Women in Communications, Inc.</t>
+  </si>
+  <si>
+    <t>Women in Communications, Inc., Professional Chapter, Austin (TX)</t>
+  </si>
+  <si>
+    <t>Women in Community Service, Inc.</t>
+  </si>
+  <si>
+    <t>Women Who Want to be Women (WWWW)</t>
+  </si>
+  <si>
+    <t>Women's Action Alliance</t>
+  </si>
+  <si>
+    <t>Women's Center at the University of Houston Clear Lake, Women's Advisory Council</t>
+  </si>
+  <si>
+    <t>Women's Center at the University of Houston Clear Lake (TX)</t>
+  </si>
+  <si>
+    <t>Women's Guild</t>
+  </si>
+  <si>
+    <t>Women's Law Caucus</t>
+  </si>
+  <si>
+    <t>Women's Lobby</t>
+  </si>
+  <si>
+    <t>Women's Lobby Board</t>
+  </si>
+  <si>
+    <t>Women's Rights Coordinating Council</t>
+  </si>
+  <si>
+    <t>Women's Rights Coordinating Council, Houston (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Women’s Actions Against Crime</t>
+  </si>
+  <si>
+    <t>Women’s Equity Action League (WEAL)</t>
+  </si>
+  <si>
+    <t>Workforce Solutions/Lower Rio Grande Valley (TX)</t>
+  </si>
+  <si>
+    <t>Young Democrats of University of Texas-Arlington</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association (YWCA)</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association (YWCA), Blue Triangle Branch (Houston, TX)</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association (YWCA), Fort Worth (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association (YWCA), Houston (TX) Chapter, Committee on Women in Crisis, Task Force on Public Awareness</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association (YWCA), Tarrant County (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association (YWCA), University of Texas (Austin, TX) Chapter</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association, Corpus Christi (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association, Tarrant County (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Young Women's Christian Association, University of Texas at Austin (TX) Chapter</t>
+  </si>
+  <si>
+    <t>Zonta Club of West Hidalgo County (TX)</t>
+  </si>
+  <si>
+    <t>Zonta International</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Last Name of Spouse/Partner</t>
+  </si>
+  <si>
+    <t>First Name of Spouse/Partner</t>
+  </si>
+  <si>
+    <t>Middle Name and/or Initial 1 of Spouse/Partner</t>
+  </si>
+  <si>
+    <t>Middle Name and/or Initial 2 of Spouse/Partner</t>
+  </si>
+  <si>
+    <t>Nickname of Spouse/Partner</t>
+  </si>
+  <si>
+    <t>Suffix of Spouse/Partner</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Residence in 1977: Street Address and Apartment Number</t>
+  </si>
+  <si>
+    <t>Residence in 1977: PO Box and/or Rural Route Number</t>
+  </si>
+  <si>
+    <t>Residence in 1977: City and State</t>
+  </si>
+  <si>
+    <t>Residence in 1977: Zip Code</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>nonbinary</t>
+  </si>
+  <si>
+    <t>transgender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>sexual_orientation</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>bisexual</t>
+  </si>
+  <si>
+    <t>lesbian</t>
+  </si>
+  <si>
+    <t>marital_class</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>partnered</t>
+  </si>
+  <si>
+    <t>divorced</t>
+  </si>
+  <si>
+    <t>widowed</t>
+  </si>
+  <si>
+    <t>## These are the sets used for the dropdowns</t>
+  </si>
+  <si>
+    <t>planks</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>spoke about with position unknown</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>some high school</t>
+  </si>
+  <si>
+    <t>high school diploma</t>
+  </si>
+  <si>
+    <t>some college</t>
+  </si>
+  <si>
+    <t>college degree</t>
+  </si>
+  <si>
+    <t>some graduate/professional</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Architecture…</t>
+  </si>
+  <si>
+    <t>Arts…</t>
+  </si>
+  <si>
+    <t>Clergy…</t>
+  </si>
+  <si>
+    <t>Construction…</t>
+  </si>
+  <si>
+    <t>Corporate…</t>
+  </si>
+  <si>
+    <t>Finance…</t>
+  </si>
+  <si>
+    <t>Food…</t>
+  </si>
+  <si>
+    <t>Government…</t>
+  </si>
+  <si>
+    <t>Homemaker</t>
+  </si>
+  <si>
+    <t>Law…</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Enforcement…</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Media…</t>
+  </si>
+  <si>
+    <t>Medical…</t>
+  </si>
+  <si>
+    <t>Office…</t>
+  </si>
+  <si>
+    <t>Science…</t>
+  </si>
+  <si>
+    <t>Service…</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Transportation…</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Wholesal</t>
+  </si>
+  <si>
+    <t>electoral</t>
+  </si>
+  <si>
+    <t>county level</t>
+  </si>
+  <si>
+    <t>state level</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>CPUSA</t>
+  </si>
+  <si>
+    <t>Democratic</t>
+  </si>
+  <si>
+    <t>Libertarian</t>
+  </si>
+  <si>
+    <t>Republican</t>
+  </si>
+  <si>
+    <t>American Independent</t>
+  </si>
+  <si>
+    <t>Black Panther</t>
+  </si>
+  <si>
+    <t>Conservative Party of New York</t>
+  </si>
+  <si>
+    <t>DC Statehood</t>
+  </si>
+  <si>
+    <t>Liberal Party of New York</t>
+  </si>
+  <si>
+    <t>Minnesota DFL</t>
+  </si>
+  <si>
+    <t>North Dakota DNL</t>
+  </si>
+  <si>
+    <t>Peace &amp; Freedom</t>
+  </si>
+  <si>
+    <t>Raza Unida</t>
+  </si>
+  <si>
+    <t>Socialist Party USA</t>
+  </si>
+  <si>
+    <t>Socialist Workers</t>
+  </si>
+  <si>
+    <t>role/identified</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Arab</t>
-  </si>
-  <si>
-    <t>Israeli</t>
-  </si>
-  <si>
-    <t>Cambodian</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Filipino</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Malaysian</t>
-  </si>
-  <si>
-    <t>Native Hawaiian</t>
-  </si>
-  <si>
-    <t>Pacific Islander</t>
-  </si>
-  <si>
-    <t>Pakistani</t>
-  </si>
-  <si>
-    <t>Polynesian</t>
-  </si>
-  <si>
-    <t>South Asian</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>African</t>
-  </si>
-  <si>
-    <t>African American</t>
-  </si>
-  <si>
-    <t>Afro-Caribbean</t>
-  </si>
-  <si>
-    <t>Afro-Latina/Latino</t>
-  </si>
-  <si>
-    <t>Chicana/Chicano</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>Latina/Latino</t>
-  </si>
-  <si>
-    <t>Latinx</t>
-  </si>
-  <si>
-    <t>Mexican</t>
-  </si>
-  <si>
-    <t>Mexican American</t>
-  </si>
-  <si>
-    <t>Other Hispanic</t>
-  </si>
-  <si>
-    <t>Puerto Rican</t>
-  </si>
-  <si>
-    <t>Spanish/Hispanic</t>
-  </si>
-  <si>
-    <t>Alaska Native</t>
-  </si>
-  <si>
-    <t>First Nations</t>
-  </si>
-  <si>
-    <t>Indigenous</t>
-  </si>
-  <si>
-    <t>Albanian</t>
-  </si>
-  <si>
-    <t>Czech</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>Hungarian</t>
-  </si>
-  <si>
-    <t>Irish</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>Jewish</t>
-  </si>
-  <si>
-    <t>Polish</t>
-  </si>
-  <si>
-    <t>Portugese</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>Ruthenian</t>
-  </si>
-  <si>
-    <t>Scotch</t>
-  </si>
-  <si>
-    <t>Slavic</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Ukranian</t>
-  </si>
-  <si>
-    <t>Welch</t>
-  </si>
-  <si>
-    <t>4-H</t>
-  </si>
-  <si>
-    <t>Ad Hoc Coalition of Community and Feminist Organizations (Austin, TX)</t>
-  </si>
-  <si>
-    <t>All Saints Parish (Wichita Falls, TX), Vestry</t>
-  </si>
-  <si>
-    <t>All Saints Parish (Wichita Falls, TX)</t>
-  </si>
-  <si>
-    <t>Alpha Kappa Alpha</t>
-  </si>
-  <si>
-    <t>American Association of University Women, Abilene (TX) Chapter</t>
-  </si>
-  <si>
-    <t>American Association of University Women, Lubbock (TX) Chapter</t>
-  </si>
-  <si>
-    <t>American Association of University Women, Tarrant County (TX) Chapter</t>
-  </si>
-  <si>
-    <t>American Association University Women (AAUW)</t>
-  </si>
-  <si>
-    <t>American Association University Women (AAUW), Texas Chapter</t>
-  </si>
-  <si>
-    <t>American Bar Association (ABA)</t>
-  </si>
-  <si>
-    <t>American Beauty Charm Club</t>
-  </si>
-  <si>
-    <t>American Business Club Auxiliary</t>
-  </si>
-  <si>
-    <t>American Cancer Crusade</t>
-  </si>
-  <si>
-    <t>American Civil Liberties Union (ACLU)</t>
-  </si>
-  <si>
-    <t>American Civil Liberties Union (ACLU), Amarillo (TX) Chapter</t>
-  </si>
-  <si>
-    <t>American Economics Association</t>
-  </si>
-  <si>
-    <t>American Economics Association, Committee on the Status of Women in the Economics Profession</t>
-  </si>
-  <si>
-    <t>American Federation of Labor-Congress of Industrial Organizations (AFL-CIO)</t>
-  </si>
-  <si>
-    <t>American Geological Institute</t>
-  </si>
-  <si>
-    <t>American Geological Institute, Women in Geoscience Committee</t>
-  </si>
-  <si>
-    <t>American Harp Society</t>
-  </si>
-  <si>
-    <t>American Harp Society, Lubbock (TX) Chapter</t>
-  </si>
-  <si>
-    <t>American Heart Association</t>
-  </si>
-  <si>
-    <t>American Institute of Discussion</t>
-  </si>
-  <si>
-    <t>American Legion Auxiliary (ALA)</t>
-  </si>
-  <si>
-    <t>American Legion Auxiliary (ALA), Unit 208</t>
-  </si>
-  <si>
-    <t>American Library Association</t>
-  </si>
-  <si>
-    <t>American Red Cross</t>
-  </si>
-  <si>
-    <t>Anthony Stanton, Inc.</t>
-  </si>
-  <si>
-    <t>Archdiocesan Council of Catholic Women</t>
-  </si>
-  <si>
-    <t>Archdiocesan Council of Catholic Women, Archdiocese of San Antonio (TX)</t>
-  </si>
-  <si>
-    <t>Archdiocesan Council of Catholic Women, Community Affairs Commission, Archdiocese of San Antonio (TX)</t>
-  </si>
-  <si>
-    <t>Archdiocesan Council of Catholic Women, Family Affairs Commission, Archdiocese of San Antonio (TX)</t>
-  </si>
-  <si>
-    <t>Arizona Youth Innocence Project</t>
-  </si>
-  <si>
-    <t>Arlington (TX) Housing Advisory Board</t>
-  </si>
-  <si>
-    <t>Aspen Institute</t>
-  </si>
-  <si>
-    <t>Association of Brownsville (TX) Educators</t>
-  </si>
-  <si>
-    <t>Association of Social Workers Concerned with Lesbian and Gay Issues</t>
-  </si>
-  <si>
-    <t>Association of Women in Social Work</t>
-  </si>
-  <si>
-    <t>Association on American Indian Affairs</t>
-  </si>
-  <si>
-    <t>Audubon Society</t>
-  </si>
-  <si>
-    <t>Austin (TX) Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Austin (TX) Community Services Council</t>
-  </si>
-  <si>
-    <t>Austin (TX) Convention and Visitors Bureau</t>
-  </si>
-  <si>
-    <t>Austin (TX) Human Relations Commission</t>
-  </si>
-  <si>
-    <t>Austin (TX) Lesbian Organization</t>
-  </si>
-  <si>
-    <t>Austin (TX) Networker</t>
-  </si>
-  <si>
-    <t>Austin (TX) Public Library Foundation</t>
-  </si>
-  <si>
-    <t>Austin (TX) Women's Center</t>
-  </si>
-  <si>
-    <t>Austin (TX) Women's Coalition</t>
-  </si>
-  <si>
-    <t>Bethune Day Nursery</t>
-  </si>
-  <si>
-    <t>Big Brothers/Big Sisters of Nueces County (TX)</t>
-  </si>
-  <si>
-    <t>Black Dallas (TX) Remembered, Inc.</t>
-  </si>
-  <si>
-    <t>Black Luncheon Group</t>
-  </si>
-  <si>
-    <t>Black Psychological Association of Texas and North Central</t>
-  </si>
-  <si>
-    <t>Black Women Lawyers Association</t>
-  </si>
-  <si>
-    <t>Black Women's Conference of Texas</t>
-  </si>
-  <si>
-    <t>Blacks United in Life Development (BUILD)</t>
-  </si>
-  <si>
-    <t>Boy Scouts of America</t>
-  </si>
-  <si>
-    <t>Boy Scouts of America, Executive Committee</t>
-  </si>
-  <si>
-    <t>Brownsville (TX) Democratic Women</t>
-  </si>
-  <si>
-    <t>Brownsville (TX) Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Brykerwoods-Rosedale Community School Advisory Council (Austin, TX)</t>
-  </si>
-  <si>
-    <t>Business &amp; Professional Women's Club of Dallas, (TX) Inc.</t>
-  </si>
-  <si>
-    <t>California Coastal Protection Network</t>
-  </si>
-  <si>
-    <t>Camp Fire Council of Lubbock (TX)</t>
-  </si>
-  <si>
-    <t>Camp Fire Girls</t>
-  </si>
-  <si>
-    <t>Camp Fire Girls, Alamo Council (San Antonio, TX)</t>
-  </si>
-  <si>
-    <t>Caprock Council of Girl Scouts (Lubbock, TX)</t>
-  </si>
-  <si>
-    <t>Catholic Daughters of America (CDA)</t>
-  </si>
-  <si>
-    <t>Cedar Crest Civil Club</t>
-  </si>
-  <si>
-    <t>Center for Battered Women (Austin, TX)</t>
-  </si>
-  <si>
-    <t>Center for Rehabilitating Alcoholics</t>
-  </si>
-  <si>
-    <t>Centro Chicano Senior Citizens Group</t>
-  </si>
-  <si>
-    <t>Charro, Inc.</t>
-  </si>
-  <si>
-    <t>Chi Omega</t>
-  </si>
-  <si>
-    <t>Chicana Association for Reform and Advocacy</t>
-  </si>
-  <si>
-    <t>Chicana Research and Learning Center</t>
-  </si>
-  <si>
-    <t>Chicana Rights Project</t>
-  </si>
-  <si>
-    <t>Chicano Law Students Association</t>
-  </si>
-  <si>
-    <t>Child Care, Inc.</t>
-  </si>
-  <si>
-    <t>Choctaw-Chickasaw Alliance</t>
-  </si>
-  <si>
-    <t>Church Women United (CWU)</t>
-  </si>
-  <si>
-    <t>Citizen-Police Advisory Council</t>
-  </si>
-  <si>
-    <t>Citizens for a United Austin (TX)</t>
-  </si>
-  <si>
-    <t>Citizens for Good Schools</t>
-  </si>
-  <si>
-    <t>City Council Parent Teacher Association (PTA), Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Coalition for Abused Women (Houston, TX)</t>
-  </si>
-  <si>
-    <t>Coalition for Barrier Free Living</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columbia Scholastic Press Association </t>
-  </si>
-  <si>
-    <t>Common Cause (CC)</t>
-  </si>
-  <si>
-    <t>Communication Workers of America (CWA)</t>
-  </si>
-  <si>
-    <t>Concerned Voters' Council, Inc.</t>
-  </si>
-  <si>
-    <t>Conference of Minority Public Administrators</t>
-  </si>
-  <si>
-    <t>Conference of Minority Public Administrators, Region 8 Executive Board</t>
-  </si>
-  <si>
-    <t>Confraternity of Christian Doctrine</t>
-  </si>
-  <si>
-    <t>Corpus Christi (TX) Area Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Council of Catholic Women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Council of Government, Regional Drug Abuse Council </t>
-  </si>
-  <si>
-    <t>Cub Scouts</t>
-  </si>
-  <si>
-    <t>Dallas (TX) Alliance</t>
-  </si>
-  <si>
-    <t>Dallas (TX) Arboretum</t>
-  </si>
-  <si>
-    <t>Dallas (TX) Black Chamber of Commerce</t>
-  </si>
-  <si>
-    <t>Dallas (TX) Economists Club</t>
-  </si>
-  <si>
-    <t>Dallas (TX) Theater Center, Women's Committee</t>
-  </si>
-  <si>
-    <t>Dallas (TX) Women's Center</t>
-  </si>
-  <si>
-    <t>Dallas (TX) Women's Forum</t>
-  </si>
-  <si>
-    <t>Dallas County (TX) Democratic Progressive Voters League</t>
-  </si>
-  <si>
-    <t>Dallas County (TX) Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Daughters of the American Revolution (DAR)</t>
-  </si>
-  <si>
-    <t>Day Care and Child Development Council of America (DCCDCA)</t>
-  </si>
-  <si>
-    <t>Deanery Council of Catholic Women, Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Deanery Council of Catholic Women, Floresville (TX)</t>
-  </si>
-  <si>
-    <t>Deanery Council of Catholic Women, Waco (TX)</t>
-  </si>
-  <si>
-    <t>Delta Kappa Gamma</t>
-  </si>
-  <si>
-    <t>Delta Sigma Theta</t>
-  </si>
-  <si>
-    <t>Democratic Women of Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Democratic Women of Grand Prairie (TX)</t>
-  </si>
-  <si>
-    <t>Diocesan Council of Catholic Women, Austin (TX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District Council of Catholic Women, Waco (TX)  </t>
-  </si>
-  <si>
-    <t>District University Interscholastic League</t>
-  </si>
-  <si>
-    <t>East First Human Development Center</t>
-  </si>
-  <si>
-    <t>Education Goals for Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Education Goals for Dallas (TX), Task Force</t>
-  </si>
-  <si>
-    <t>Education Task Force</t>
-  </si>
-  <si>
-    <t>El Comite (Political Action Committee in Valley in Texas)</t>
-  </si>
-  <si>
-    <t>El Paso (TX) Public Library Association</t>
-  </si>
-  <si>
-    <t>El Paso (TX) Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Episcopal Diocese of Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Episcopal Diocese of Dallas (TX), CAC Executive Committee</t>
-  </si>
-  <si>
-    <t>Episcopal Diocese of Dallas (TX), Planning and Development Committee</t>
-  </si>
-  <si>
-    <t>Epsilon Sigma Alpha</t>
-  </si>
-  <si>
-    <t>ERA Coalition (Texas)</t>
-  </si>
-  <si>
-    <t>Executive Women in Texas Government</t>
-  </si>
-  <si>
-    <t>Explorers (Boy Scouts of America)</t>
-  </si>
-  <si>
-    <t>Family Counseling Services, Corpus Christi and Kingsville (TX)</t>
-  </si>
-  <si>
-    <t>Family Institute of Texas</t>
-  </si>
-  <si>
-    <t>Federal Region VI Child Development Task Force</t>
-  </si>
-  <si>
-    <t>Federal Women's Program</t>
-  </si>
-  <si>
-    <t>Federal Women's Program Coordinator's Council, Dallas-Fort Worth (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Federally Employed Women (FEW)</t>
-  </si>
-  <si>
-    <t>Federally Employed Women, Inc., Fort Worth (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Federation of Catholic Parent-Teacher Clubs</t>
-  </si>
-  <si>
-    <t>Federation of Health Organizations</t>
-  </si>
-  <si>
-    <t>First Church Administrative Board (Dallas, TX)</t>
-  </si>
-  <si>
-    <t>First Presbyterian Church, Fort Worth (TX), April Evening Circle</t>
-  </si>
-  <si>
-    <t>Fort Worth (TX) Junior Women's Club</t>
-  </si>
-  <si>
-    <t>Foundation for Women's Resources</t>
-  </si>
-  <si>
-    <t>Friends of Fair Park (Dallas, TX)</t>
-  </si>
-  <si>
-    <t>Friends of the Library (Lubbock, TX)</t>
-  </si>
-  <si>
-    <t>Friends of the Weslaco (TX) Public Library</t>
-  </si>
-  <si>
-    <t>Future Homemakers of America (FHA)</t>
-  </si>
-  <si>
-    <t>Gay Political Caucus (Houston, TX)</t>
-  </si>
-  <si>
-    <t>Gethsemane Presbyterian Church (Fort Worth, TX), Outreach Committee</t>
-  </si>
-  <si>
-    <t>Goals for Black Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Goals for Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Goals for Dallas (TX) Community Council</t>
-  </si>
-  <si>
-    <t>"Goodbye to All That" Collective</t>
-  </si>
-  <si>
-    <t>Governor's Committee on Aging, Local Committee (Waco, TX)</t>
-  </si>
-  <si>
-    <t>Greater Council of Governments, Dallas County (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Greater San Antonio (TX) Chamber of Commerce</t>
-  </si>
-  <si>
-    <t>Greater San Antonio (TX) Chamber of Commerce, Small Business Council</t>
-  </si>
-  <si>
-    <t>Harlingen (TX) Business &amp; Professional Women's Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harris County (TX) Democrats </t>
-  </si>
-  <si>
-    <t>Harris County (TX) Republican Women's Task Force</t>
-  </si>
-  <si>
-    <t>Harris County (TX) Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Health, Science and Industry Museum, Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Hidalgo (TX) Coin Club</t>
-  </si>
-  <si>
-    <t>Hidalgo County (TX) Home Extension, Family Living Committee</t>
-  </si>
-  <si>
-    <t>Hidalgo County (TX) Republican Women</t>
-  </si>
-  <si>
-    <t>Hispanic Chamber of Commerce</t>
-  </si>
-  <si>
-    <t>Hispanic Chamber of Commerce, Yakima (WA) Chapter</t>
-  </si>
-  <si>
-    <t>Hispanic International Board</t>
-  </si>
-  <si>
-    <t>Hispanic Women Lawyers Association</t>
-  </si>
-  <si>
-    <t>Hispanic Women's Network of Texas</t>
-  </si>
-  <si>
-    <t>Holy Cross Parish Hall (Dallas, TX)</t>
-  </si>
-  <si>
-    <t>Home Economics Cooperative Education</t>
-  </si>
-  <si>
-    <t>Homemaking Teachers Advisory Council, Area 10 (TX)</t>
-  </si>
-  <si>
-    <t>Hondo (TX) Garden Club</t>
-  </si>
-  <si>
-    <t>Houston (TX) Area Women's Center</t>
-  </si>
-  <si>
-    <t>Houston (TX) Bar Association</t>
-  </si>
-  <si>
-    <t>Houston (TX) Council for Human Relations</t>
-  </si>
-  <si>
-    <t>Houston (TX) Legal Foundation</t>
-  </si>
-  <si>
-    <t>Houston (TX) Operation Big Vote</t>
-  </si>
-  <si>
-    <t>Houston (TX) Rape Crisis Coalition</t>
-  </si>
-  <si>
-    <t>Houston (TX) Residents' Citizen Participation Commission</t>
-  </si>
-  <si>
-    <t>Human Relations Commission (Lubbock, TX)</t>
-  </si>
-  <si>
-    <t>Human Relations Commission, Housing Subcommittee, Austin (TX)</t>
-  </si>
-  <si>
-    <t>Human Resources Academy</t>
-  </si>
-  <si>
-    <t>Humane Society</t>
-  </si>
-  <si>
-    <t>Huntsville (TX) Community Theatre</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>IMAGE, Women's Task Force for State and Women's Caucus to State Executive Board</t>
-  </si>
-  <si>
-    <t>Intergovernmental Training Council</t>
-  </si>
-  <si>
-    <t>Intergovernmental Training Council, Standing Committee on Training Materials Clearinghouse</t>
-  </si>
-  <si>
-    <t>International Good Neighbor Council</t>
-  </si>
-  <si>
-    <t>International Women's Forum</t>
-  </si>
-  <si>
-    <t>International Women's Forum, Texas Chapter</t>
-  </si>
-  <si>
-    <t>International Year of the Child</t>
-  </si>
-  <si>
-    <t>Jack and Jill of America, Inc.</t>
-  </si>
-  <si>
-    <t>Jacyee-ettes, Lubbock (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Jim Wells County (TX) Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Justice Department Committee on Enforcement and the Law, National Minority Advisory Council on Criminal Justice to the Law Enforcement Assistance Administration</t>
-  </si>
-  <si>
-    <t>Kappa Alpha Theta Sorority</t>
-  </si>
-  <si>
-    <t>Karnes City (TX) Band Boosters</t>
-  </si>
-  <si>
-    <t>Karnes County (TX) 4-H</t>
-  </si>
-  <si>
-    <t>Kleberg County (TX) Bar Association</t>
-  </si>
-  <si>
-    <t>Leadership Corpus Christi (TX) Alumni Association</t>
-  </si>
-  <si>
-    <t>League of United Latin American Citizens (LULAC)</t>
-  </si>
-  <si>
-    <t>League of Women Voters (LWV)</t>
-  </si>
-  <si>
-    <t>League of Women Voters (LWV), Juvenile Problems Committee (Lubbock, TX)</t>
-  </si>
-  <si>
-    <t>League of Women Voters (LWV), Lubbock (TX) Chapter</t>
-  </si>
-  <si>
-    <t>League of Women Voters (LWV), Texas Chapter</t>
-  </si>
-  <si>
-    <t>League of Women Voters (LWV), Voting Rights Committee (TX)</t>
-  </si>
-  <si>
-    <t>Lesbian Feminist Organization, Austin (TX)</t>
-  </si>
-  <si>
-    <t>Lesbian/Gay Political Caucus, Austin (TX)</t>
-  </si>
-  <si>
-    <t>Lesbians Over Age Fifty (LOAF)</t>
-  </si>
-  <si>
-    <t>Library Club, Austin (TX)</t>
-  </si>
-  <si>
-    <t>Lower Rio Grande Valley (TX) Development Council</t>
-  </si>
-  <si>
-    <t>Lubbock (TX) Chamber of Commerce Women's Division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lubbock (TX) Goals for the Seventies </t>
-  </si>
-  <si>
-    <t>Lubbock (TX) Rape Crisis Center</t>
-  </si>
-  <si>
-    <t>Lubbock County (TX) Heart Association</t>
-  </si>
-  <si>
-    <t>Lubbock, Crosby, Garza County (TX) Medical Society Auxiliary</t>
-  </si>
-  <si>
-    <t>McAllen (TX) International Orchid Society</t>
-  </si>
-  <si>
-    <t>Meals-on-Wheels</t>
-  </si>
-  <si>
-    <t>Mental Health Association</t>
-  </si>
-  <si>
-    <t>Methodist Hospital Auxiliary, Lubbock (TX)</t>
-  </si>
-  <si>
-    <t>Mexican American Bar Association</t>
-  </si>
-  <si>
-    <t>Mexican American Business and Professional Women of Austin (TX)</t>
-  </si>
-  <si>
-    <t>Mexican American Chamber of Commerce of Travis County (TX)</t>
-  </si>
-  <si>
-    <t>Mexican American Democrats</t>
-  </si>
-  <si>
-    <t>Mexican American Democrats (El Paso, TX)</t>
-  </si>
-  <si>
-    <t>Mexican American Leadership Organization</t>
-  </si>
-  <si>
-    <t>Mexican American Legal Defense Fund (MALDEF)</t>
-  </si>
-  <si>
-    <t>Mexican American Political Association</t>
-  </si>
-  <si>
-    <t>Mexican American Youth Organization (MAYO)</t>
-  </si>
-  <si>
-    <t>Mexico Catholic Daughters</t>
-  </si>
-  <si>
-    <t>Migrant Health Clinic (Mercedes, TX)</t>
-  </si>
-  <si>
-    <t>Minorities Cultural Center Committee at University of Texas-Arlington</t>
-  </si>
-  <si>
-    <t>Montrose Center (Houston, TX)</t>
-  </si>
-  <si>
-    <t>Montrose Democrats (Houston, TX)</t>
-  </si>
-  <si>
-    <t>Montrose-Fourth Ward Advisory Board on Senior Citizens (Houston, TX)</t>
-  </si>
-  <si>
-    <t>Mortar Board</t>
-  </si>
-  <si>
-    <t>Mortar Board, Fort Worth (TX) Alumni Club</t>
-  </si>
-  <si>
-    <t>Mujeres</t>
-  </si>
-  <si>
-    <t>Mujeres Por La Raza Unida (Women of the Raza Unida)</t>
-  </si>
-  <si>
-    <t>Mujeres Unidas (University of Houston Women's Group)</t>
-  </si>
-  <si>
-    <t>National Abortion Rights Action League (NARAL)</t>
-  </si>
-  <si>
-    <t>National Alliance of Business</t>
-  </si>
-  <si>
-    <t>National Association for Education of Young Children</t>
-  </si>
-  <si>
-    <t>National Association for Female Executives</t>
-  </si>
-  <si>
-    <t>National Association for the Advancement of Colored People (NAACP)</t>
-  </si>
-  <si>
-    <t>National Association for the Advancement of Colored People (NAACP), Austin (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Association for the Advancement of Colored People (NAACP), Corpus Christi (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Association for Women Deans, Administrators and Counselors</t>
-  </si>
-  <si>
-    <t>National Association of Home Delivered and Congregate Meals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Association of Social Workers (NASW) </t>
-  </si>
-  <si>
-    <t>National Association of Social Workers (NASW), Houston (TX) Unit, Task Force on Women</t>
-  </si>
-  <si>
-    <t>National Center on Social Welfare Policy and Law</t>
-  </si>
-  <si>
-    <t>National Chicana Foundation</t>
-  </si>
-  <si>
-    <t>National Conference of Christians and Jews</t>
-  </si>
-  <si>
-    <t>National Conference of Christians and Jews, Dallas (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Conference of Christians and Jews, San Antonio (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Council of Catholic Women (NCCW)</t>
-  </si>
-  <si>
-    <t>National Council of Negro Women (NCNW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Council of Teachers of English </t>
-  </si>
-  <si>
-    <t>National Education Association (NEA)</t>
-  </si>
-  <si>
-    <t>National Federation of Business &amp; Professional Women's Clubs, Inc. (NFBPW)</t>
-  </si>
-  <si>
-    <t>National Federation of Business &amp; Professional Women's Clubs, Inc. (NFBPW), San Antonio (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Federation of Republican Women</t>
-  </si>
-  <si>
-    <t>National Foundation for the March of Dimes</t>
-  </si>
-  <si>
-    <t>National Gay Task Force</t>
-  </si>
-  <si>
-    <t>National Hispanic Conference on Families (sponsored by National Coalition of Hispanic Mental Health and Human Services Organizations)</t>
-  </si>
-  <si>
-    <t>National Hispanic Conference on Families, Houston (TX) Conference</t>
-  </si>
-  <si>
-    <t>National Hispanic Women's Conference</t>
-  </si>
-  <si>
-    <t>National Lawyers Guild</t>
-  </si>
-  <si>
-    <t>National Lawyers Guild, Houston (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Lawyers Guild, Houston (TX) Chapter, Thurgood Marshall Division</t>
-  </si>
-  <si>
-    <t>National Mental Health Study on Women</t>
-  </si>
-  <si>
-    <t>National Migrant Information Clearing House</t>
-  </si>
-  <si>
-    <t>National Order of Women Legislators</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW)</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Austin (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Austin (TX) Education Task Force</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), By-Laws Conference</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Finance Committee</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Fort Worth (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Houston (TX) Area Chapter</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Houston (TX) Area Chapter, Task Force on Household Violence</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Houston (TX) Inner City Chapter</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Resolutions Committee, National Conferences</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Tarrant County (TX) Chapter</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Task Force on Women and Mental Health</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Texas Chapter</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Texas Chapter, Area IV</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), Texas State Council</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), University of Texas-El Paso Chapter</t>
-  </si>
-  <si>
-    <t>National Organization for Women (NOW), University of Texas-El Paso Chapter, Daycare Committee</t>
-  </si>
-  <si>
-    <t>National Peace Academy on Conflict Resolution</t>
-  </si>
-  <si>
-    <t>National Republican Women's Task Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Scholastic Press Association </t>
-  </si>
-  <si>
-    <t>National Society of Hellenas</t>
-  </si>
-  <si>
-    <t>National Women of Achievement</t>
-  </si>
-  <si>
-    <t>National Women's Education Fund</t>
-  </si>
-  <si>
-    <t>National Women's Museum Local Advisory Committee</t>
-  </si>
-  <si>
-    <t>National Women's Political Caucus (NWPC)</t>
-  </si>
-  <si>
-    <t>National Women's Political Caucus (NWPC), Welfare Task Force</t>
-  </si>
-  <si>
-    <t>Neighborhood Day Care Center Association</t>
-  </si>
-  <si>
-    <t>North Central Texas Personnel and Guidance Association</t>
-  </si>
-  <si>
-    <t>North Dallas (TX) Democratic Women's Club</t>
-  </si>
-  <si>
-    <t>North Texas Conference of the United Methodist Church General Commission on the Status and Role of Women</t>
-  </si>
-  <si>
-    <t>Northwest District Council of Catholic Women, Archdiocese of San Antonio (TX)</t>
-  </si>
-  <si>
-    <t>Northwest Texas Conference of the United Methodist Church, Commission on the Role and Status of Women</t>
-  </si>
-  <si>
-    <t>Nueces County (TX) Bar Association</t>
-  </si>
-  <si>
-    <t>Oak Cliff (TX) Chamber of Commerce</t>
-  </si>
-  <si>
-    <t>One America--Female Ex-offender Program</t>
-  </si>
-  <si>
-    <t>Operation Big Vote</t>
-  </si>
-  <si>
-    <t>Order of Women Legislators</t>
-  </si>
-  <si>
-    <t>Organizaciones Unidas</t>
-  </si>
-  <si>
-    <t>Panhandle Regional Government (TX), Criminal Justice Committee</t>
-  </si>
-  <si>
-    <t>Panhandle-South Plains Fair, Bicentennial Program Subcommittee, (TX)</t>
-  </si>
-  <si>
-    <t>Parent Teacher Association (PTA)</t>
-  </si>
-  <si>
-    <t>Parent Teacher Association (PTA), San Antonio (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Parent Teacher Association (PTA), Texas Chapter</t>
-  </si>
-  <si>
-    <t>Parent Teachers Club</t>
-  </si>
-  <si>
-    <t>PEOPLE FIRST</t>
-  </si>
-  <si>
-    <t>Peres Center for Peace</t>
-  </si>
-  <si>
-    <t>Phi Alpha Delta Legal Society</t>
-  </si>
-  <si>
-    <t>Phi Beta Kappa</t>
-  </si>
-  <si>
-    <t>Phi Delta Kappa Education Fraternity</t>
-  </si>
-  <si>
-    <t>Phi Eta Sigma</t>
-  </si>
-  <si>
-    <t>Plains Hospital Foundation Board (TX)</t>
-  </si>
-  <si>
-    <t>Planned Parenthood (PP)</t>
-  </si>
-  <si>
-    <t>Political Association of Spanish Speaking Organizations (PASSO)</t>
-  </si>
-  <si>
-    <t>Pre-Law Society</t>
-  </si>
-  <si>
-    <t>Progressive Democrats of El Paso County (TX)</t>
-  </si>
-  <si>
-    <t>Progressive Democrats of El Paso County (TX), Publicity Committee</t>
-  </si>
-  <si>
-    <t>Project on Equal Education Rights (PEER)</t>
-  </si>
-  <si>
-    <t>Project on Equal Education Rights (PEER), Advisory Council</t>
-  </si>
-  <si>
-    <t>Rape Crisis Coalition</t>
-  </si>
-  <si>
-    <t>Regionwide Federal Women's Program and Hispanic Employment Program</t>
-  </si>
-  <si>
-    <t>Regis Retirement Home Advisory Board (Waco, TX)</t>
-  </si>
-  <si>
-    <t>Rice Center</t>
-  </si>
-  <si>
-    <t>River Canoeing</t>
-  </si>
-  <si>
-    <t>Rotary International</t>
-  </si>
-  <si>
-    <t>Running Strong for American Indian Youth</t>
-  </si>
-  <si>
-    <t>San Antonio (TX) Council of Presidents</t>
-  </si>
-  <si>
-    <t>San Antonio (TX) Federation of Catholic Parent-Teacher Clubs, Citizens for Decency Committee</t>
-  </si>
-  <si>
-    <t>San Jacinto Girl Scouts Area Council (TX)</t>
-  </si>
-  <si>
-    <t>Save the Children</t>
-  </si>
-  <si>
-    <t>Sexual Assault and Abuse Free Environment Women's Shelter (SAAFE House)</t>
-  </si>
-  <si>
-    <t>Sexual Assault and Abuse Free Environment Women's Shelter (SAAFE House) (Huntsville, TX)</t>
-  </si>
-  <si>
-    <t>Sierra Club</t>
-  </si>
-  <si>
-    <t>Sigma Theta Tau</t>
-  </si>
-  <si>
-    <t>Society for the Prevention of Educational Discrimination Against the Handicapped</t>
-  </si>
-  <si>
-    <t>Soroptimist International</t>
-  </si>
-  <si>
-    <t>South Plains (TX) AIDS Resource Center</t>
-  </si>
-  <si>
-    <t>South Plains (TX) Food Bank</t>
-  </si>
-  <si>
-    <t>South Texas Planned Parenthood (PP) Association</t>
-  </si>
-  <si>
-    <t>Southern Poverty Law Center</t>
-  </si>
-  <si>
-    <t>Southwest Association of Chicanos in Higher Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southwest Scholastic Press Association </t>
-  </si>
-  <si>
-    <t>Southwest Texas Pharmaceutical Association</t>
-  </si>
-  <si>
-    <t>Southwestern Library Association</t>
-  </si>
-  <si>
-    <t>Southwestern Social Science Association</t>
-  </si>
-  <si>
-    <t>Speakers Bureau for Lyndon B. Johnson’s 1964 Campaign</t>
-  </si>
-  <si>
-    <t>St. Anthony Oblate Club (San Antonio, TX)</t>
-  </si>
-  <si>
-    <t>St. Henry's Church Confraternity of Christian Doctrine</t>
-  </si>
-  <si>
-    <t>St. John's United Methodist Church (Lubbock, TX)</t>
-  </si>
-  <si>
-    <t>St. Paul's Church (San Antonio, TX), Spanish Choir</t>
-  </si>
-  <si>
-    <t>St. Paul's Church, Christian Mother's Guild (San Antonio, TX)</t>
-  </si>
-  <si>
-    <t>St. Paul's Parish Council of Catholic Women (San Antonio, TX)</t>
-  </si>
-  <si>
-    <t>St. Paul's Parish Pro-Life Committee (San Antonio, TX)</t>
-  </si>
-  <si>
-    <t>St. Peter's and St. Joseph's Children's Home Ladies Auxiliary (San Antonio, TX)</t>
-  </si>
-  <si>
-    <t>State Advisory Committee on Child Care Licensing (TX)</t>
-  </si>
-  <si>
-    <t>State Agency Libraries of Texas</t>
-  </si>
-  <si>
-    <t>State Bar Administrative Committee on Legislation (TX)</t>
-  </si>
-  <si>
-    <t>State Bar Association (TX), Committee for a More Effective State Bar</t>
-  </si>
-  <si>
-    <t>State Bar Association (TX), Committee on Effective Participation of Women in the Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Bar Association (TX), Committee on Legal Services to the Indigent in Civil Matters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Bar Association (TX), Committee on Legislation in the Public Interest  </t>
-  </si>
-  <si>
-    <t>State Nursing Home Consultant Association (TX)</t>
-  </si>
-  <si>
-    <t>Stephenville (TX) Historical House Museum</t>
-  </si>
-  <si>
-    <t>Stephenville (TX) Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Student Judicial Board at University of Texas-Arlington</t>
-  </si>
-  <si>
-    <t>Syrian/Lebanese Club of Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Tejano Political Action Committee</t>
-  </si>
-  <si>
-    <t>Tejanos de Houston (TX)</t>
-  </si>
-  <si>
-    <t>Texans for Educational Advancement for Mexican Americans (TEAMS)</t>
-  </si>
-  <si>
-    <t>Texans for ERA</t>
-  </si>
-  <si>
-    <t>Texas Agricultural Extension Service, Family Living Subcommittee</t>
-  </si>
-  <si>
-    <t>Texas American Federation of Labor-Congress of Industrial Organizations (AFL-CIO), District 10</t>
-  </si>
-  <si>
-    <t>Texas Association Concerned with Teenage Parents</t>
-  </si>
-  <si>
-    <t>Texas Association for Bilingual Education</t>
-  </si>
-  <si>
-    <t>Texas Association for Bilingual Education, McAllen (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Texas Association for Bilingual Education, Valley Chapter</t>
-  </si>
-  <si>
-    <t>Texas Association for Supervision and Curriculum Development</t>
-  </si>
-  <si>
-    <t>Texas CAN Academy</t>
-  </si>
-  <si>
-    <t>Texas Catholic Conference</t>
-  </si>
-  <si>
-    <t>Texas Child Care '76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Classroom Teachers Association </t>
-  </si>
-  <si>
-    <t>Texas Corrections Association</t>
-  </si>
-  <si>
-    <t>Texas Equal Rights Amendment</t>
-  </si>
-  <si>
-    <t>Texas ERA Coalition</t>
-  </si>
-  <si>
-    <t>Texas Farmworkers Union</t>
-  </si>
-  <si>
-    <t>Texas Federation of Business &amp; Professional Women's Clubs</t>
-  </si>
-  <si>
-    <t>Texas Federation of Republican Women</t>
-  </si>
-  <si>
-    <t>Texas Gay Task Force</t>
-  </si>
-  <si>
-    <t>Texas Girl Scouts Council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas High School Press Association </t>
-  </si>
-  <si>
-    <t>Texas Institute for Educational Development</t>
-  </si>
-  <si>
-    <t>Texas Law School Alumni Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas Library Association </t>
-  </si>
-  <si>
-    <t>Texas Parent Teacher Association, State Board of Managers</t>
-  </si>
-  <si>
-    <t>Texas Political Women's Black Caucus</t>
-  </si>
-  <si>
-    <t>Texas Public Employees Association (TPEA)</t>
-  </si>
-  <si>
-    <t>Texas Public Health Association</t>
-  </si>
-  <si>
-    <t>Texas Rape Prevention and Control Project (Austin, TX)</t>
-  </si>
-  <si>
-    <t>Texas Rape Prevention Center</t>
-  </si>
-  <si>
-    <t>Texas Republican County Chairman's Association</t>
-  </si>
-  <si>
-    <t>Texas Rural Legal Aid Society</t>
-  </si>
-  <si>
-    <t>Texas State Bar Association</t>
-  </si>
-  <si>
-    <t>Texas State Library Staff Association</t>
-  </si>
-  <si>
-    <t>Texas State Pharmaceutical Association</t>
-  </si>
-  <si>
-    <t>Texas State Pharmaceutical Association, Nursing Home and Small Hospital Liaison Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas State Teachers Association </t>
-  </si>
-  <si>
-    <t>Texas State Teachers Association, Alice (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Texas State Teachers Association, District VI Political Education Committee</t>
-  </si>
-  <si>
-    <t>Texas Tech Experimental College and Free University</t>
-  </si>
-  <si>
-    <t>Texas Tech Faculty Women's Club</t>
-  </si>
-  <si>
-    <t>Texas United Community Services</t>
-  </si>
-  <si>
-    <t>Texas Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>Texas Women's Political Caucus, Policy Council</t>
-  </si>
-  <si>
-    <t>Thelma Boston Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theresians, San Antonio (TX) Chapter </t>
-  </si>
-  <si>
-    <t>Toastmistress International, Matamoros, Mexico</t>
-  </si>
-  <si>
-    <t>Town and Gown</t>
-  </si>
-  <si>
-    <t>Trabajadores de la Raza</t>
-  </si>
-  <si>
-    <t>Travis County (TX) Services for the Deaf</t>
-  </si>
-  <si>
-    <t>Tri-Ethnic Committee of Dallas</t>
-  </si>
-  <si>
-    <t>Turtle Creek (Dallas, TX) Manor</t>
-  </si>
-  <si>
-    <t>Union for Youth</t>
-  </si>
-  <si>
-    <t>United Farmworkers (UF)</t>
-  </si>
-  <si>
-    <t>United Farmworkers Committee, Austin (TX) Chapter</t>
-  </si>
-  <si>
-    <t>United Federation of Postal Clerks, Women's Auxiliary</t>
-  </si>
-  <si>
-    <t>United Fund</t>
-  </si>
-  <si>
-    <t>United Methodist Church Women's Political Caucus</t>
-  </si>
-  <si>
-    <t>United Methodist Church, Annual Conference</t>
-  </si>
-  <si>
-    <t>United Methodist Church, Church and Society</t>
-  </si>
-  <si>
-    <t>United Methodist Church, General Conference</t>
-  </si>
-  <si>
-    <t>United Negro College Fund (UNCF)</t>
-  </si>
-  <si>
-    <t>United Negro College Fund, Corpus Christi (TX) Chapter</t>
-  </si>
-  <si>
-    <t>United Negro College Fund, Houston (TX) Chapter</t>
-  </si>
-  <si>
-    <t>United Way</t>
-  </si>
-  <si>
-    <t>United Way Board, Lubbock (TX) Area Chapter</t>
-  </si>
-  <si>
-    <t>United Way for Austin-Travis County (TX)</t>
-  </si>
-  <si>
-    <t>United Way, Lubbock (TX) Area Chapter</t>
-  </si>
-  <si>
-    <t>University (of Texas) Council on the Status of Women and Minorities</t>
-  </si>
-  <si>
-    <t>University of Houston (TX) Women's Rights Coordinating Council</t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington Athletic Council</t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington Board of Directors for Child Care</t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington Law Society</t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington President's Student Advisory Council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Texas-Arlington Scholastic Standards Committee </t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington Student Activities Board</t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington Student Center Advisory Committee</t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington Teaching Effectiveness Committee</t>
-  </si>
-  <si>
-    <t>University of Texas-Arlington Undergraduate Assembly</t>
-  </si>
-  <si>
-    <t>Urban League (UL)</t>
-  </si>
-  <si>
-    <t>Urban League (UL) Guild</t>
-  </si>
-  <si>
-    <t>Urban League (UL), Dallas (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Urban League Guild, Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Urban League, Austin (TX) Area</t>
-  </si>
-  <si>
-    <t>Urban Renewal Agency (Lubbock, TX)</t>
-  </si>
-  <si>
-    <t>USO Council and Interfaith Forum</t>
-  </si>
-  <si>
-    <t>Valley Association for the Education of Young Children (TX)</t>
-  </si>
-  <si>
-    <t>Valley Health Association (TX)</t>
-  </si>
-  <si>
-    <t>Valley Health Consumer Association</t>
-  </si>
-  <si>
-    <t>Valley Women's Political Caucus (TX)</t>
-  </si>
-  <si>
-    <t>Veterans of Foreign Wars Auxiliary</t>
-  </si>
-  <si>
-    <t>Vocational Homemaking Teachers Association</t>
-  </si>
-  <si>
-    <t>Waco (TX) Diocese</t>
-  </si>
-  <si>
-    <t>Waco (TX) Right-to-Life Committee</t>
-  </si>
-  <si>
-    <t>Washington Association of Minority Entrepreneurs</t>
-  </si>
-  <si>
-    <t>West Texas District Teachers Association</t>
-  </si>
-  <si>
-    <t>Wichita Falls (TX) Ballet Theatre</t>
-  </si>
-  <si>
-    <t>Wichita Falls (TX) Democratic Women</t>
-  </si>
-  <si>
-    <t>Wichita Falls (TX) Symphony</t>
-  </si>
-  <si>
-    <t>Women and Alcohol</t>
-  </si>
-  <si>
-    <t>Women for Change</t>
-  </si>
-  <si>
-    <t>Women for Change, Dallas (TX)</t>
-  </si>
-  <si>
-    <t>Women in Communications, Inc.</t>
-  </si>
-  <si>
-    <t>Women in Communications, Inc., Professional Chapter, Austin (TX)</t>
-  </si>
-  <si>
-    <t>Women in Community Service, Inc.</t>
-  </si>
-  <si>
-    <t>Women Who Want to be Women (WWWW)</t>
-  </si>
-  <si>
-    <t>Women's Action Alliance</t>
-  </si>
-  <si>
-    <t>Women's Center at the University of Houston Clear Lake, Women's Advisory Council</t>
-  </si>
-  <si>
-    <t>Women's Center at the University of Houston Clear Lake (TX)</t>
-  </si>
-  <si>
-    <t>Women's Guild</t>
-  </si>
-  <si>
-    <t>Women's Law Caucus</t>
-  </si>
-  <si>
-    <t>Women's Lobby</t>
-  </si>
-  <si>
-    <t>Women's Lobby Board</t>
-  </si>
-  <si>
-    <t>Women's Rights Coordinating Council</t>
-  </si>
-  <si>
-    <t>Women's Rights Coordinating Council, Houston (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Women’s Actions Against Crime</t>
-  </si>
-  <si>
-    <t>Women’s Equity Action League (WEAL)</t>
-  </si>
-  <si>
-    <t>Workforce Solutions/Lower Rio Grande Valley (TX)</t>
-  </si>
-  <si>
-    <t>Young Democrats of University of Texas-Arlington</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association (YWCA)</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association (YWCA), Blue Triangle Branch (Houston, TX)</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association (YWCA), Fort Worth (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association (YWCA), Houston (TX) Chapter, Committee on Women in Crisis, Task Force on Public Awareness</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association (YWCA), Tarrant County (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association (YWCA), University of Texas (Austin, TX) Chapter</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association, Corpus Christi (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association, Tarrant County (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Young Women's Christian Association, University of Texas at Austin (TX) Chapter</t>
-  </si>
-  <si>
-    <t>Zonta Club of West Hidalgo County (TX)</t>
-  </si>
-  <si>
-    <t>Zonta International</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>Last Name of Spouse/Partner</t>
-  </si>
-  <si>
-    <t>First Name of Spouse/Partner</t>
-  </si>
-  <si>
-    <t>Middle Name and/or Initial 1 of Spouse/Partner</t>
-  </si>
-  <si>
-    <t>Middle Name and/or Initial 2 of Spouse/Partner</t>
-  </si>
-  <si>
-    <t>Nickname of Spouse/Partner</t>
-  </si>
-  <si>
-    <t>Suffix of Spouse/Partner</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Residence in 1977: Street Address and Apartment Number</t>
-  </si>
-  <si>
-    <t>Residence in 1977: PO Box and/or Rural Route Number</t>
-  </si>
-  <si>
-    <t>Residence in 1977: City and State</t>
-  </si>
-  <si>
-    <t>Residence in 1977: Zip Code</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>nonbinary</t>
-  </si>
-  <si>
-    <t>transgender</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>sexual_orientation</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>bisexual</t>
-  </si>
-  <si>
-    <t>lesbian</t>
-  </si>
-  <si>
-    <t>marital_class</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>partnered</t>
-  </si>
-  <si>
-    <t>divorced</t>
-  </si>
-  <si>
-    <t>widowed</t>
-  </si>
-  <si>
-    <t>## These are the sets used for the dropdowns</t>
-  </si>
-  <si>
-    <t>planks</t>
-  </si>
-  <si>
-    <t>against</t>
-  </si>
-  <si>
-    <t>spoke about with position unknown</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>some high school</t>
-  </si>
-  <si>
-    <t>high school diploma</t>
-  </si>
-  <si>
-    <t>some college</t>
-  </si>
-  <si>
-    <t>college degree</t>
-  </si>
-  <si>
-    <t>some graduate/professional</t>
-  </si>
-  <si>
-    <t>employment</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Architecture…</t>
-  </si>
-  <si>
-    <t>Arts…</t>
-  </si>
-  <si>
-    <t>Clergy…</t>
-  </si>
-  <si>
-    <t>Construction…</t>
-  </si>
-  <si>
-    <t>Corporate…</t>
-  </si>
-  <si>
-    <t>Finance…</t>
-  </si>
-  <si>
-    <t>Food…</t>
-  </si>
-  <si>
-    <t>Government…</t>
-  </si>
-  <si>
-    <t>Homemaker</t>
-  </si>
-  <si>
-    <t>Law…</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>Enforcement…</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Media…</t>
-  </si>
-  <si>
-    <t>Medical…</t>
-  </si>
-  <si>
-    <t>Office…</t>
-  </si>
-  <si>
-    <t>Science…</t>
-  </si>
-  <si>
-    <t>Service…</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Transportation…</t>
-  </si>
-  <si>
-    <t>Unemployed</t>
-  </si>
-  <si>
-    <t>Wholesal</t>
+    <t>leadership_role</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Chair/President</t>
+  </si>
+  <si>
+    <t>Founder/Co-founder</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Representative</t>
+  </si>
+  <si>
+    <t>Other Community Leadership</t>
+  </si>
+  <si>
+    <t>Other Officer</t>
+  </si>
+  <si>
+    <t>Vice-chair/Vice-president</t>
   </si>
 </sst>
 </file>
@@ -2591,21 +2666,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2695,9 +2770,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2705,6 +2777,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3107,13 +3182,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AE1048576"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,13 +3212,13 @@
     <col min="22" max="22" width="9.6640625" style="3" customWidth="1"/>
     <col min="23" max="23" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="11" style="3"/>
-    <col min="26" max="26" width="10.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="10.1640625" style="3" customWidth="1"/>
     <col min="29" max="29" width="11" style="3"/>
     <col min="30" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="176" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -3154,58 +3229,58 @@
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>10</v>
@@ -3226,33 +3301,30 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -3264,7 +3336,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K2" s="19">
         <v>1933</v>
@@ -3272,8 +3344,8 @@
       <c r="L2" s="3">
         <v>44</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>159</v>
+      <c r="M2" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="N2" s="21">
         <v>12</v>
@@ -3306,12 +3378,12 @@
         <v>21</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="24">
         <v>3</v>
       </c>
     </row>
@@ -3321,9 +3393,25 @@
     <sortCondition ref="A2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="140">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4:E5"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
+      <pane xSplit="2" ySplit="1.0079365079365079" topLeftCell="D36" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C3874448-A812-8040-8431-8F21B0489AFC}" scale="150">
+      <selection activeCell="T3" sqref="T3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}">
@@ -3331,25 +3419,9 @@
       <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C3874448-A812-8040-8431-8F21B0489AFC}" scale="150">
-      <selection activeCell="T3" sqref="T3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
-      <pane xSplit="2" ySplit="1.0079365079365079" topLeftCell="D36" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-    </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="140">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3401,13 +3473,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A748E4-17CD-084D-A833-31307220C4BD}">
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3416,10 +3488,10 @@
     <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
     <col min="3" max="13" width="10.83203125" style="3"/>
     <col min="14" max="28" width="10.83203125" style="3" customWidth="1"/>
-    <col min="29" max="31" width="10.83203125" style="8"/>
+    <col min="29" max="30" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3504,18 +3576,15 @@
       <c r="AB1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>99</v>
@@ -3596,26 +3665,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC9" s="3"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="5"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="5"/>
-    </row>
-    <row r="19" spans="29:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="29:29" x14ac:dyDescent="0.2">
       <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="21" spans="29:30" x14ac:dyDescent="0.2">
-      <c r="AC21" s="3"/>
-    </row>
-    <row r="54" spans="29:29" x14ac:dyDescent="0.2">
-      <c r="AC54" s="3"/>
-    </row>
-    <row r="60" spans="29:29" x14ac:dyDescent="0.2">
-      <c r="AC60" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB2" xr:uid="{E8A748E4-17CD-084D-A833-31307220C4BD}"/>
@@ -3635,261 +3690,364 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1352F9-2320-2149-A584-3B5906104A31}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="M2" sqref="M2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>755</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>761</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>758</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="I2" t="s">
-        <v>778</v>
+        <v>773</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>807</v>
+      </c>
+      <c r="M2" t="s">
+        <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="I3" t="s">
-        <v>779</v>
+        <v>774</v>
+      </c>
+      <c r="J3" t="s">
+        <v>800</v>
+      </c>
+      <c r="L3" t="s">
+        <v>808</v>
+      </c>
+      <c r="M3" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
-        <v>762</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="D4" s="27" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="G4" t="s">
+        <v>764</v>
+      </c>
+      <c r="H4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J4" t="s">
+        <v>801</v>
+      </c>
+      <c r="L4" t="s">
+        <v>803</v>
+      </c>
+      <c r="M4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="G4" t="s">
-        <v>768</v>
-      </c>
-      <c r="H4" t="s">
-        <v>774</v>
-      </c>
-      <c r="I4" t="s">
-        <v>780</v>
+      <c r="C5" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="H5" t="s">
+        <v>770</v>
+      </c>
+      <c r="I5" t="s">
+        <v>776</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>809</v>
+      </c>
+      <c r="M5" t="s">
+        <v>823</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>754</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="H5" t="s">
-        <v>775</v>
-      </c>
-      <c r="I5" t="s">
-        <v>781</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>760</v>
+      </c>
+      <c r="H6" t="s">
+        <v>771</v>
+      </c>
+      <c r="I6" t="s">
+        <v>777</v>
+      </c>
+      <c r="L6" t="s">
+        <v>810</v>
+      </c>
+      <c r="M6" t="s">
+        <v>824</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>764</v>
-      </c>
-      <c r="H6" t="s">
-        <v>776</v>
-      </c>
-      <c r="I6" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
         <v>45</v>
       </c>
       <c r="I7" t="s">
+        <v>778</v>
+      </c>
+      <c r="L7" t="s">
+        <v>804</v>
+      </c>
+      <c r="M7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>811</v>
+      </c>
+      <c r="M8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>779</v>
+      </c>
+      <c r="L9" t="s">
+        <v>805</v>
+      </c>
+      <c r="M9" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>761</v>
+      </c>
+      <c r="I10" t="s">
+        <v>780</v>
+      </c>
+      <c r="L10" t="s">
+        <v>812</v>
+      </c>
+      <c r="M10" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>781</v>
+      </c>
+      <c r="L11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>782</v>
+      </c>
+      <c r="L12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
         <v>783</v>
       </c>
+      <c r="L13" t="s">
+        <v>815</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I8" t="s">
-        <v>105</v>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>784</v>
+      </c>
+      <c r="L14" t="s">
+        <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I9" t="s">
-        <v>784</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>785</v>
+      </c>
+      <c r="L15" t="s">
+        <v>816</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>765</v>
-      </c>
-      <c r="I10" t="s">
-        <v>785</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>786</v>
+      </c>
+      <c r="L16" t="s">
+        <v>817</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
-        <v>786</v>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>787</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I12" t="s">
-        <v>787</v>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I13" t="s">
-        <v>788</v>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
-        <v>789</v>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>790</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>790</v>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>791</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I16" t="s">
-        <v>791</v>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>792</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
-        <v>792</v>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>793</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" t="s">
-        <v>793</v>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>794</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
-        <v>794</v>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>795</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>795</v>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>796</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>796</v>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>797</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" t="s">
+    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I27" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I28" t="s">
-        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -3902,7 +4060,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3915,31 +4073,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3947,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3957,7 +4115,6 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3966,15 +4123,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AAE54B-B99D-0C45-AE75-327CF3E202A3}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -3982,28 +4139,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -4026,9 +4180,6 @@
         <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4044,15 +4195,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595C3A19-8E8F-3D4A-BE50-E4849FB1BDBE}">
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1:BF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:58" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -4060,175 +4211,172 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="2" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -4398,15 +4546,12 @@
         <v>23</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:AY2 AZ1:BE1 AZ2:BF2" xr:uid="{1C97F8F3-03C5-634F-9ABB-649AA8AB80E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:AY2 AZ1:BE1 AZ2:BE2" xr:uid="{1C97F8F3-03C5-634F-9ABB-649AA8AB80E5}">
       <formula1>"yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4416,9 +4561,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4433,11 +4578,11 @@
     <col min="7" max="7" width="11" style="6"/>
     <col min="8" max="9" width="11" style="3"/>
     <col min="10" max="10" width="11" style="6"/>
-    <col min="11" max="21" width="11" style="3"/>
-    <col min="22" max="16384" width="11" style="2"/>
+    <col min="11" max="20" width="11" style="3"/>
+    <col min="21" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="304" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="304" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -4472,25 +4617,22 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -4501,7 +4643,7 @@
         <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>28</v>
@@ -4525,7 +4667,7 @@
         <v>23</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>33</v>
@@ -4537,28 +4679,27 @@
         <v>46</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T3">
     <sortCondition ref="B2:B3"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="160">
-      <pane xSplit="2" ySplit="1" topLeftCell="V36" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="133">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="130">
-      <pane xSplit="2" ySplit="0.50427350427350426" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="130">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="130">
@@ -4567,14 +4708,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="130">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
+    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="130">
+      <pane xSplit="2" ySplit="0.50427350427350426" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="133">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="160">
+      <pane xSplit="2" ySplit="1" topLeftCell="V36" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4605,23 +4746,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="21" width="11" style="3"/>
-    <col min="22" max="22" width="11" style="4"/>
-    <col min="23" max="16384" width="11" style="2"/>
+    <col min="1" max="16" width="11" style="3"/>
+    <col min="17" max="17" width="11" style="4"/>
+    <col min="18" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="158" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -4638,10 +4779,10 @@
         <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>50</v>
@@ -4656,38 +4797,23 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="V1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -4710,7 +4836,7 @@
         <v>54</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>55</v>
@@ -4722,43 +4848,41 @@
         <v>30</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1969</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1973</v>
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q2">
     <sortCondition ref="K2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="130">
-      <pane xSplit="2" ySplit="1" topLeftCell="H33" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="120">
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="160">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="160">
+      <pane xSplit="2" ySplit="1.0046296296296295" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="160">
@@ -4766,36 +4890,26 @@
       <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="160">
-      <pane xSplit="2" ySplit="1.0046296296296295" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="160">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="120">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="130">
+      <pane xSplit="2" ySplit="1" topLeftCell="H33" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:T1 Q2:R2 T2:U2 Q3:T1048576" xr:uid="{1F0F02C7-4C09-B549-8843-ACC051E48FDD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:P1 M2:N2 P2 M3:P1048576" xr:uid="{1F0F02C7-4C09-B549-8843-ACC051E48FDD}">
       <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 C1:C1048576" xr:uid="{77341719-C2B6-C143-89CA-6E3D0CA088CB}">
       <formula1>"city level,county level,state level,federal level,none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{B707A848-3DB0-D84A-9666-5AEF42F8C182}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{B707A848-3DB0-D84A-9666-5AEF42F8C182}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{4017A470-7D8F-5840-94C5-636B1396FF25}">
       <formula1>"American Independent,Black Panther,CPUSA,Conservative Party of New York,DC Statehood,Democratic,Liberal Party of New York,Libertarian,Minnesota DFL,North Dakota DNL,Peace &amp; Freedom,Raza Unida,Republican,Socialist Party USA,Socialist Workers,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 O1:O1048576" xr:uid="{5AB0FF27-D71A-AE43-B8F3-6F39AABB1846}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{5AB0FF27-D71A-AE43-B8F3-6F39AABB1846}">
       <formula1>"present"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4805,13 +4919,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F766F40-EBC7-6D4A-8ED9-1C8C1D2EC740}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4820,11 +4934,11 @@
     <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3"/>
-    <col min="5" max="6" width="11" style="4"/>
-    <col min="7" max="16384" width="11" style="2"/>
+    <col min="5" max="5" width="11" style="4"/>
+    <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -4832,19 +4946,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -4852,22 +4963,22 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2" xr:uid="{2F766F40-EBC7-6D4A-8ED9-1C8C1D2EC740}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2">
+  <autoFilter ref="A1:E2" xr:uid="{2F766F40-EBC7-6D4A-8ED9-1C8C1D2EC740}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
     <sortCondition ref="B2"/>
   </sortState>
   <dataValidations count="1">
@@ -4881,15 +4992,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED894402-5226-BA4D-971B-28F9E22AF8DC}">
-  <dimension ref="A1:TD2"/>
+  <dimension ref="A1:TC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="ST1" workbookViewId="0">
+      <selection activeCell="TD1" sqref="TD1:TD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:524" s="3" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:523" s="3" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -4897,1578 +5008,1575 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CC1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CG1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CL1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CP1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CY1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="DC1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DM1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DN1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DP1" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DT1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DX1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DY1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="EA1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="EC1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="ED1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="ES1" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="EW1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EY1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="FA1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="EX1" s="3" t="s">
+      <c r="FB1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="FC1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="EZ1" s="3" t="s">
+      <c r="FD1" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="FA1" s="3" t="s">
+      <c r="FE1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FF1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FG1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FH1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="FE1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="FF1" s="3" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FK1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FM1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FO1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FP1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FR1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FT1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="GA1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GD1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GE1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GG1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GH1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GK1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GL1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GM1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GN1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="GK1" s="3" t="s">
+      <c r="GO1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="GN1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GT1" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GU1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GV1" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GX1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="GY1" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HE1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HF1" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HI1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HK1" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HL1" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HM1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HN1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HP1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HR1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HT1" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HU1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="HW1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HY1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="HV1" s="3" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="HW1" s="3" t="s">
+      <c r="IA1" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="HX1" s="3" t="s">
+      <c r="IB1" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="HY1" s="3" t="s">
+      <c r="IC1" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="HZ1" s="3" t="s">
+      <c r="ID1" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="IA1" s="3" t="s">
+      <c r="IE1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="IB1" s="3" t="s">
+      <c r="IF1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="IC1" s="3" t="s">
+      <c r="IG1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="ID1" s="3" t="s">
+      <c r="IH1" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="IE1" s="3" t="s">
+      <c r="II1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="IF1" s="3" t="s">
+      <c r="IJ1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="IG1" s="3" t="s">
+      <c r="IK1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="IH1" s="3" t="s">
+      <c r="IL1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="II1" s="3" t="s">
+      <c r="IM1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="IJ1" s="3" t="s">
+      <c r="IN1" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="IK1" s="3" t="s">
+      <c r="IO1" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="IL1" s="3" t="s">
+      <c r="IP1" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IQ1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="IN1" s="3" t="s">
+      <c r="IR1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="IO1" s="3" t="s">
+      <c r="IS1" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="IP1" s="3" t="s">
+      <c r="IT1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="IQ1" s="3" t="s">
+      <c r="IU1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="IR1" s="3" t="s">
+      <c r="IV1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="IS1" s="3" t="s">
+      <c r="IW1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="IT1" s="3" t="s">
+      <c r="IX1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="IU1" s="3" t="s">
+      <c r="IY1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="IV1" s="3" t="s">
+      <c r="IZ1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="IW1" s="3" t="s">
+      <c r="JA1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="IX1" s="3" t="s">
+      <c r="JB1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="IY1" s="3" t="s">
+      <c r="JC1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="IZ1" s="3" t="s">
+      <c r="JD1" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="JA1" s="3" t="s">
+      <c r="JE1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="JB1" s="3" t="s">
+      <c r="JF1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="JC1" s="3" t="s">
+      <c r="JG1" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="JD1" s="3" t="s">
+      <c r="JH1" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="JE1" s="3" t="s">
+      <c r="JI1" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="JF1" s="3" t="s">
+      <c r="JJ1" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="JG1" s="3" t="s">
+      <c r="JK1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="JH1" s="3" t="s">
+      <c r="JL1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="JI1" s="3" t="s">
+      <c r="JM1" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JN1" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="JK1" s="3" t="s">
+      <c r="JO1" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="JL1" s="3" t="s">
+      <c r="JP1" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="JM1" s="3" t="s">
+      <c r="JQ1" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="JN1" s="3" t="s">
+      <c r="JR1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="JO1" s="3" t="s">
+      <c r="JS1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="JP1" s="3" t="s">
+      <c r="JT1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="JQ1" s="3" t="s">
+      <c r="JU1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="JR1" s="3" t="s">
+      <c r="JV1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="JS1" s="3" t="s">
+      <c r="JW1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JX1" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="JU1" s="2" t="s">
+      <c r="JY1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="JV1" s="3" t="s">
+      <c r="JZ1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="JW1" s="3" t="s">
+      <c r="KA1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="JX1" s="3" t="s">
+      <c r="KB1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="JY1" s="3" t="s">
+      <c r="KC1" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="JZ1" s="3" t="s">
+      <c r="KD1" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="KA1" s="3" t="s">
+      <c r="KE1" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="KB1" s="3" t="s">
+      <c r="KF1" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="KC1" s="3" t="s">
+      <c r="KG1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="KD1" s="3" t="s">
+      <c r="KH1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="KE1" s="3" t="s">
+      <c r="KI1" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="KF1" s="3" t="s">
+      <c r="KJ1" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="KG1" s="3" t="s">
+      <c r="KK1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="KH1" s="3" t="s">
+      <c r="KL1" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="KI1" s="3" t="s">
+      <c r="KM1" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="KJ1" s="3" t="s">
+      <c r="KN1" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="KK1" s="3" t="s">
+      <c r="KO1" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="KL1" s="2" t="s">
+      <c r="KP1" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="KM1" s="3" t="s">
+      <c r="KQ1" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="KN1" s="3" t="s">
+      <c r="KR1" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="KO1" s="2" t="s">
+      <c r="KS1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="KP1" s="3" t="s">
+      <c r="KT1" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="KQ1" s="3" t="s">
+      <c r="KU1" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="KR1" s="2" t="s">
+      <c r="KV1" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="KS1" s="3" t="s">
+      <c r="KW1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="KT1" s="3" t="s">
+      <c r="KX1" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="KU1" s="3" t="s">
+      <c r="KY1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="KV1" s="2" t="s">
+      <c r="KZ1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="KW1" s="2" t="s">
+      <c r="LA1" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="KX1" s="2" t="s">
+      <c r="LB1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="KY1" s="3" t="s">
+      <c r="LC1" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="KZ1" s="3" t="s">
+      <c r="LD1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="LA1" s="3" t="s">
+      <c r="LE1" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="LB1" s="3" t="s">
+      <c r="LF1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="LC1" s="2" t="s">
+      <c r="LG1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="LD1" s="3" t="s">
+      <c r="LH1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="LE1" s="3" t="s">
+      <c r="LI1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="LF1" s="3" t="s">
+      <c r="LJ1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="LG1" s="3" t="s">
+      <c r="LK1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="LH1" s="3" t="s">
+      <c r="LL1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="LI1" s="3" t="s">
+      <c r="LM1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="LJ1" s="3" t="s">
+      <c r="LN1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="LK1" s="3" t="s">
+      <c r="LO1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="LL1" s="3" t="s">
+      <c r="LP1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="LM1" s="3" t="s">
+      <c r="LQ1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="LN1" s="3" t="s">
+      <c r="LR1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="LO1" s="3" t="s">
+      <c r="LS1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="LP1" s="3" t="s">
+      <c r="LT1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="LQ1" s="3" t="s">
+      <c r="LU1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="LR1" s="3" t="s">
+      <c r="LV1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="LS1" s="3" t="s">
+      <c r="LW1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="LT1" s="3" t="s">
+      <c r="LX1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="LU1" s="3" t="s">
+      <c r="LY1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="LV1" s="3" t="s">
+      <c r="LZ1" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="LW1" s="3" t="s">
+      <c r="MA1" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="LX1" s="3" t="s">
+      <c r="MB1" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="LY1" s="3" t="s">
+      <c r="MC1" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="LZ1" s="3" t="s">
+      <c r="MD1" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="MA1" s="3" t="s">
+      <c r="ME1" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="MB1" s="3" t="s">
+      <c r="MF1" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="MC1" s="3" t="s">
+      <c r="MG1" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="MD1" s="3" t="s">
+      <c r="MH1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="ME1" s="3" t="s">
+      <c r="MI1" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="MF1" s="3" t="s">
+      <c r="MJ1" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="MG1" s="3" t="s">
+      <c r="MK1" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="MH1" s="3" t="s">
+      <c r="ML1" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="MI1" s="3" t="s">
+      <c r="MM1" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="MJ1" s="3" t="s">
+      <c r="MN1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="MK1" s="3" t="s">
+      <c r="MO1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="ML1" s="3" t="s">
+      <c r="MP1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="MM1" s="2" t="s">
+      <c r="MQ1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="MN1" s="3" t="s">
+      <c r="MR1" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="MO1" s="3" t="s">
+      <c r="MS1" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="MP1" s="3" t="s">
+      <c r="MT1" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="MQ1" s="3" t="s">
+      <c r="MU1" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="MR1" s="3" t="s">
+      <c r="MV1" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="MS1" s="3" t="s">
+      <c r="MW1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="MT1" s="4" t="s">
+      <c r="MX1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="MU1" s="3" t="s">
+      <c r="MY1" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="MV1" s="3" t="s">
+      <c r="MZ1" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="MW1" s="3" t="s">
+      <c r="NA1" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="MX1" s="3" t="s">
+      <c r="NB1" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="MY1" s="3" t="s">
+      <c r="NC1" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="MZ1" s="3" t="s">
+      <c r="ND1" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="NA1" s="3" t="s">
+      <c r="NE1" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="NB1" s="3" t="s">
+      <c r="NF1" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="NC1" s="3" t="s">
+      <c r="NG1" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="ND1" s="3" t="s">
+      <c r="NH1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="NE1" s="3" t="s">
+      <c r="NI1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="NF1" s="3" t="s">
+      <c r="NJ1" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="NG1" s="2" t="s">
+      <c r="NK1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="NH1" s="3" t="s">
+      <c r="NL1" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="NI1" s="3" t="s">
+      <c r="NM1" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="NJ1" s="3" t="s">
+      <c r="NN1" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="NK1" s="3" t="s">
+      <c r="NO1" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="NL1" s="3" t="s">
+      <c r="NP1" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="NM1" s="3" t="s">
+      <c r="NQ1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="NN1" s="3" t="s">
+      <c r="NR1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="NO1" s="3" t="s">
+      <c r="NS1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="NP1" s="3" t="s">
+      <c r="NT1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="NQ1" s="3" t="s">
+      <c r="NU1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="NR1" s="3" t="s">
+      <c r="NV1" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="NS1" s="3" t="s">
+      <c r="NW1" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="NT1" s="3" t="s">
+      <c r="NX1" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="NU1" s="3" t="s">
+      <c r="NY1" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="NV1" s="3" t="s">
+      <c r="NZ1" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="NW1" s="3" t="s">
+      <c r="OA1" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="NX1" s="3" t="s">
+      <c r="OB1" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="NY1" s="3" t="s">
+      <c r="OC1" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="NZ1" s="3" t="s">
+      <c r="OD1" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="OA1" s="3" t="s">
+      <c r="OE1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="OB1" s="3" t="s">
+      <c r="OF1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="OC1" s="3" t="s">
+      <c r="OG1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="OD1" s="3" t="s">
+      <c r="OH1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="OE1" s="3" t="s">
+      <c r="OI1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="OF1" s="3" t="s">
+      <c r="OJ1" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="OG1" s="3" t="s">
+      <c r="OK1" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="OH1" s="3" t="s">
+      <c r="OL1" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="OI1" s="3" t="s">
+      <c r="OM1" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="OJ1" s="3" t="s">
+      <c r="ON1" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="OK1" s="3" t="s">
+      <c r="OO1" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="OL1" s="3" t="s">
+      <c r="OP1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="OM1" s="3" t="s">
+      <c r="OQ1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="ON1" s="3" t="s">
+      <c r="OR1" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="OO1" s="3" t="s">
+      <c r="OS1" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="OP1" s="3" t="s">
+      <c r="OT1" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="OQ1" s="3" t="s">
+      <c r="OU1" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="OR1" s="3" t="s">
+      <c r="OV1" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="OS1" s="3" t="s">
+      <c r="OW1" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="OT1" s="3" t="s">
+      <c r="OX1" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="OU1" s="3" t="s">
+      <c r="OY1" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="OV1" s="3" t="s">
+      <c r="OZ1" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="OW1" s="3" t="s">
+      <c r="PA1" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="OX1" s="3" t="s">
+      <c r="PB1" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="OY1" s="3" t="s">
+      <c r="PC1" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="OZ1" s="3" t="s">
+      <c r="PD1" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="PA1" s="3" t="s">
+      <c r="PE1" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="PB1" s="3" t="s">
+      <c r="PF1" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="PC1" s="3" t="s">
+      <c r="PG1" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="PD1" s="3" t="s">
+      <c r="PH1" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="PE1" s="3" t="s">
+      <c r="PI1" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="PF1" s="3" t="s">
+      <c r="PJ1" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="PG1" s="3" t="s">
+      <c r="PK1" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="PH1" s="3" t="s">
+      <c r="PL1" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="PI1" s="3" t="s">
+      <c r="PM1" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="PJ1" s="3" t="s">
+      <c r="PN1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="PK1" s="3" t="s">
+      <c r="PO1" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="PL1" s="3" t="s">
+      <c r="PP1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="PM1" s="3" t="s">
+      <c r="PQ1" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="PN1" s="3" t="s">
+      <c r="PR1" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="PO1" s="3" t="s">
+      <c r="PS1" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="PP1" s="3" t="s">
+      <c r="PT1" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="PQ1" s="2" t="s">
+      <c r="PU1" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="PR1" s="3" t="s">
+      <c r="PV1" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="PS1" s="3" t="s">
+      <c r="PW1" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="PT1" s="3" t="s">
+      <c r="PX1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="PU1" s="3" t="s">
+      <c r="PY1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="PV1" s="3" t="s">
+      <c r="PZ1" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="PW1" s="3" t="s">
+      <c r="QA1" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="PX1" s="3" t="s">
+      <c r="QB1" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="PY1" s="3" t="s">
+      <c r="QC1" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="PZ1" s="3" t="s">
+      <c r="QD1" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="QA1" s="3" t="s">
+      <c r="QE1" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="QB1" s="3" t="s">
+      <c r="QF1" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="QC1" s="3" t="s">
+      <c r="QG1" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="QD1" s="3" t="s">
+      <c r="QH1" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="QE1" s="3" t="s">
+      <c r="QI1" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="QF1" s="3" t="s">
+      <c r="QJ1" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="QG1" s="3" t="s">
+      <c r="QK1" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="QH1" s="3" t="s">
+      <c r="QL1" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="QI1" s="3" t="s">
+      <c r="QM1" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="QJ1" s="3" t="s">
+      <c r="QN1" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="QK1" s="3" t="s">
+      <c r="QO1" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="QL1" s="3" t="s">
+      <c r="QP1" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="QM1" s="3" t="s">
+      <c r="QQ1" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="QN1" s="3" t="s">
+      <c r="QR1" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="QO1" s="3" t="s">
+      <c r="QS1" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="QP1" s="3" t="s">
+      <c r="QT1" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="QQ1" s="3" t="s">
+      <c r="QU1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="QR1" s="3" t="s">
+      <c r="QV1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="QS1" s="3" t="s">
+      <c r="QW1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="QT1" s="3" t="s">
+      <c r="QX1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="QU1" s="3" t="s">
+      <c r="QY1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="QV1" s="3" t="s">
+      <c r="QZ1" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="QW1" s="3" t="s">
+      <c r="RA1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="QX1" s="3" t="s">
+      <c r="RB1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="QY1" s="3" t="s">
+      <c r="RC1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="QZ1" s="3" t="s">
+      <c r="RD1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="RA1" s="3" t="s">
+      <c r="RE1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="RB1" s="3" t="s">
+      <c r="RF1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="RC1" s="3" t="s">
+      <c r="RG1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="RD1" s="3" t="s">
+      <c r="RH1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="RE1" s="3" t="s">
+      <c r="RI1" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="RF1" s="3" t="s">
+      <c r="RJ1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="RG1" s="3" t="s">
+      <c r="RK1" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="RH1" s="3" t="s">
+      <c r="RL1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="RI1" s="3" t="s">
+      <c r="RM1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="RJ1" s="3" t="s">
+      <c r="RN1" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="RK1" s="3" t="s">
+      <c r="RO1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="RL1" s="3" t="s">
+      <c r="RP1" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="RM1" s="3" t="s">
+      <c r="RQ1" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="RN1" s="3" t="s">
+      <c r="RR1" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="RO1" s="3" t="s">
+      <c r="RS1" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="RP1" s="3" t="s">
+      <c r="RT1" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="RQ1" s="3" t="s">
+      <c r="RU1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="RR1" s="3" t="s">
+      <c r="RV1" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="RS1" s="3" t="s">
+      <c r="RW1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="RT1" s="2" t="s">
+      <c r="RX1" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="RU1" s="3" t="s">
+      <c r="RY1" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="RV1" s="3" t="s">
+      <c r="RZ1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="RW1" s="3" t="s">
+      <c r="SA1" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="RX1" s="3" t="s">
+      <c r="SB1" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="RY1" s="3" t="s">
+      <c r="SC1" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="RZ1" s="3" t="s">
+      <c r="SD1" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="SA1" s="3" t="s">
+      <c r="SE1" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="SB1" s="3" t="s">
+      <c r="SF1" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="SC1" s="3" t="s">
+      <c r="SG1" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="SD1" s="3" t="s">
+      <c r="SH1" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="SE1" s="3" t="s">
+      <c r="SI1" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="SF1" s="3" t="s">
+      <c r="SJ1" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="SG1" s="3" t="s">
+      <c r="SK1" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="SH1" s="3" t="s">
+      <c r="SL1" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="SI1" s="3" t="s">
+      <c r="SM1" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="SJ1" s="3" t="s">
+      <c r="SN1" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="SK1" s="3" t="s">
+      <c r="SO1" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="SL1" s="3" t="s">
+      <c r="SP1" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="SM1" s="3" t="s">
+      <c r="SQ1" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="SN1" s="3" t="s">
+      <c r="SR1" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="SO1" s="3" t="s">
+      <c r="SS1" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="SP1" s="3" t="s">
+      <c r="ST1" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="SQ1" s="3" t="s">
+      <c r="SU1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="SR1" s="3" t="s">
+      <c r="SV1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="SS1" s="3" t="s">
+      <c r="SW1" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="ST1" s="2" t="s">
+      <c r="SX1" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="SU1" s="4" t="s">
+      <c r="SY1" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="SV1" s="4" t="s">
+      <c r="SZ1" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="SW1" s="4" t="s">
+      <c r="TA1" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="SX1" s="4" t="s">
+      <c r="TB1" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="SY1" s="4" t="s">
+      <c r="TC1" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="SZ1" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="TA1" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="TB1" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="TC1" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="TD1" s="3" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="2" spans="1:524" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:523" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
@@ -8031,9 +8139,6 @@
         <v>23</v>
       </c>
       <c r="TC2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="TD2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8079,13 +8184,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AP74"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="80" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8093,12 +8198,11 @@
     <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
     <col min="3" max="39" width="15.1640625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="11" style="3"/>
-    <col min="41" max="41" width="11" style="4"/>
-    <col min="42" max="16384" width="11" style="2"/>
+    <col min="40" max="40" width="11" style="4"/>
+    <col min="41" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
@@ -8112,10 +8216,10 @@
         <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>59</v>
@@ -8157,70 +8261,67 @@
         <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AL1" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="4" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="2" spans="1:42" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -8338,240 +8439,57 @@
       <c r="AM2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN3" s="4"/>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AM9" s="5"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN4" s="4"/>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AM11" s="5"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN5" s="4"/>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AO13" s="22"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN6" s="4"/>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AM15" s="5"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN7" s="4"/>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AM16" s="5"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN8" s="4"/>
+    <row r="24" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN24" s="23"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="4"/>
+    <row r="25" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN25" s="23"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN10" s="4"/>
+    <row r="26" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN26" s="23"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="4"/>
+    <row r="34" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM34" s="5"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN12" s="4"/>
+    <row r="35" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM35" s="5"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN13" s="4"/>
-      <c r="AP13" s="22"/>
+    <row r="36" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM36" s="5"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN14" s="4"/>
+    <row r="39" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM39" s="5"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="4"/>
+    <row r="43" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM43" s="5"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="4"/>
+    <row r="53" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM53" s="5"/>
     </row>
-    <row r="17" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN17" s="4"/>
+    <row r="60" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM60" s="5"/>
     </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN18" s="4"/>
+    <row r="69" spans="39:39" x14ac:dyDescent="0.2">
+      <c r="AM69" s="5"/>
     </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN19" s="4"/>
-    </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN20" s="2"/>
-    </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN21" s="4"/>
-    </row>
-    <row r="22" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN22" s="4"/>
-    </row>
-    <row r="23" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN23" s="4"/>
-    </row>
-    <row r="24" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN24" s="23"/>
-      <c r="AO24" s="24"/>
-    </row>
-    <row r="25" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="24"/>
-    </row>
-    <row r="26" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="24"/>
-    </row>
-    <row r="27" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN27" s="4"/>
-    </row>
-    <row r="28" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN28" s="2"/>
-    </row>
-    <row r="29" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN29" s="4"/>
-    </row>
-    <row r="30" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN30" s="4"/>
-    </row>
-    <row r="31" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN31" s="4"/>
-    </row>
-    <row r="32" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN32" s="4"/>
-    </row>
-    <row r="33" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN33" s="4"/>
-    </row>
-    <row r="34" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="4"/>
-    </row>
-    <row r="35" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="4"/>
-    </row>
-    <row r="36" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="4"/>
-    </row>
-    <row r="37" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN37" s="4"/>
-    </row>
-    <row r="38" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN38" s="4"/>
-    </row>
-    <row r="39" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="4"/>
-    </row>
-    <row r="40" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN40" s="4"/>
-    </row>
-    <row r="41" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN41" s="4"/>
-    </row>
-    <row r="42" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN42" s="4"/>
-    </row>
-    <row r="43" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="4"/>
-    </row>
-    <row r="44" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN44" s="4"/>
-    </row>
-    <row r="45" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN45" s="4"/>
-    </row>
-    <row r="46" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN46" s="4"/>
-    </row>
-    <row r="47" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN47" s="4"/>
-    </row>
-    <row r="48" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN48" s="4"/>
-    </row>
-    <row r="49" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN49" s="4"/>
-    </row>
-    <row r="50" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN50" s="4"/>
-    </row>
-    <row r="51" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN51" s="4"/>
-    </row>
-    <row r="52" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN52" s="4"/>
-    </row>
-    <row r="53" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="4"/>
-    </row>
-    <row r="54" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN54" s="4"/>
-    </row>
-    <row r="55" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN55" s="4"/>
-    </row>
-    <row r="56" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN56" s="4"/>
-    </row>
-    <row r="57" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN57" s="4"/>
-    </row>
-    <row r="58" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN58" s="4"/>
-    </row>
-    <row r="59" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN59" s="4"/>
-    </row>
-    <row r="60" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="4"/>
-    </row>
-    <row r="61" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN61" s="4"/>
-    </row>
-    <row r="62" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN62" s="4"/>
-    </row>
-    <row r="63" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN63" s="4"/>
-    </row>
-    <row r="64" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN64" s="4"/>
-    </row>
-    <row r="65" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN65" s="4"/>
-    </row>
-    <row r="66" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN66" s="4"/>
-    </row>
-    <row r="67" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN67" s="4"/>
-    </row>
-    <row r="68" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN68" s="4"/>
-    </row>
-    <row r="69" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AM69" s="5"/>
-      <c r="AN69" s="4"/>
-    </row>
-    <row r="70" spans="39:40" x14ac:dyDescent="0.2">
+    <row r="70" spans="39:39" x14ac:dyDescent="0.2">
       <c r="AM70" s="5"/>
-      <c r="AN70" s="4"/>
-    </row>
-    <row r="71" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN71" s="4"/>
-    </row>
-    <row r="72" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN72" s="4"/>
-    </row>
-    <row r="73" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN73" s="4"/>
-    </row>
-    <row r="74" spans="39:40" x14ac:dyDescent="0.2">
-      <c r="AN74" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AM2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
@@ -8579,9 +8497,19 @@
     <sortCondition ref="B2:B74"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
+      <pane xSplit="2" ySplit="1.0055555555555555" topLeftCell="C57" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="150">
@@ -8589,19 +8517,9 @@
       <selection pane="bottomRight" activeCell="C1" sqref="C1:E1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
-      <pane xSplit="2" ySplit="1.0055555555555555" topLeftCell="C57" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -8618,6 +8536,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bd76514a-38d3-4a55-a838-849dda26f7e2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcf5d3c2-488e-4de2-8056-3fa254415355">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C9EFB88A62956498B81E693F8B7D4F5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeabbde60cfa14124a8f2174ada8e4b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcf5d3c2-488e-4de2-8056-3fa254415355" xmlns:ns3="bd76514a-38d3-4a55-a838-849dda26f7e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16f813dc65a68ab3ba06770b7bbdda30" ns2:_="" ns3:_="">
     <xsd:import namespace="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
@@ -8860,41 +8798,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bd76514a-38d3-4a55-a838-849dda26f7e2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcf5d3c2-488e-4de2-8056-3fa254415355">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05957816-DADA-4129-8245-FA21BA6371FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A39BC44-814E-415D-89CF-22C6CCD92E2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
-    <ds:schemaRef ds:uri="bd76514a-38d3-4a55-a838-849dda26f7e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8917,9 +8824,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A39BC44-814E-415D-89CF-22C6CCD92E2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05957816-DADA-4129-8245-FA21BA6371FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
+    <ds:schemaRef ds:uri="bd76514a-38d3-4a55-a838-849dda26f7e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data_import/template.xlsx
+++ b/data_import/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plindner/Development/NWC_backend/data_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E76D3-6086-2D4A-B5BD-BBD52AFE6DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA022E2F-DCC8-6A4C-8744-2C66F0AA490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53940" yWindow="500" windowWidth="43620" windowHeight="21400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53940" yWindow="500" windowWidth="43620" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Data" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Nancy Young - Personal View" guid="{7132840B-F908-9041-87B8-CDBD763689F5}" mergeInterval="0" personalView="1" xWindow="1472" yWindow="-25" windowWidth="1865" windowHeight="990" activeSheetId="1"/>
+    <customWorkbookView name="Dan Clason - Personal View" guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Zarnow, Leandra R - Personal View" guid="{C3874448-A812-8040-8431-8F21B0489AFC}" mergeInterval="0" personalView="1" windowWidth="1302" windowHeight="554" activeSheetId="1"/>
+    <customWorkbookView name="Claude Willan - Personal View" guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1920" windowHeight="865" tabRatio="716" activeSheetId="4"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1366" windowHeight="679" activeSheetId="5"/>
     <customWorkbookView name="Nancy Beck Young - Personal View" guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" mergeInterval="0" personalView="1" xWindow="1548" yWindow="-77" windowWidth="1673" windowHeight="850" activeSheetId="9"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1366" windowHeight="679" activeSheetId="5"/>
-    <customWorkbookView name="Claude Willan - Personal View" guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1920" windowHeight="865" tabRatio="716" activeSheetId="4"/>
-    <customWorkbookView name="Zarnow, Leandra R - Personal View" guid="{C3874448-A812-8040-8431-8F21B0489AFC}" mergeInterval="0" personalView="1" windowWidth="1302" windowHeight="554" activeSheetId="1"/>
-    <customWorkbookView name="Dan Clason - Personal View" guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Nancy Young - Personal View" guid="{7132840B-F908-9041-87B8-CDBD763689F5}" mergeInterval="0" personalView="1" xWindow="1472" yWindow="-25" windowWidth="1865" windowHeight="990" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -91,9 +91,6 @@
     <t>Political Party Membership</t>
   </si>
   <si>
-    <t xml:space="preserve">Gender </t>
-  </si>
-  <si>
     <t>Sexual Orientation</t>
   </si>
   <si>
@@ -2552,6 +2549,9 @@
   </si>
   <si>
     <t>Vice-chair/Vice-president</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -3184,11 +3184,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AE1048576"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3218,90 +3218,90 @@
     <col min="30" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="176" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="208" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>747</v>
-      </c>
       <c r="V1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
@@ -3312,22 +3312,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="19">
         <v>8</v>
@@ -3336,7 +3336,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" s="19">
         <v>1933</v>
@@ -3345,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N2" s="21">
         <v>12</v>
@@ -3357,10 +3357,10 @@
         <v>2008</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="S2" s="12">
         <v>11111111</v>
@@ -3369,19 +3369,19 @@
         <v>8474</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="24">
         <v>3</v>
@@ -3393,10 +3393,25 @@
     <sortCondition ref="A2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="140">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{C3874448-A812-8040-8431-8F21B0489AFC}" scale="150">
+      <selection activeCell="T3" sqref="T3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
+      <pane xSplit="2" ySplit="1.0079365079365079" topLeftCell="D36" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
     <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
@@ -3404,24 +3419,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
     </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
-      <pane xSplit="2" ySplit="1.0079365079365079" topLeftCell="D36" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{C3874448-A812-8040-8431-8F21B0489AFC}" scale="150">
-      <selection activeCell="T3" sqref="T3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4:E5"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="140">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3432,7 +3432,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576 X1" xr:uid="{1F0C5CDA-9642-FE40-88A2-2DD27785B572}">
       <formula1>"single,married,partnered,divorced,widowed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576 Z1" xr:uid="{BE04D3A6-FFFE-E043-8E7D-B76C94DC5C9F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{BE04D3A6-FFFE-E043-8E7D-B76C94DC5C9F}">
       <formula1>"female,male,nonbinary,transgender"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576 AA1" xr:uid="{0C64428A-4937-C340-9CA8-39A4803DFFE2}">
@@ -3493,88 +3493,88 @@
   <sheetData>
     <row r="1" spans="1:30" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -3584,85 +3584,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -3704,350 +3704,350 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>752</v>
-      </c>
       <c r="E1" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>818</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>766</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>766</v>
+      </c>
+      <c r="I2" t="s">
+        <v>772</v>
+      </c>
+      <c r="J2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>767</v>
-      </c>
-      <c r="I2" t="s">
-        <v>773</v>
-      </c>
-      <c r="J2" t="s">
-        <v>154</v>
-      </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
       <c r="B3" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D5" s="26"/>
       <c r="H5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -4067,37 +4067,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4133,28 +4133,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4162,25 +4162,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4205,175 +4205,175 @@
   <sheetData>
     <row r="1" spans="1:57" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="34" x14ac:dyDescent="0.2">
@@ -4381,172 +4381,172 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4584,102 +4584,102 @@
   <sheetData>
     <row r="1" spans="1:20" ht="304" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="6">
         <v>1954</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="6">
         <v>1973</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -4692,14 +4692,14 @@
     <sortCondition ref="B2:B3"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="133">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="160">
+      <pane xSplit="2" ySplit="1" topLeftCell="V36" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="130">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
+    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="130">
+      <pane xSplit="2" ySplit="0.50427350427350426" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="130">
@@ -4708,14 +4708,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="130">
-      <pane xSplit="2" ySplit="0.50427350427350426" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="130">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="160">
-      <pane xSplit="2" ySplit="1" topLeftCell="V36" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="133">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4748,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4764,52 +4764,52 @@
   <sheetData>
     <row r="1" spans="1:17" ht="158" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" s="3"/>
     </row>
@@ -4818,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3">
         <v>1980</v>
@@ -4833,34 +4833,34 @@
         <v>1980</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J2" s="3">
         <v>1992</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
@@ -4870,9 +4870,19 @@
     <sortCondition ref="K2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="120">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="130">
+      <pane xSplit="2" ySplit="1" topLeftCell="H33" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="160">
+      <pane xSplit="2" ySplit="0.3888888888888889" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="160">
+      <pane xSplit="2" ySplit="1.0046296296296295" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="160">
@@ -4880,19 +4890,9 @@
       <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="160">
-      <pane xSplit="2" ySplit="1.0046296296296295" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="160">
-      <pane xSplit="2" ySplit="0.3888888888888889" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="130">
-      <pane xSplit="2" ySplit="1" topLeftCell="H33" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="120">
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4940,19 +4940,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -4960,16 +4960,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5002,1573 +5002,1573 @@
   <sheetData>
     <row r="1" spans="1:523" s="3" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CY1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DM1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DP1" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DT1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="DX1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="DY1" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EC1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="ED1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="ES1" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EW1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="EX1" s="3" t="s">
+      <c r="EY1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="EZ1" s="3" t="s">
+      <c r="FA1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="FA1" s="3" t="s">
+      <c r="FB1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FC1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FD1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FE1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="FE1" s="3" t="s">
+      <c r="FF1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="FF1" s="3" t="s">
+      <c r="FG1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FH1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FK1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FM1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FO1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FP1" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FR1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FT1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GA1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GD1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GE1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GG1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GH1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GK1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="GK1" s="3" t="s">
+      <c r="GL1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GM1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GN1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="GN1" s="3" t="s">
+      <c r="GO1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="GT1" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GU1" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="GV1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="GX1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="GY1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HE1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HF1" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HI1" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HK1" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HL1" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HM1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HP1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HR1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="HT1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="HU1" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="HV1" s="3" t="s">
+      <c r="HW1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="HW1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="HX1" s="3" t="s">
+      <c r="HY1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="HY1" s="3" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="HZ1" s="3" t="s">
+      <c r="IA1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="IA1" s="3" t="s">
+      <c r="IB1" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="IB1" s="3" t="s">
+      <c r="IC1" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="IC1" s="3" t="s">
+      <c r="ID1" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="ID1" s="3" t="s">
+      <c r="IE1" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="IE1" s="3" t="s">
+      <c r="IF1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="IF1" s="3" t="s">
+      <c r="IG1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="IG1" s="3" t="s">
+      <c r="IH1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="IH1" s="3" t="s">
+      <c r="II1" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="II1" s="3" t="s">
+      <c r="IJ1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="IJ1" s="3" t="s">
+      <c r="IK1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="IK1" s="3" t="s">
+      <c r="IL1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="IL1" s="3" t="s">
+      <c r="IM1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IN1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="IN1" s="3" t="s">
+      <c r="IO1" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="IO1" s="3" t="s">
+      <c r="IP1" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="IP1" s="3" t="s">
+      <c r="IQ1" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="IQ1" s="3" t="s">
+      <c r="IR1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="IR1" s="3" t="s">
+      <c r="IS1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="IS1" s="3" t="s">
+      <c r="IT1" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="IT1" s="3" t="s">
+      <c r="IU1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="IU1" s="3" t="s">
+      <c r="IV1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="IV1" s="3" t="s">
+      <c r="IW1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="IW1" s="3" t="s">
+      <c r="IX1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="IX1" s="3" t="s">
+      <c r="IY1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="IY1" s="3" t="s">
+      <c r="IZ1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="IZ1" s="3" t="s">
+      <c r="JA1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="JA1" s="3" t="s">
+      <c r="JB1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="JB1" s="3" t="s">
+      <c r="JC1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="JC1" s="3" t="s">
+      <c r="JD1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="JD1" s="3" t="s">
+      <c r="JE1" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="JE1" s="3" t="s">
+      <c r="JF1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="JF1" s="3" t="s">
+      <c r="JG1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="JG1" s="3" t="s">
+      <c r="JH1" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="JH1" s="3" t="s">
+      <c r="JI1" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="JI1" s="3" t="s">
+      <c r="JJ1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JK1" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="JK1" s="3" t="s">
+      <c r="JL1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="JL1" s="3" t="s">
+      <c r="JM1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="JM1" s="3" t="s">
+      <c r="JN1" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="JN1" s="3" t="s">
+      <c r="JO1" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="JO1" s="3" t="s">
+      <c r="JP1" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="JP1" s="3" t="s">
+      <c r="JQ1" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="JQ1" s="3" t="s">
+      <c r="JR1" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="JR1" s="3" t="s">
+      <c r="JS1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="JS1" s="3" t="s">
+      <c r="JT1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JU1" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="JU1" s="2" t="s">
+      <c r="JV1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="JV1" s="3" t="s">
+      <c r="JW1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="JW1" s="3" t="s">
+      <c r="JX1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="JX1" s="3" t="s">
+      <c r="JY1" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="JY1" s="3" t="s">
+      <c r="JZ1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="JZ1" s="3" t="s">
+      <c r="KA1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="KA1" s="3" t="s">
+      <c r="KB1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="KB1" s="3" t="s">
+      <c r="KC1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="KC1" s="3" t="s">
+      <c r="KD1" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="KD1" s="3" t="s">
+      <c r="KE1" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="KE1" s="3" t="s">
+      <c r="KF1" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="KF1" s="3" t="s">
+      <c r="KG1" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="KG1" s="3" t="s">
+      <c r="KH1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="KH1" s="3" t="s">
+      <c r="KI1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="KI1" s="3" t="s">
+      <c r="KJ1" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="KJ1" s="3" t="s">
+      <c r="KK1" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="KK1" s="3" t="s">
+      <c r="KL1" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="KL1" s="2" t="s">
+      <c r="KM1" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="KM1" s="3" t="s">
+      <c r="KN1" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="KN1" s="3" t="s">
+      <c r="KO1" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="KO1" s="2" t="s">
+      <c r="KP1" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="KP1" s="3" t="s">
+      <c r="KQ1" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="KQ1" s="3" t="s">
+      <c r="KR1" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="KR1" s="2" t="s">
+      <c r="KS1" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="KS1" s="3" t="s">
+      <c r="KT1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="KT1" s="3" t="s">
+      <c r="KU1" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="KU1" s="3" t="s">
+      <c r="KV1" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="KV1" s="2" t="s">
+      <c r="KW1" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="KW1" s="2" t="s">
+      <c r="KX1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="KX1" s="2" t="s">
+      <c r="KY1" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="KY1" s="3" t="s">
+      <c r="KZ1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="KZ1" s="3" t="s">
+      <c r="LA1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="LA1" s="3" t="s">
+      <c r="LB1" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="LB1" s="3" t="s">
+      <c r="LC1" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="LC1" s="2" t="s">
+      <c r="LD1" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="LD1" s="3" t="s">
+      <c r="LE1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="LE1" s="3" t="s">
+      <c r="LF1" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="LF1" s="3" t="s">
+      <c r="LG1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="LG1" s="3" t="s">
+      <c r="LH1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="LH1" s="3" t="s">
+      <c r="LI1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="LI1" s="3" t="s">
+      <c r="LJ1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="LJ1" s="3" t="s">
+      <c r="LK1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="LK1" s="3" t="s">
+      <c r="LL1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="LL1" s="3" t="s">
+      <c r="LM1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="LM1" s="3" t="s">
+      <c r="LN1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="LN1" s="3" t="s">
+      <c r="LO1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="LO1" s="3" t="s">
+      <c r="LP1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="LP1" s="3" t="s">
+      <c r="LQ1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="LQ1" s="3" t="s">
+      <c r="LR1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="LR1" s="3" t="s">
+      <c r="LS1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="LS1" s="3" t="s">
+      <c r="LT1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="LT1" s="3" t="s">
+      <c r="LU1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="LU1" s="3" t="s">
+      <c r="LV1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="LV1" s="3" t="s">
+      <c r="LW1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="LW1" s="3" t="s">
+      <c r="LX1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="LX1" s="3" t="s">
+      <c r="LY1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="LY1" s="3" t="s">
+      <c r="LZ1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="LZ1" s="3" t="s">
+      <c r="MA1" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="MA1" s="3" t="s">
+      <c r="MB1" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="MB1" s="3" t="s">
+      <c r="MC1" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="MC1" s="3" t="s">
+      <c r="MD1" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="MD1" s="3" t="s">
+      <c r="ME1" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="ME1" s="3" t="s">
+      <c r="MF1" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="MF1" s="3" t="s">
+      <c r="MG1" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="MG1" s="3" t="s">
+      <c r="MH1" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="MH1" s="3" t="s">
+      <c r="MI1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="MI1" s="3" t="s">
+      <c r="MJ1" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="MJ1" s="3" t="s">
+      <c r="MK1" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="MK1" s="3" t="s">
+      <c r="ML1" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="ML1" s="3" t="s">
+      <c r="MM1" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="MM1" s="2" t="s">
+      <c r="MN1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="MN1" s="3" t="s">
+      <c r="MO1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="MO1" s="3" t="s">
+      <c r="MP1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="MP1" s="3" t="s">
+      <c r="MQ1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="MQ1" s="3" t="s">
+      <c r="MR1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="MR1" s="3" t="s">
+      <c r="MS1" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="MS1" s="3" t="s">
+      <c r="MT1" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="MT1" s="4" t="s">
+      <c r="MU1" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="MU1" s="3" t="s">
+      <c r="MV1" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="MV1" s="3" t="s">
+      <c r="MW1" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="MW1" s="3" t="s">
+      <c r="MX1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="MX1" s="3" t="s">
+      <c r="MY1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="MY1" s="3" t="s">
+      <c r="MZ1" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="MZ1" s="3" t="s">
+      <c r="NA1" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="NA1" s="3" t="s">
+      <c r="NB1" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="NB1" s="3" t="s">
+      <c r="NC1" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="NC1" s="3" t="s">
+      <c r="ND1" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="ND1" s="3" t="s">
+      <c r="NE1" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="NE1" s="3" t="s">
+      <c r="NF1" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="NF1" s="3" t="s">
+      <c r="NG1" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="NG1" s="2" t="s">
+      <c r="NH1" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="NH1" s="3" t="s">
+      <c r="NI1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="NI1" s="3" t="s">
+      <c r="NJ1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="NJ1" s="3" t="s">
+      <c r="NK1" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="NK1" s="3" t="s">
+      <c r="NL1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="NL1" s="3" t="s">
+      <c r="NM1" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="NM1" s="3" t="s">
+      <c r="NN1" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="NN1" s="3" t="s">
+      <c r="NO1" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="NO1" s="3" t="s">
+      <c r="NP1" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="NP1" s="3" t="s">
+      <c r="NQ1" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="NQ1" s="3" t="s">
+      <c r="NR1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="NR1" s="3" t="s">
+      <c r="NS1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="NS1" s="3" t="s">
+      <c r="NT1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="NT1" s="3" t="s">
+      <c r="NU1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="NU1" s="3" t="s">
+      <c r="NV1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="NV1" s="3" t="s">
+      <c r="NW1" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="NW1" s="3" t="s">
+      <c r="NX1" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="NX1" s="3" t="s">
+      <c r="NY1" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="NY1" s="3" t="s">
+      <c r="NZ1" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="NZ1" s="3" t="s">
+      <c r="OA1" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="OA1" s="3" t="s">
+      <c r="OB1" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="OB1" s="3" t="s">
+      <c r="OC1" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="OC1" s="3" t="s">
+      <c r="OD1" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="OD1" s="3" t="s">
+      <c r="OE1" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="OE1" s="3" t="s">
+      <c r="OF1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="OF1" s="3" t="s">
+      <c r="OG1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="OG1" s="3" t="s">
+      <c r="OH1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="OH1" s="3" t="s">
+      <c r="OI1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="OI1" s="3" t="s">
+      <c r="OJ1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="OJ1" s="3" t="s">
+      <c r="OK1" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="OK1" s="3" t="s">
+      <c r="OL1" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="OL1" s="3" t="s">
+      <c r="OM1" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="OM1" s="3" t="s">
+      <c r="ON1" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="ON1" s="3" t="s">
+      <c r="OO1" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="OO1" s="3" t="s">
+      <c r="OP1" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="OP1" s="3" t="s">
+      <c r="OQ1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="OQ1" s="3" t="s">
+      <c r="OR1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="OR1" s="3" t="s">
+      <c r="OS1" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="OS1" s="3" t="s">
+      <c r="OT1" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="OT1" s="3" t="s">
+      <c r="OU1" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="OU1" s="3" t="s">
+      <c r="OV1" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="OV1" s="3" t="s">
+      <c r="OW1" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="OW1" s="3" t="s">
+      <c r="OX1" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="OX1" s="3" t="s">
+      <c r="OY1" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="OY1" s="3" t="s">
+      <c r="OZ1" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="OZ1" s="3" t="s">
+      <c r="PA1" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="PA1" s="3" t="s">
+      <c r="PB1" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="PB1" s="3" t="s">
+      <c r="PC1" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="PC1" s="3" t="s">
+      <c r="PD1" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="PD1" s="3" t="s">
+      <c r="PE1" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="PE1" s="3" t="s">
+      <c r="PF1" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="PF1" s="3" t="s">
+      <c r="PG1" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="PG1" s="3" t="s">
+      <c r="PH1" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="PH1" s="3" t="s">
+      <c r="PI1" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="PI1" s="3" t="s">
+      <c r="PJ1" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="PJ1" s="3" t="s">
+      <c r="PK1" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="PK1" s="3" t="s">
+      <c r="PL1" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="PL1" s="3" t="s">
+      <c r="PM1" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="PM1" s="3" t="s">
+      <c r="PN1" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="PN1" s="3" t="s">
+      <c r="PO1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="PO1" s="3" t="s">
+      <c r="PP1" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="PP1" s="3" t="s">
+      <c r="PQ1" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="PQ1" s="2" t="s">
+      <c r="PR1" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="PR1" s="3" t="s">
+      <c r="PS1" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="PS1" s="3" t="s">
+      <c r="PT1" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="PT1" s="3" t="s">
+      <c r="PU1" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="PU1" s="3" t="s">
+      <c r="PV1" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="PV1" s="3" t="s">
+      <c r="PW1" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="PW1" s="3" t="s">
+      <c r="PX1" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="PX1" s="3" t="s">
+      <c r="PY1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="PY1" s="3" t="s">
+      <c r="PZ1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="PZ1" s="3" t="s">
+      <c r="QA1" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="QA1" s="3" t="s">
+      <c r="QB1" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="QB1" s="3" t="s">
+      <c r="QC1" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="QC1" s="3" t="s">
+      <c r="QD1" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="QD1" s="3" t="s">
+      <c r="QE1" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="QE1" s="3" t="s">
+      <c r="QF1" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="QF1" s="3" t="s">
+      <c r="QG1" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="QG1" s="3" t="s">
+      <c r="QH1" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="QH1" s="3" t="s">
+      <c r="QI1" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="QI1" s="3" t="s">
+      <c r="QJ1" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="QJ1" s="3" t="s">
+      <c r="QK1" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="QK1" s="3" t="s">
+      <c r="QL1" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="QL1" s="3" t="s">
+      <c r="QM1" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="QM1" s="3" t="s">
+      <c r="QN1" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="QN1" s="3" t="s">
+      <c r="QO1" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="QO1" s="3" t="s">
+      <c r="QP1" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="QP1" s="3" t="s">
+      <c r="QQ1" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="QQ1" s="3" t="s">
+      <c r="QR1" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="QR1" s="3" t="s">
+      <c r="QS1" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="QS1" s="3" t="s">
+      <c r="QT1" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="QT1" s="3" t="s">
+      <c r="QU1" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="QU1" s="3" t="s">
+      <c r="QV1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="QV1" s="3" t="s">
+      <c r="QW1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="QW1" s="3" t="s">
+      <c r="QX1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="QX1" s="3" t="s">
+      <c r="QY1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="QY1" s="3" t="s">
+      <c r="QZ1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="QZ1" s="3" t="s">
+      <c r="RA1" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="RA1" s="3" t="s">
+      <c r="RB1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="RB1" s="3" t="s">
+      <c r="RC1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="RC1" s="3" t="s">
+      <c r="RD1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="RD1" s="3" t="s">
+      <c r="RE1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="RE1" s="3" t="s">
+      <c r="RF1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="RF1" s="3" t="s">
+      <c r="RG1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="RG1" s="3" t="s">
+      <c r="RH1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="RH1" s="3" t="s">
+      <c r="RI1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="RI1" s="3" t="s">
+      <c r="RJ1" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="RJ1" s="3" t="s">
+      <c r="RK1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="RK1" s="3" t="s">
+      <c r="RL1" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="RL1" s="3" t="s">
+      <c r="RM1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="RM1" s="3" t="s">
+      <c r="RN1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="RN1" s="3" t="s">
+      <c r="RO1" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="RO1" s="3" t="s">
+      <c r="RP1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="RP1" s="3" t="s">
+      <c r="RQ1" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="RQ1" s="3" t="s">
+      <c r="RR1" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="RR1" s="3" t="s">
+      <c r="RS1" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="RS1" s="3" t="s">
+      <c r="RT1" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="RT1" s="2" t="s">
+      <c r="RU1" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="RU1" s="3" t="s">
+      <c r="RV1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="RV1" s="3" t="s">
+      <c r="RW1" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="RW1" s="3" t="s">
+      <c r="RX1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="RX1" s="3" t="s">
+      <c r="RY1" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="RY1" s="3" t="s">
+      <c r="RZ1" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="RZ1" s="3" t="s">
+      <c r="SA1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="SA1" s="3" t="s">
+      <c r="SB1" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="SB1" s="3" t="s">
+      <c r="SC1" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="SC1" s="3" t="s">
+      <c r="SD1" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="SD1" s="3" t="s">
+      <c r="SE1" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="SE1" s="3" t="s">
+      <c r="SF1" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="SF1" s="3" t="s">
+      <c r="SG1" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="SG1" s="3" t="s">
+      <c r="SH1" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="SH1" s="3" t="s">
+      <c r="SI1" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="SI1" s="3" t="s">
+      <c r="SJ1" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="SJ1" s="3" t="s">
+      <c r="SK1" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="SK1" s="3" t="s">
+      <c r="SL1" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="SL1" s="3" t="s">
+      <c r="SM1" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="SM1" s="3" t="s">
+      <c r="SN1" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="SN1" s="3" t="s">
+      <c r="SO1" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="SO1" s="3" t="s">
+      <c r="SP1" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="SP1" s="3" t="s">
+      <c r="SQ1" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="SQ1" s="3" t="s">
+      <c r="SR1" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="SR1" s="3" t="s">
+      <c r="SS1" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="SS1" s="3" t="s">
+      <c r="ST1" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="ST1" s="2" t="s">
+      <c r="SU1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="SU1" s="4" t="s">
+      <c r="SV1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="SV1" s="4" t="s">
+      <c r="SW1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="SW1" s="4" t="s">
+      <c r="SX1" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="SX1" s="4" t="s">
+      <c r="SY1" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="SY1" s="4" t="s">
+      <c r="SZ1" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="SZ1" s="4" t="s">
+      <c r="TA1" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="TA1" s="4" t="s">
+      <c r="TB1" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="TB1" s="4" t="s">
+      <c r="TC1" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="TC1" s="4" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:523" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6576,1570 +6576,1570 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ED2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ER2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ES2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ET2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="EZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="FZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="GZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="HZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ID2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="II2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="IZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="JZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="KZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="LZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ME2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ML2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="MZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ND2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NG2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NH2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="NZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ON2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="OZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="PZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="QZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RT2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="RZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SN2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SO2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SP2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SQ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SR2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SS2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="ST2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SU2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SV2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SW2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SX2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SY2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="SZ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="TA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="TB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="TC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8204,121 +8204,121 @@
   <sheetData>
     <row r="1" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI1" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="34" x14ac:dyDescent="0.2">
@@ -8326,118 +8326,118 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3">
         <v>999</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
@@ -8497,9 +8497,19 @@
     <sortCondition ref="B2:B74"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="150">
+      <pane xSplit="2" ySplit="0.47916666666666669" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:E1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
+      <pane xSplit="2" ySplit="1.0055555555555555" topLeftCell="C57" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
@@ -8507,19 +8517,9 @@
       <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
-      <pane xSplit="2" ySplit="1.0055555555555555" topLeftCell="C57" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="150">
-      <pane xSplit="2" ySplit="0.47916666666666669" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:E1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -8536,26 +8536,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bd76514a-38d3-4a55-a838-849dda26f7e2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcf5d3c2-488e-4de2-8056-3fa254415355">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C9EFB88A62956498B81E693F8B7D4F5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeabbde60cfa14124a8f2174ada8e4b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcf5d3c2-488e-4de2-8056-3fa254415355" xmlns:ns3="bd76514a-38d3-4a55-a838-849dda26f7e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16f813dc65a68ab3ba06770b7bbdda30" ns2:_="" ns3:_="">
     <xsd:import namespace="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
@@ -8798,10 +8778,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bd76514a-38d3-4a55-a838-849dda26f7e2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcf5d3c2-488e-4de2-8056-3fa254415355">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A39BC44-814E-415D-89CF-22C6CCD92E2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05957816-DADA-4129-8245-FA21BA6371FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
+    <ds:schemaRef ds:uri="bd76514a-38d3-4a55-a838-849dda26f7e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8824,20 +8835,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05957816-DADA-4129-8245-FA21BA6371FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A39BC44-814E-415D-89CF-22C6CCD92E2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
-    <ds:schemaRef ds:uri="bd76514a-38d3-4a55-a838-849dda26f7e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data_import/template.xlsx
+++ b/data_import/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plindner/Development/NWC_backend/data_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA022E2F-DCC8-6A4C-8744-2C66F0AA490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2D3C9-A835-8444-9E98-FB8AB377F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53940" yWindow="500" windowWidth="43620" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53940" yWindow="500" windowWidth="43620" windowHeight="21400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Data" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Nancy Beck Young - Personal View" guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" mergeInterval="0" personalView="1" xWindow="1548" yWindow="-77" windowWidth="1673" windowHeight="850" activeSheetId="9"/>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1366" windowHeight="679" activeSheetId="5"/>
+    <customWorkbookView name="Claude Willan - Personal View" guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1920" windowHeight="865" tabRatio="716" activeSheetId="4"/>
+    <customWorkbookView name="Zarnow, Leandra R - Personal View" guid="{C3874448-A812-8040-8431-8F21B0489AFC}" mergeInterval="0" personalView="1" windowWidth="1302" windowHeight="554" activeSheetId="1"/>
+    <customWorkbookView name="Dan Clason - Personal View" guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Nancy Young - Personal View" guid="{7132840B-F908-9041-87B8-CDBD763689F5}" mergeInterval="0" personalView="1" xWindow="1472" yWindow="-25" windowWidth="1865" windowHeight="990" activeSheetId="1"/>
-    <customWorkbookView name="Dan Clason - Personal View" guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Zarnow, Leandra R - Personal View" guid="{C3874448-A812-8040-8431-8F21B0489AFC}" mergeInterval="0" personalView="1" windowWidth="1302" windowHeight="554" activeSheetId="1"/>
-    <customWorkbookView name="Claude Willan - Personal View" guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1920" windowHeight="865" tabRatio="716" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1366" windowHeight="679" activeSheetId="5"/>
-    <customWorkbookView name="Nancy Beck Young - Personal View" guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" mergeInterval="0" personalView="1" xWindow="1548" yWindow="-77" windowWidth="1673" windowHeight="850" activeSheetId="9"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -220,9 +220,6 @@
     <t>Name of Political Offices Sought but Lost (if more than one, list all but create new row for each)</t>
   </si>
   <si>
-    <t xml:space="preserve">Year of Race that was Lost </t>
-  </si>
-  <si>
     <t>delegate, Democratic National Convention</t>
   </si>
   <si>
@@ -2552,6 +2549,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Year of Race that was Lost</t>
   </si>
 </sst>
 </file>
@@ -3184,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3223,64 +3223,64 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="11" t="s">
         <v>745</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>746</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>9</v>
@@ -3295,13 +3295,13 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
@@ -3312,19 +3312,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -3336,7 +3336,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="19">
         <v>1933</v>
@@ -3345,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N2" s="21">
         <v>12</v>
@@ -3378,7 +3378,7 @@
         <v>20</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>22</v>
@@ -3393,9 +3393,25 @@
     <sortCondition ref="A2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="140">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4:E5"/>
+      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
+      <pane xSplit="2" ySplit="1.0079365079365079" topLeftCell="D36" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{C3874448-A812-8040-8431-8F21B0489AFC}" scale="150">
+      <selection activeCell="T3" sqref="T3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}">
@@ -3403,25 +3419,9 @@
       <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C3874448-A812-8040-8431-8F21B0489AFC}" scale="150">
-      <selection activeCell="T3" sqref="T3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
-      <pane xSplit="2" ySplit="1.0079365079365079" topLeftCell="D36" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-    </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="140">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3499,82 +3499,82 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -3584,85 +3584,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -3704,57 +3704,57 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>750</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>751</v>
-      </c>
       <c r="E1" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>765</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>22</v>
@@ -3763,25 +3763,25 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -3790,103 +3790,103 @@
         <v>26</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D5" s="26"/>
       <c r="H5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="L6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -3894,160 +3894,160 @@
         <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L12" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -4073,31 +4073,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4139,22 +4139,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4211,169 +4211,169 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="34" x14ac:dyDescent="0.2">
@@ -4617,19 +4617,19 @@
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -4643,7 +4643,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>27</v>
@@ -4667,7 +4667,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>32</v>
@@ -4679,7 +4679,7 @@
         <v>45</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -4692,14 +4692,14 @@
     <sortCondition ref="B2:B3"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="160">
-      <pane xSplit="2" ySplit="1" topLeftCell="V36" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="133">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="130">
-      <pane xSplit="2" ySplit="0.50427350427350426" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="130">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="130">
@@ -4708,14 +4708,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="130">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
+    <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="130">
+      <pane xSplit="2" ySplit="0.50427350427350426" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="133">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="160">
+      <pane xSplit="2" ySplit="1" topLeftCell="V36" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4748,11 +4748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:O1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4779,10 +4779,10 @@
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>49</v>
@@ -4791,7 +4791,7 @@
         <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>828</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -4800,7 +4800,7 @@
         <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>18</v>
@@ -4821,10 +4821,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3">
         <v>1980</v>
@@ -4833,13 +4833,13 @@
         <v>1980</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J2" s="3">
         <v>1992</v>
@@ -4870,9 +4870,19 @@
     <sortCondition ref="K2"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="130">
-      <pane xSplit="2" ySplit="1" topLeftCell="H33" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="120">
+      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="160">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="160">
+      <pane xSplit="2" ySplit="1.0046296296296295" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="160">
@@ -4880,19 +4890,9 @@
       <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="160">
-      <pane xSplit="2" ySplit="1.0046296296296295" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="160">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="120">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="130">
+      <pane xSplit="2" ySplit="1" topLeftCell="H33" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -4946,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -4963,13 +4963,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5008,1567 +5008,1567 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CM1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="CY1" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DC1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DM1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DP1" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DT1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="DX1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="DY1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EC1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="ED1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="ES1" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EW1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="EX1" s="3" t="s">
+      <c r="EY1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="EZ1" s="3" t="s">
+      <c r="FA1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="FA1" s="3" t="s">
+      <c r="FB1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FC1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FD1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FE1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="FE1" s="3" t="s">
+      <c r="FF1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="FF1" s="3" t="s">
+      <c r="FG1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FH1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FK1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FM1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FO1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FP1" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FR1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FT1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GA1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GD1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GE1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GG1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GH1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GK1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="GK1" s="3" t="s">
+      <c r="GL1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GM1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GN1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="GN1" s="3" t="s">
+      <c r="GO1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="GT1" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GU1" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="GV1" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="GX1" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="GY1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HE1" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HF1" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HI1" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HK1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HL1" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HM1" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HP1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HR1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="HT1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="HU1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="HV1" s="3" t="s">
+      <c r="HW1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="HW1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="HX1" s="3" t="s">
+      <c r="HY1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="HY1" s="3" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="HZ1" s="3" t="s">
+      <c r="IA1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="IA1" s="3" t="s">
+      <c r="IB1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="IB1" s="3" t="s">
+      <c r="IC1" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="IC1" s="3" t="s">
+      <c r="ID1" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="ID1" s="3" t="s">
+      <c r="IE1" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="IE1" s="3" t="s">
+      <c r="IF1" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="IF1" s="3" t="s">
+      <c r="IG1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="IG1" s="3" t="s">
+      <c r="IH1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="IH1" s="3" t="s">
+      <c r="II1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="II1" s="3" t="s">
+      <c r="IJ1" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="IJ1" s="3" t="s">
+      <c r="IK1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="IK1" s="3" t="s">
+      <c r="IL1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="IL1" s="3" t="s">
+      <c r="IM1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IN1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="IN1" s="3" t="s">
+      <c r="IO1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="IO1" s="3" t="s">
+      <c r="IP1" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="IP1" s="3" t="s">
+      <c r="IQ1" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="IQ1" s="3" t="s">
+      <c r="IR1" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="IR1" s="3" t="s">
+      <c r="IS1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="IS1" s="3" t="s">
+      <c r="IT1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="IT1" s="3" t="s">
+      <c r="IU1" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="IU1" s="3" t="s">
+      <c r="IV1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="IV1" s="3" t="s">
+      <c r="IW1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="IW1" s="3" t="s">
+      <c r="IX1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="IX1" s="3" t="s">
+      <c r="IY1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="IY1" s="3" t="s">
+      <c r="IZ1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="IZ1" s="3" t="s">
+      <c r="JA1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="JA1" s="3" t="s">
+      <c r="JB1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="JB1" s="3" t="s">
+      <c r="JC1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="JC1" s="3" t="s">
+      <c r="JD1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="JD1" s="3" t="s">
+      <c r="JE1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="JE1" s="3" t="s">
+      <c r="JF1" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="JF1" s="3" t="s">
+      <c r="JG1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="JG1" s="3" t="s">
+      <c r="JH1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="JH1" s="3" t="s">
+      <c r="JI1" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="JI1" s="3" t="s">
+      <c r="JJ1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JK1" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="JK1" s="3" t="s">
+      <c r="JL1" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="JL1" s="3" t="s">
+      <c r="JM1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="JM1" s="3" t="s">
+      <c r="JN1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="JN1" s="3" t="s">
+      <c r="JO1" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="JO1" s="3" t="s">
+      <c r="JP1" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="JP1" s="3" t="s">
+      <c r="JQ1" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="JQ1" s="3" t="s">
+      <c r="JR1" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="JR1" s="3" t="s">
+      <c r="JS1" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="JS1" s="3" t="s">
+      <c r="JT1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JU1" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="JU1" s="2" t="s">
+      <c r="JV1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="JV1" s="3" t="s">
+      <c r="JW1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="JW1" s="3" t="s">
+      <c r="JX1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="JX1" s="3" t="s">
+      <c r="JY1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="JY1" s="3" t="s">
+      <c r="JZ1" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="JZ1" s="3" t="s">
+      <c r="KA1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="KA1" s="3" t="s">
+      <c r="KB1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="KB1" s="3" t="s">
+      <c r="KC1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="KC1" s="3" t="s">
+      <c r="KD1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="KD1" s="3" t="s">
+      <c r="KE1" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="KE1" s="3" t="s">
+      <c r="KF1" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="KF1" s="3" t="s">
+      <c r="KG1" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="KG1" s="3" t="s">
+      <c r="KH1" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="KH1" s="3" t="s">
+      <c r="KI1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="KI1" s="3" t="s">
+      <c r="KJ1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="KJ1" s="3" t="s">
+      <c r="KK1" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="KK1" s="3" t="s">
+      <c r="KL1" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="KL1" s="2" t="s">
+      <c r="KM1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="KM1" s="3" t="s">
+      <c r="KN1" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="KN1" s="3" t="s">
+      <c r="KO1" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="KO1" s="2" t="s">
+      <c r="KP1" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="KP1" s="3" t="s">
+      <c r="KQ1" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="KQ1" s="3" t="s">
+      <c r="KR1" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="KR1" s="2" t="s">
+      <c r="KS1" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="KS1" s="3" t="s">
+      <c r="KT1" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="KT1" s="3" t="s">
+      <c r="KU1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="KU1" s="3" t="s">
+      <c r="KV1" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="KV1" s="2" t="s">
+      <c r="KW1" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="KW1" s="2" t="s">
+      <c r="KX1" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="KX1" s="2" t="s">
+      <c r="KY1" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="KY1" s="3" t="s">
+      <c r="KZ1" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="KZ1" s="3" t="s">
+      <c r="LA1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="LA1" s="3" t="s">
+      <c r="LB1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="LB1" s="3" t="s">
+      <c r="LC1" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="LC1" s="2" t="s">
+      <c r="LD1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="LD1" s="3" t="s">
+      <c r="LE1" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="LE1" s="3" t="s">
+      <c r="LF1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="LF1" s="3" t="s">
+      <c r="LG1" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="LG1" s="3" t="s">
+      <c r="LH1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="LH1" s="3" t="s">
+      <c r="LI1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="LI1" s="3" t="s">
+      <c r="LJ1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="LJ1" s="3" t="s">
+      <c r="LK1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="LK1" s="3" t="s">
+      <c r="LL1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="LL1" s="3" t="s">
+      <c r="LM1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="LM1" s="3" t="s">
+      <c r="LN1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="LN1" s="3" t="s">
+      <c r="LO1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="LO1" s="3" t="s">
+      <c r="LP1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="LP1" s="3" t="s">
+      <c r="LQ1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="LQ1" s="3" t="s">
+      <c r="LR1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="LR1" s="3" t="s">
+      <c r="LS1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="LS1" s="3" t="s">
+      <c r="LT1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="LT1" s="3" t="s">
+      <c r="LU1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="LU1" s="3" t="s">
+      <c r="LV1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="LV1" s="3" t="s">
+      <c r="LW1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="LW1" s="3" t="s">
+      <c r="LX1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="LX1" s="3" t="s">
+      <c r="LY1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="LY1" s="3" t="s">
+      <c r="LZ1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="LZ1" s="3" t="s">
+      <c r="MA1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="MA1" s="3" t="s">
+      <c r="MB1" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="MB1" s="3" t="s">
+      <c r="MC1" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="MC1" s="3" t="s">
+      <c r="MD1" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="MD1" s="3" t="s">
+      <c r="ME1" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="ME1" s="3" t="s">
+      <c r="MF1" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="MF1" s="3" t="s">
+      <c r="MG1" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="MG1" s="3" t="s">
+      <c r="MH1" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="MH1" s="3" t="s">
+      <c r="MI1" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="MI1" s="3" t="s">
+      <c r="MJ1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="MJ1" s="3" t="s">
+      <c r="MK1" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="MK1" s="3" t="s">
+      <c r="ML1" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="ML1" s="3" t="s">
+      <c r="MM1" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="MM1" s="2" t="s">
+      <c r="MN1" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="MN1" s="3" t="s">
+      <c r="MO1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="MO1" s="3" t="s">
+      <c r="MP1" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="MP1" s="3" t="s">
+      <c r="MQ1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="MQ1" s="3" t="s">
+      <c r="MR1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="MR1" s="3" t="s">
+      <c r="MS1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="MS1" s="3" t="s">
+      <c r="MT1" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="MT1" s="4" t="s">
+      <c r="MU1" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="MU1" s="3" t="s">
+      <c r="MV1" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="MV1" s="3" t="s">
+      <c r="MW1" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="MW1" s="3" t="s">
+      <c r="MX1" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="MX1" s="3" t="s">
+      <c r="MY1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="MY1" s="3" t="s">
+      <c r="MZ1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="MZ1" s="3" t="s">
+      <c r="NA1" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="NA1" s="3" t="s">
+      <c r="NB1" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="NB1" s="3" t="s">
+      <c r="NC1" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="NC1" s="3" t="s">
+      <c r="ND1" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="ND1" s="3" t="s">
+      <c r="NE1" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="NE1" s="3" t="s">
+      <c r="NF1" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="NF1" s="3" t="s">
+      <c r="NG1" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="NG1" s="2" t="s">
+      <c r="NH1" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="NH1" s="3" t="s">
+      <c r="NI1" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="NI1" s="3" t="s">
+      <c r="NJ1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="NJ1" s="3" t="s">
+      <c r="NK1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="NK1" s="3" t="s">
+      <c r="NL1" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="NL1" s="3" t="s">
+      <c r="NM1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="NM1" s="3" t="s">
+      <c r="NN1" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="NN1" s="3" t="s">
+      <c r="NO1" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="NO1" s="3" t="s">
+      <c r="NP1" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="NP1" s="3" t="s">
+      <c r="NQ1" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="NQ1" s="3" t="s">
+      <c r="NR1" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="NR1" s="3" t="s">
+      <c r="NS1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="NS1" s="3" t="s">
+      <c r="NT1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="NT1" s="3" t="s">
+      <c r="NU1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="NU1" s="3" t="s">
+      <c r="NV1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="NV1" s="3" t="s">
+      <c r="NW1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="NW1" s="3" t="s">
+      <c r="NX1" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="NX1" s="3" t="s">
+      <c r="NY1" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="NY1" s="3" t="s">
+      <c r="NZ1" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="NZ1" s="3" t="s">
+      <c r="OA1" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="OA1" s="3" t="s">
+      <c r="OB1" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="OB1" s="3" t="s">
+      <c r="OC1" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="OC1" s="3" t="s">
+      <c r="OD1" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="OD1" s="3" t="s">
+      <c r="OE1" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="OE1" s="3" t="s">
+      <c r="OF1" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="OF1" s="3" t="s">
+      <c r="OG1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="OG1" s="3" t="s">
+      <c r="OH1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="OH1" s="3" t="s">
+      <c r="OI1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="OI1" s="3" t="s">
+      <c r="OJ1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="OJ1" s="3" t="s">
+      <c r="OK1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="OK1" s="3" t="s">
+      <c r="OL1" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="OL1" s="3" t="s">
+      <c r="OM1" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="OM1" s="3" t="s">
+      <c r="ON1" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="ON1" s="3" t="s">
+      <c r="OO1" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="OO1" s="3" t="s">
+      <c r="OP1" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="OP1" s="3" t="s">
+      <c r="OQ1" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="OQ1" s="3" t="s">
+      <c r="OR1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="OR1" s="3" t="s">
+      <c r="OS1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="OS1" s="3" t="s">
+      <c r="OT1" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="OT1" s="3" t="s">
+      <c r="OU1" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="OU1" s="3" t="s">
+      <c r="OV1" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="OV1" s="3" t="s">
+      <c r="OW1" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="OW1" s="3" t="s">
+      <c r="OX1" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="OX1" s="3" t="s">
+      <c r="OY1" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="OY1" s="3" t="s">
+      <c r="OZ1" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="OZ1" s="3" t="s">
+      <c r="PA1" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="PA1" s="3" t="s">
+      <c r="PB1" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="PB1" s="3" t="s">
+      <c r="PC1" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="PC1" s="3" t="s">
+      <c r="PD1" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="PD1" s="3" t="s">
+      <c r="PE1" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="PE1" s="3" t="s">
+      <c r="PF1" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="PF1" s="3" t="s">
+      <c r="PG1" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="PG1" s="3" t="s">
+      <c r="PH1" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="PH1" s="3" t="s">
+      <c r="PI1" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="PI1" s="3" t="s">
+      <c r="PJ1" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="PJ1" s="3" t="s">
+      <c r="PK1" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="PK1" s="3" t="s">
+      <c r="PL1" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="PL1" s="3" t="s">
+      <c r="PM1" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="PM1" s="3" t="s">
+      <c r="PN1" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="PN1" s="3" t="s">
+      <c r="PO1" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="PO1" s="3" t="s">
+      <c r="PP1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="PP1" s="3" t="s">
+      <c r="PQ1" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="PQ1" s="2" t="s">
+      <c r="PR1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="PR1" s="3" t="s">
+      <c r="PS1" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="PS1" s="3" t="s">
+      <c r="PT1" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="PT1" s="3" t="s">
+      <c r="PU1" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="PU1" s="3" t="s">
+      <c r="PV1" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="PV1" s="3" t="s">
+      <c r="PW1" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="PW1" s="3" t="s">
+      <c r="PX1" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="PX1" s="3" t="s">
+      <c r="PY1" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="PY1" s="3" t="s">
+      <c r="PZ1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="PZ1" s="3" t="s">
+      <c r="QA1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="QA1" s="3" t="s">
+      <c r="QB1" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="QB1" s="3" t="s">
+      <c r="QC1" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="QC1" s="3" t="s">
+      <c r="QD1" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="QD1" s="3" t="s">
+      <c r="QE1" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="QE1" s="3" t="s">
+      <c r="QF1" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="QF1" s="3" t="s">
+      <c r="QG1" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="QG1" s="3" t="s">
+      <c r="QH1" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="QH1" s="3" t="s">
+      <c r="QI1" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="QI1" s="3" t="s">
+      <c r="QJ1" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="QJ1" s="3" t="s">
+      <c r="QK1" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="QK1" s="3" t="s">
+      <c r="QL1" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="QL1" s="3" t="s">
+      <c r="QM1" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="QM1" s="3" t="s">
+      <c r="QN1" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="QN1" s="3" t="s">
+      <c r="QO1" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="QO1" s="3" t="s">
+      <c r="QP1" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="QP1" s="3" t="s">
+      <c r="QQ1" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="QQ1" s="3" t="s">
+      <c r="QR1" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="QR1" s="3" t="s">
+      <c r="QS1" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="QS1" s="3" t="s">
+      <c r="QT1" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="QT1" s="3" t="s">
+      <c r="QU1" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="QU1" s="3" t="s">
+      <c r="QV1" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="QV1" s="3" t="s">
+      <c r="QW1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="QW1" s="3" t="s">
+      <c r="QX1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="QX1" s="3" t="s">
+      <c r="QY1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="QY1" s="3" t="s">
+      <c r="QZ1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="QZ1" s="3" t="s">
+      <c r="RA1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="RA1" s="3" t="s">
+      <c r="RB1" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="RB1" s="3" t="s">
+      <c r="RC1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="RC1" s="3" t="s">
+      <c r="RD1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="RD1" s="3" t="s">
+      <c r="RE1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="RE1" s="3" t="s">
+      <c r="RF1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="RF1" s="3" t="s">
+      <c r="RG1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="RG1" s="3" t="s">
+      <c r="RH1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="RH1" s="3" t="s">
+      <c r="RI1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="RI1" s="3" t="s">
+      <c r="RJ1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="RJ1" s="3" t="s">
+      <c r="RK1" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="RK1" s="3" t="s">
+      <c r="RL1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="RL1" s="3" t="s">
+      <c r="RM1" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="RM1" s="3" t="s">
+      <c r="RN1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="RN1" s="3" t="s">
+      <c r="RO1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="RO1" s="3" t="s">
+      <c r="RP1" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="RP1" s="3" t="s">
+      <c r="RQ1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="RQ1" s="3" t="s">
+      <c r="RR1" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="RR1" s="3" t="s">
+      <c r="RS1" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="RS1" s="3" t="s">
+      <c r="RT1" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="RT1" s="2" t="s">
+      <c r="RU1" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="RU1" s="3" t="s">
+      <c r="RV1" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="RV1" s="3" t="s">
+      <c r="RW1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="RW1" s="3" t="s">
+      <c r="RX1" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="RX1" s="3" t="s">
+      <c r="RY1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="RY1" s="3" t="s">
+      <c r="RZ1" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="RZ1" s="3" t="s">
+      <c r="SA1" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="SA1" s="3" t="s">
+      <c r="SB1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="SB1" s="3" t="s">
+      <c r="SC1" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="SC1" s="3" t="s">
+      <c r="SD1" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="SD1" s="3" t="s">
+      <c r="SE1" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="SE1" s="3" t="s">
+      <c r="SF1" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="SF1" s="3" t="s">
+      <c r="SG1" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="SG1" s="3" t="s">
+      <c r="SH1" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="SH1" s="3" t="s">
+      <c r="SI1" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="SI1" s="3" t="s">
+      <c r="SJ1" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="SJ1" s="3" t="s">
+      <c r="SK1" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="SK1" s="3" t="s">
+      <c r="SL1" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="SL1" s="3" t="s">
+      <c r="SM1" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="SM1" s="3" t="s">
+      <c r="SN1" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="SN1" s="3" t="s">
+      <c r="SO1" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="SO1" s="3" t="s">
+      <c r="SP1" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="SP1" s="3" t="s">
+      <c r="SQ1" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="SQ1" s="3" t="s">
+      <c r="SR1" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="SR1" s="3" t="s">
+      <c r="SS1" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="SS1" s="3" t="s">
+      <c r="ST1" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="ST1" s="2" t="s">
+      <c r="SU1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="SU1" s="4" t="s">
+      <c r="SV1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="SV1" s="4" t="s">
+      <c r="SW1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="SW1" s="4" t="s">
+      <c r="SX1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="SX1" s="4" t="s">
+      <c r="SY1" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="SY1" s="4" t="s">
+      <c r="SZ1" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="SZ1" s="4" t="s">
+      <c r="TA1" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="TA1" s="4" t="s">
+      <c r="TB1" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="TB1" s="4" t="s">
+      <c r="TC1" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="TC1" s="4" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:523" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
@@ -8210,115 +8210,115 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI1" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="34" x14ac:dyDescent="0.2">
@@ -8497,9 +8497,19 @@
     <sortCondition ref="B2:B74"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
+      <pane xSplit="2" ySplit="1.0055555555555555" topLeftCell="C57" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{0C71D9B9-0C4F-4C06-B246-E9F55F8F57C4}" scale="150">
@@ -8507,19 +8517,9 @@
       <selection pane="bottomRight" activeCell="C1" sqref="C1:E1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{177EE23F-EF35-7247-B68F-A5848D6162F2}" scale="150">
-      <pane xSplit="2" ySplit="1.0055555555555555" topLeftCell="C57" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" scale="150">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+    <customSheetView guid="{7132840B-F908-9041-87B8-CDBD763689F5}" scale="150">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -8779,6 +8779,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="bd76514a-38d3-4a55-a838-849dda26f7e2" xsi:nil="true"/>
@@ -8787,15 +8796,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8818,6 +8818,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A39BC44-814E-415D-89CF-22C6CCD92E2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3745846C-53CD-4FBE-AA4C-FA2DA17DDEF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="bd76514a-38d3-4a55-a838-849dda26f7e2"/>
@@ -8832,12 +8840,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A39BC44-814E-415D-89CF-22C6CCD92E2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_import/template.xlsx
+++ b/data_import/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plindner/Development/NWC_backend/data_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A2D3C9-A835-8444-9E98-FB8AB377F455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21097CA9-642C-1449-844A-A2D85F17CBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53940" yWindow="500" windowWidth="43620" windowHeight="21400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54680" yWindow="3140" windowWidth="43620" windowHeight="21400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Position on Planks'!$A$1:$AB$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Role at NWC'!$A$1:$AM$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Nancy Beck Young - Personal View" guid="{A581424C-CB35-5E44-8508-DDCCFB1C8F33}" mergeInterval="0" personalView="1" xWindow="1548" yWindow="-77" windowWidth="1673" windowHeight="850" activeSheetId="9"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{D7AC6949-A4B3-814F-B95B-281DFB2434BD}" mergeInterval="0" personalView="1" maximized="1" yWindow="23" windowWidth="1366" windowHeight="679" activeSheetId="5"/>
@@ -121,12 +121,6 @@
     <t>Military Service</t>
   </si>
   <si>
-    <t>state level Commission on the Status of Women (include years)</t>
-  </si>
-  <si>
-    <t>city level Commission on the Status of Women (include years)</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>Texas Tech University</t>
   </si>
   <si>
-    <t xml:space="preserve">county level Commission on the Status of Women (include years) </t>
-  </si>
-  <si>
     <t>homemaking teacher</t>
   </si>
   <si>
@@ -511,9 +502,6 @@
     <t>Children</t>
   </si>
   <si>
-    <t>Spouse/partner's Political offices (if more than one, list all but create new column for each)</t>
-  </si>
-  <si>
     <t>$6K-12K</t>
   </si>
   <si>
@@ -2552,6 +2540,18 @@
   </si>
   <si>
     <t>Year of Race that was Lost</t>
+  </si>
+  <si>
+    <t>state level Commission on the Status of Women</t>
+  </si>
+  <si>
+    <t>county level Commission on the Status of Women</t>
+  </si>
+  <si>
+    <t>city level Commission on the Status of Women</t>
+  </si>
+  <si>
+    <t>Spouse/partner's Political offices (if more than one, list all but create new row for each)</t>
   </si>
 </sst>
 </file>
@@ -3185,10 +3185,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3220,67 +3220,67 @@
   <sheetData>
     <row r="1" spans="1:29" ht="208" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>9</v>
@@ -3292,16 +3292,16 @@
         <v>4</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
@@ -3312,19 +3312,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -3336,7 +3336,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K2" s="19">
         <v>1933</v>
@@ -3345,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N2" s="21">
         <v>12</v>
@@ -3357,10 +3357,10 @@
         <v>2008</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S2" s="12">
         <v>11111111</v>
@@ -3369,19 +3369,19 @@
         <v>8474</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="24">
         <v>3</v>
@@ -3493,88 +3493,88 @@
   <sheetData>
     <row r="1" spans="1:30" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -3584,85 +3584,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -3692,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1352F9-2320-2149-A584-3B5906104A31}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M10"/>
+    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3704,350 +3704,350 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>764</v>
-      </c>
       <c r="I1" s="26" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="I2" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="M2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
       <c r="B3" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="M3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G4" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J4" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="L4" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="M4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D5" s="26"/>
       <c r="H5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="M5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H6" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="I6" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L6" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="L7" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="M7" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="M8" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="L9" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="M9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="L10" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="M10" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="L11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="L12" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="L13" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="L14" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="L15" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="L16" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I27" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I28" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -4059,45 +4059,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2D999B-521E-E049-8700-82D6F15C32D1}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>148</v>
+        <v>828</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4133,28 +4133,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4165,22 +4165,22 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4205,175 +4205,175 @@
   <sheetData>
     <row r="1" spans="1:57" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="BE1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="34" x14ac:dyDescent="0.2">
@@ -4384,169 +4384,169 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +4567,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4584,52 +4584,52 @@
   <sheetData>
     <row r="1" spans="1:20" ht="304" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -4640,13 +4640,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>16</v>
@@ -4655,31 +4655,31 @@
         <v>1954</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="J2" s="6">
         <v>1973</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -4748,11 +4748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4764,34 +4764,34 @@
   <sheetData>
     <row r="1" spans="1:17" ht="158" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -4800,16 +4800,16 @@
         <v>14</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>18</v>
+        <v>825</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>826</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>827</v>
       </c>
       <c r="Q1" s="3"/>
     </row>
@@ -4821,10 +4821,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3">
         <v>1980</v>
@@ -4833,34 +4833,34 @@
         <v>1980</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3">
         <v>1992</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
@@ -4897,7 +4897,7 @@
     </customSheetView>
   </customSheetViews>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:P1 M2:N2 P2 M3:P1048576" xr:uid="{1F0F02C7-4C09-B549-8843-ACC051E48FDD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:P1048576 M2:N2 P2 M1" xr:uid="{1F0F02C7-4C09-B549-8843-ACC051E48FDD}">
       <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 C1:C1048576" xr:uid="{77341719-C2B6-C143-89CA-6E3D0CA088CB}">
@@ -4940,19 +4940,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -4963,13 +4963,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5002,1573 +5002,1573 @@
   <sheetData>
     <row r="1" spans="1:523" s="3" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CC1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CG1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CL1" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CP1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CU1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CV1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="CS1" s="3" t="s">
+      <c r="CW1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="CT1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="CU1" s="3" t="s">
+      <c r="CY1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CZ1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="CW1" s="3" t="s">
+      <c r="DA1" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="CX1" s="3" t="s">
+      <c r="DB1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="DC1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="CZ1" s="3" t="s">
+      <c r="DD1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="DA1" s="3" t="s">
+      <c r="DE1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="DB1" s="3" t="s">
+      <c r="DF1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="DC1" s="3" t="s">
+      <c r="DG1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="DD1" s="3" t="s">
+      <c r="DH1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="DE1" s="3" t="s">
+      <c r="DI1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="DF1" s="3" t="s">
+      <c r="DJ1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="DG1" s="3" t="s">
+      <c r="DK1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="DH1" s="3" t="s">
+      <c r="DL1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="DI1" s="3" t="s">
+      <c r="DM1" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="DJ1" s="3" t="s">
+      <c r="DN1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="DK1" s="3" t="s">
+      <c r="DO1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="DL1" s="3" t="s">
+      <c r="DP1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DQ1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="DN1" s="3" t="s">
+      <c r="DR1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="DO1" s="3" t="s">
+      <c r="DS1" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DT1" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="DQ1" s="3" t="s">
+      <c r="DU1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="DR1" s="3" t="s">
+      <c r="DV1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="DS1" s="3" t="s">
+      <c r="DW1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="DT1" s="3" t="s">
+      <c r="DX1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="DU1" s="3" t="s">
+      <c r="DY1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="DV1" s="3" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="DW1" s="3" t="s">
+      <c r="EA1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="DX1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="EC1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="ED1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EE1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="EB1" s="3" t="s">
+      <c r="EF1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="EC1" s="3" t="s">
+      <c r="EG1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="ED1" s="3" t="s">
+      <c r="EH1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="EE1" s="3" t="s">
+      <c r="EI1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="EG1" s="3" t="s">
+      <c r="EK1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="EH1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="EI1" s="3" t="s">
+      <c r="EM1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="EL1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="ES1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="EW1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EY1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="FA1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="EX1" s="3" t="s">
+      <c r="FB1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="FC1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="EZ1" s="3" t="s">
+      <c r="FD1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="FA1" s="3" t="s">
+      <c r="FE1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FF1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FG1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FH1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="FE1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="FF1" s="3" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FK1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FM1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FO1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FP1" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FR1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FT1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="GA1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GD1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GE1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GG1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="GD1" s="3" t="s">
+      <c r="GH1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GI1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="GF1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="GG1" s="3" t="s">
+      <c r="GK1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="GH1" s="3" t="s">
+      <c r="GL1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GM1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="GJ1" s="3" t="s">
+      <c r="GN1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="GK1" s="3" t="s">
+      <c r="GO1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="GL1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="GM1" s="3" t="s">
+      <c r="GQ1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="GN1" s="3" t="s">
+      <c r="GR1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GT1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="GQ1" s="3" t="s">
+      <c r="GU1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GV1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="GS1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GX1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="GU1" s="3" t="s">
+      <c r="GY1" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="GZ1" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="GW1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="GX1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HE1" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HF1" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HI1" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HK1" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HL1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HM1" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HN1" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HP1" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HR1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HT1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HU1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="HS1" s="3" t="s">
+      <c r="HW1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="HT1" s="3" t="s">
+      <c r="HX1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HY1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="HV1" s="3" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="HW1" s="3" t="s">
+      <c r="IA1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="HX1" s="3" t="s">
+      <c r="IB1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="HY1" s="3" t="s">
+      <c r="IC1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="HZ1" s="3" t="s">
+      <c r="ID1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="IA1" s="3" t="s">
+      <c r="IE1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="IB1" s="3" t="s">
+      <c r="IF1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="IC1" s="3" t="s">
+      <c r="IG1" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="ID1" s="3" t="s">
+      <c r="IH1" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="IE1" s="3" t="s">
+      <c r="II1" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="IF1" s="3" t="s">
+      <c r="IJ1" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="IG1" s="3" t="s">
+      <c r="IK1" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="IH1" s="3" t="s">
+      <c r="IL1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="II1" s="3" t="s">
+      <c r="IM1" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="IJ1" s="3" t="s">
+      <c r="IN1" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="IK1" s="3" t="s">
+      <c r="IO1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="IL1" s="3" t="s">
+      <c r="IP1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="IM1" s="3" t="s">
+      <c r="IQ1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="IN1" s="3" t="s">
+      <c r="IR1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="IO1" s="3" t="s">
+      <c r="IS1" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="IP1" s="3" t="s">
+      <c r="IT1" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="IQ1" s="3" t="s">
+      <c r="IU1" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="IR1" s="3" t="s">
+      <c r="IV1" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="IS1" s="3" t="s">
+      <c r="IW1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="IT1" s="3" t="s">
+      <c r="IX1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="IU1" s="3" t="s">
+      <c r="IY1" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="IV1" s="3" t="s">
+      <c r="IZ1" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="IW1" s="3" t="s">
+      <c r="JA1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="IX1" s="3" t="s">
+      <c r="JB1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="IY1" s="3" t="s">
+      <c r="JC1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="IZ1" s="3" t="s">
+      <c r="JD1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="JA1" s="3" t="s">
+      <c r="JE1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="JB1" s="3" t="s">
+      <c r="JF1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="JC1" s="3" t="s">
+      <c r="JG1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="JD1" s="3" t="s">
+      <c r="JH1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="JE1" s="3" t="s">
+      <c r="JI1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="JF1" s="3" t="s">
+      <c r="JJ1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="JG1" s="3" t="s">
+      <c r="JK1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="JH1" s="3" t="s">
+      <c r="JL1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="JI1" s="3" t="s">
+      <c r="JM1" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="JJ1" s="2" t="s">
+      <c r="JN1" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="JK1" s="3" t="s">
+      <c r="JO1" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="JL1" s="3" t="s">
+      <c r="JP1" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="JM1" s="3" t="s">
+      <c r="JQ1" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="JN1" s="3" t="s">
+      <c r="JR1" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="JO1" s="3" t="s">
+      <c r="JS1" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="JP1" s="3" t="s">
+      <c r="JT1" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="JQ1" s="3" t="s">
+      <c r="JU1" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="JR1" s="3" t="s">
+      <c r="JV1" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="JS1" s="3" t="s">
+      <c r="JW1" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JX1" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="JU1" s="2" t="s">
+      <c r="JY1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="JV1" s="3" t="s">
+      <c r="JZ1" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="JW1" s="3" t="s">
+      <c r="KA1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="JX1" s="3" t="s">
+      <c r="KB1" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="JY1" s="3" t="s">
+      <c r="KC1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="JZ1" s="3" t="s">
+      <c r="KD1" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="KA1" s="3" t="s">
+      <c r="KE1" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="KB1" s="3" t="s">
+      <c r="KF1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="KC1" s="3" t="s">
+      <c r="KG1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="KD1" s="3" t="s">
+      <c r="KH1" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="KE1" s="3" t="s">
+      <c r="KI1" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="KF1" s="3" t="s">
+      <c r="KJ1" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="KG1" s="3" t="s">
+      <c r="KK1" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="KH1" s="3" t="s">
+      <c r="KL1" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="KI1" s="3" t="s">
+      <c r="KM1" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="KJ1" s="3" t="s">
+      <c r="KN1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="KK1" s="3" t="s">
+      <c r="KO1" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="KL1" s="2" t="s">
+      <c r="KP1" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="KM1" s="3" t="s">
+      <c r="KQ1" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="KN1" s="3" t="s">
+      <c r="KR1" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="KO1" s="2" t="s">
+      <c r="KS1" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="KP1" s="3" t="s">
+      <c r="KT1" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="KQ1" s="3" t="s">
+      <c r="KU1" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="KR1" s="2" t="s">
+      <c r="KV1" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="KS1" s="3" t="s">
+      <c r="KW1" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="KT1" s="3" t="s">
+      <c r="KX1" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="KU1" s="3" t="s">
+      <c r="KY1" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="KV1" s="2" t="s">
+      <c r="KZ1" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="KW1" s="2" t="s">
+      <c r="LA1" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="KX1" s="2" t="s">
+      <c r="LB1" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="KY1" s="3" t="s">
+      <c r="LC1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="KZ1" s="3" t="s">
+      <c r="LD1" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="LA1" s="3" t="s">
+      <c r="LE1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="LB1" s="3" t="s">
+      <c r="LF1" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="LC1" s="2" t="s">
+      <c r="LG1" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="LD1" s="3" t="s">
+      <c r="LH1" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="LE1" s="3" t="s">
+      <c r="LI1" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="LF1" s="3" t="s">
+      <c r="LJ1" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="LG1" s="3" t="s">
+      <c r="LK1" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="LH1" s="3" t="s">
+      <c r="LL1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="LI1" s="3" t="s">
+      <c r="LM1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="LJ1" s="3" t="s">
+      <c r="LN1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="LK1" s="3" t="s">
+      <c r="LO1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="LL1" s="3" t="s">
+      <c r="LP1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="LM1" s="3" t="s">
+      <c r="LQ1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="LN1" s="3" t="s">
+      <c r="LR1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="LO1" s="3" t="s">
+      <c r="LS1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="LP1" s="3" t="s">
+      <c r="LT1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="LQ1" s="3" t="s">
+      <c r="LU1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="LR1" s="3" t="s">
+      <c r="LV1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="LS1" s="3" t="s">
+      <c r="LW1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="LT1" s="3" t="s">
+      <c r="LX1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="LU1" s="3" t="s">
+      <c r="LY1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="LV1" s="3" t="s">
+      <c r="LZ1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="LW1" s="3" t="s">
+      <c r="MA1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="LX1" s="3" t="s">
+      <c r="MB1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="LY1" s="3" t="s">
+      <c r="MC1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="LZ1" s="3" t="s">
+      <c r="MD1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="MA1" s="3" t="s">
+      <c r="ME1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="MB1" s="3" t="s">
+      <c r="MF1" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="MC1" s="3" t="s">
+      <c r="MG1" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="MD1" s="3" t="s">
+      <c r="MH1" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="ME1" s="3" t="s">
+      <c r="MI1" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="MF1" s="3" t="s">
+      <c r="MJ1" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="MG1" s="3" t="s">
+      <c r="MK1" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="MH1" s="3" t="s">
+      <c r="ML1" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="MI1" s="3" t="s">
+      <c r="MM1" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="MJ1" s="3" t="s">
+      <c r="MN1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="MK1" s="3" t="s">
+      <c r="MO1" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="ML1" s="3" t="s">
+      <c r="MP1" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="MM1" s="2" t="s">
+      <c r="MQ1" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="MN1" s="3" t="s">
+      <c r="MR1" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="MO1" s="3" t="s">
+      <c r="MS1" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="MP1" s="3" t="s">
+      <c r="MT1" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="MQ1" s="3" t="s">
+      <c r="MU1" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="MR1" s="3" t="s">
+      <c r="MV1" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="MS1" s="3" t="s">
+      <c r="MW1" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="MT1" s="4" t="s">
+      <c r="MX1" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="MU1" s="3" t="s">
+      <c r="MY1" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="MV1" s="3" t="s">
+      <c r="MZ1" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="MW1" s="3" t="s">
+      <c r="NA1" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="MX1" s="3" t="s">
+      <c r="NB1" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="MY1" s="3" t="s">
+      <c r="NC1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="MZ1" s="3" t="s">
+      <c r="ND1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="NA1" s="3" t="s">
+      <c r="NE1" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="NB1" s="3" t="s">
+      <c r="NF1" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="NC1" s="3" t="s">
+      <c r="NG1" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="ND1" s="3" t="s">
+      <c r="NH1" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="NE1" s="3" t="s">
+      <c r="NI1" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="NF1" s="3" t="s">
+      <c r="NJ1" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="NG1" s="2" t="s">
+      <c r="NK1" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="NH1" s="3" t="s">
+      <c r="NL1" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="NI1" s="3" t="s">
+      <c r="NM1" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="NJ1" s="3" t="s">
+      <c r="NN1" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="NK1" s="3" t="s">
+      <c r="NO1" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="NL1" s="3" t="s">
+      <c r="NP1" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="NM1" s="3" t="s">
+      <c r="NQ1" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="NN1" s="3" t="s">
+      <c r="NR1" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="NO1" s="3" t="s">
+      <c r="NS1" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="NP1" s="3" t="s">
+      <c r="NT1" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="NQ1" s="3" t="s">
+      <c r="NU1" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="NR1" s="3" t="s">
+      <c r="NV1" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="NS1" s="3" t="s">
+      <c r="NW1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="NT1" s="3" t="s">
+      <c r="NX1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="NU1" s="3" t="s">
+      <c r="NY1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="NV1" s="3" t="s">
+      <c r="NZ1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="NW1" s="3" t="s">
+      <c r="OA1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="NX1" s="3" t="s">
+      <c r="OB1" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="NY1" s="3" t="s">
+      <c r="OC1" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="NZ1" s="3" t="s">
+      <c r="OD1" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="OA1" s="3" t="s">
+      <c r="OE1" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="OB1" s="3" t="s">
+      <c r="OF1" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="OC1" s="3" t="s">
+      <c r="OG1" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="OD1" s="3" t="s">
+      <c r="OH1" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="OE1" s="3" t="s">
+      <c r="OI1" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="OF1" s="3" t="s">
+      <c r="OJ1" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="OG1" s="3" t="s">
+      <c r="OK1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="OH1" s="3" t="s">
+      <c r="OL1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="OI1" s="3" t="s">
+      <c r="OM1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="OJ1" s="3" t="s">
+      <c r="ON1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="OK1" s="3" t="s">
+      <c r="OO1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="OL1" s="3" t="s">
+      <c r="OP1" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="OM1" s="3" t="s">
+      <c r="OQ1" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="ON1" s="3" t="s">
+      <c r="OR1" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="OO1" s="3" t="s">
+      <c r="OS1" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="OP1" s="3" t="s">
+      <c r="OT1" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="OQ1" s="3" t="s">
+      <c r="OU1" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="OR1" s="3" t="s">
+      <c r="OV1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="OS1" s="3" t="s">
+      <c r="OW1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="OT1" s="3" t="s">
+      <c r="OX1" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="OU1" s="3" t="s">
+      <c r="OY1" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="OV1" s="3" t="s">
+      <c r="OZ1" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="OW1" s="3" t="s">
+      <c r="PA1" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="OX1" s="3" t="s">
+      <c r="PB1" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="OY1" s="3" t="s">
+      <c r="PC1" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="OZ1" s="3" t="s">
+      <c r="PD1" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="PA1" s="3" t="s">
+      <c r="PE1" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="PB1" s="3" t="s">
+      <c r="PF1" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="PC1" s="3" t="s">
+      <c r="PG1" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="PD1" s="3" t="s">
+      <c r="PH1" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="PE1" s="3" t="s">
+      <c r="PI1" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="PF1" s="3" t="s">
+      <c r="PJ1" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="PG1" s="3" t="s">
+      <c r="PK1" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="PH1" s="3" t="s">
+      <c r="PL1" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="PI1" s="3" t="s">
+      <c r="PM1" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="PJ1" s="3" t="s">
+      <c r="PN1" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="PK1" s="3" t="s">
+      <c r="PO1" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="PL1" s="3" t="s">
+      <c r="PP1" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="PM1" s="3" t="s">
+      <c r="PQ1" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="PN1" s="3" t="s">
+      <c r="PR1" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="PO1" s="3" t="s">
+      <c r="PS1" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="PP1" s="3" t="s">
+      <c r="PT1" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="PQ1" s="2" t="s">
+      <c r="PU1" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="PR1" s="3" t="s">
+      <c r="PV1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="PS1" s="3" t="s">
+      <c r="PW1" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="PT1" s="3" t="s">
+      <c r="PX1" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="PU1" s="3" t="s">
+      <c r="PY1" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="PV1" s="3" t="s">
+      <c r="PZ1" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="PW1" s="3" t="s">
+      <c r="QA1" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="PX1" s="3" t="s">
+      <c r="QB1" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="PY1" s="3" t="s">
+      <c r="QC1" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="PZ1" s="3" t="s">
+      <c r="QD1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="QA1" s="3" t="s">
+      <c r="QE1" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="QB1" s="3" t="s">
+      <c r="QF1" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="QC1" s="3" t="s">
+      <c r="QG1" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="QD1" s="3" t="s">
+      <c r="QH1" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="QE1" s="3" t="s">
+      <c r="QI1" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="QF1" s="3" t="s">
+      <c r="QJ1" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="QG1" s="3" t="s">
+      <c r="QK1" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="QH1" s="3" t="s">
+      <c r="QL1" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="QI1" s="3" t="s">
+      <c r="QM1" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="QJ1" s="3" t="s">
+      <c r="QN1" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="QK1" s="3" t="s">
+      <c r="QO1" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="QL1" s="3" t="s">
+      <c r="QP1" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="QM1" s="3" t="s">
+      <c r="QQ1" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="QN1" s="3" t="s">
+      <c r="QR1" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="QO1" s="3" t="s">
+      <c r="QS1" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="QP1" s="3" t="s">
+      <c r="QT1" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="QQ1" s="3" t="s">
+      <c r="QU1" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="QR1" s="3" t="s">
+      <c r="QV1" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="QS1" s="3" t="s">
+      <c r="QW1" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="QT1" s="3" t="s">
+      <c r="QX1" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="QU1" s="3" t="s">
+      <c r="QY1" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="QV1" s="3" t="s">
+      <c r="QZ1" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="QW1" s="3" t="s">
+      <c r="RA1" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="QX1" s="3" t="s">
+      <c r="RB1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="QY1" s="3" t="s">
+      <c r="RC1" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="QZ1" s="3" t="s">
+      <c r="RD1" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="RA1" s="3" t="s">
+      <c r="RE1" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="RB1" s="3" t="s">
+      <c r="RF1" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="RC1" s="3" t="s">
+      <c r="RG1" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="RD1" s="3" t="s">
+      <c r="RH1" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="RE1" s="3" t="s">
+      <c r="RI1" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="RF1" s="3" t="s">
+      <c r="RJ1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="RG1" s="3" t="s">
+      <c r="RK1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="RH1" s="3" t="s">
+      <c r="RL1" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="RI1" s="3" t="s">
+      <c r="RM1" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="RJ1" s="3" t="s">
+      <c r="RN1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="RK1" s="3" t="s">
+      <c r="RO1" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="RL1" s="3" t="s">
+      <c r="RP1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="RM1" s="3" t="s">
+      <c r="RQ1" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="RN1" s="3" t="s">
+      <c r="RR1" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="RO1" s="3" t="s">
+      <c r="RS1" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="RP1" s="3" t="s">
+      <c r="RT1" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="RQ1" s="3" t="s">
+      <c r="RU1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="RR1" s="3" t="s">
+      <c r="RV1" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="RS1" s="3" t="s">
+      <c r="RW1" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="RT1" s="2" t="s">
+      <c r="RX1" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="RU1" s="3" t="s">
+      <c r="RY1" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="RV1" s="3" t="s">
+      <c r="RZ1" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="RW1" s="3" t="s">
+      <c r="SA1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="RX1" s="3" t="s">
+      <c r="SB1" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="RY1" s="3" t="s">
+      <c r="SC1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="RZ1" s="3" t="s">
+      <c r="SD1" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="SA1" s="3" t="s">
+      <c r="SE1" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="SB1" s="3" t="s">
+      <c r="SF1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="SC1" s="3" t="s">
+      <c r="SG1" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="SD1" s="3" t="s">
+      <c r="SH1" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="SE1" s="3" t="s">
+      <c r="SI1" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="SF1" s="3" t="s">
+      <c r="SJ1" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="SG1" s="3" t="s">
+      <c r="SK1" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="SH1" s="3" t="s">
+      <c r="SL1" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="SI1" s="3" t="s">
+      <c r="SM1" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="SJ1" s="3" t="s">
+      <c r="SN1" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="SK1" s="3" t="s">
+      <c r="SO1" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="SL1" s="3" t="s">
+      <c r="SP1" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="SM1" s="3" t="s">
+      <c r="SQ1" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="SN1" s="3" t="s">
+      <c r="SR1" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="SO1" s="3" t="s">
+      <c r="SS1" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="SP1" s="3" t="s">
+      <c r="ST1" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="SQ1" s="3" t="s">
+      <c r="SU1" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="SR1" s="3" t="s">
+      <c r="SV1" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="SS1" s="3" t="s">
+      <c r="SW1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="ST1" s="2" t="s">
+      <c r="SX1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="SU1" s="4" t="s">
+      <c r="SY1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="SV1" s="4" t="s">
+      <c r="SZ1" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="SW1" s="4" t="s">
+      <c r="TA1" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="SX1" s="4" t="s">
+      <c r="TB1" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="SY1" s="4" t="s">
+      <c r="TC1" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="SZ1" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="TA1" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="TB1" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="TC1" s="4" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:523" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -6576,1570 +6576,1570 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ED2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ER2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ES2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ET2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="EZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="FZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="GZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="HZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ID2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="II2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="IZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="JZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="KZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="LZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ME2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ML2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="MZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ND2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NG2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NH2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="NZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ON2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="OZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="PZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="QZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RT2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="RZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SN2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SO2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SP2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SQ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SR2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SS2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="ST2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SU2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SV2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SW2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SX2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SY2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="SZ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="TA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="TB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="TC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8204,121 +8204,121 @@
   <sheetData>
     <row r="1" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="34" x14ac:dyDescent="0.2">
@@ -8329,115 +8329,115 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
         <v>999</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
@@ -8536,6 +8536,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bd76514a-38d3-4a55-a838-849dda26f7e2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcf5d3c2-488e-4de2-8056-3fa254415355">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C9EFB88A62956498B81E693F8B7D4F5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeabbde60cfa14124a8f2174ada8e4b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcf5d3c2-488e-4de2-8056-3fa254415355" xmlns:ns3="bd76514a-38d3-4a55-a838-849dda26f7e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16f813dc65a68ab3ba06770b7bbdda30" ns2:_="" ns3:_="">
     <xsd:import namespace="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
@@ -8778,7 +8789,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8787,18 +8798,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bd76514a-38d3-4a55-a838-849dda26f7e2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcf5d3c2-488e-4de2-8056-3fa254415355">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3745846C-53CD-4FBE-AA4C-FA2DA17DDEF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="bd76514a-38d3-4a55-a838-849dda26f7e2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05957816-DADA-4129-8245-FA21BA6371FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8817,27 +8834,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A39BC44-814E-415D-89CF-22C6CCD92E2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3745846C-53CD-4FBE-AA4C-FA2DA17DDEF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bd76514a-38d3-4a55-a838-849dda26f7e2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcf5d3c2-488e-4de2-8056-3fa254415355"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>